--- a/气象/多站统计.xlsx
+++ b/气象/多站统计.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F71406-CCED-4C9C-8011-1D5E2C77C76A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B0D51B-E026-412A-9902-35B8CE69C997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{237916A9-0E72-4A8C-88B8-0F539FC0B012}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="4" xr2:uid="{237916A9-0E72-4A8C-88B8-0F539FC0B012}"/>
   </bookViews>
   <sheets>
     <sheet name="输出页" sheetId="1" r:id="rId1"/>
     <sheet name="蒙古冷站" sheetId="2" r:id="rId2"/>
     <sheet name="南方省会最热月" sheetId="3" r:id="rId3"/>
     <sheet name="极端冷月平均气温" sheetId="4" r:id="rId4"/>
+    <sheet name="寒冷爆发力" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2085" uniqueCount="1953">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2256" uniqueCount="1976">
   <si>
     <t>undefined</t>
   </si>
@@ -5450,10 +5451,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2016/1/30(推测)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5461,10 +5458,6 @@
     <t>扎布汗省</t>
   </si>
   <si>
-    <t>2018/1/26(推测)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>乌布苏省</t>
   </si>
   <si>
@@ -5481,11 +5474,6 @@
   </si>
   <si>
     <t>东戈壁</t>
-  </si>
-  <si>
-    <t>2025/1/16 ( 推测
-实际-46.0 ~ -46.5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2025
@@ -5494,46 +5482,6 @@
   </si>
   <si>
     <t>特斯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="32"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>蒙古近10年低温统计(部分)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="36"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(不一定是最低温，因为蒙古共享的交换站数据不准确，而且经常查不到一些站的最低气温，始终查不到乌布苏省东戈壁、扎布汗省特斯、库苏古尔省查干诺尔等站的历史气温)</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -6377,9 +6325,6 @@
     <t>新疆 阿勒泰地区</t>
   </si>
   <si>
-    <t>青河 玉树藏族自治州</t>
-  </si>
-  <si>
     <t>吉林 吉林市</t>
   </si>
   <si>
@@ -6486,6 +6431,189 @@
   </si>
   <si>
     <t>均温之差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青海 玉树藏族自治州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌布苏省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东戈壁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016/1/30(?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/1/26(?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际 -46.0 ~ -46.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="32"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>蒙古近10年低温统计(部分)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="36"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(不一定包含当年蒙古最低气温，也不一定是该站点当年甚至当日最低温)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河北 张家口市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>康保</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ( 1977年01月 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新疆 阿勒泰地区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青河</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ( 1969年01月 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉荫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑龙江 伊春市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>俄罗斯 阿穆尔州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢列姆贾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ( 1969年12月 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 一月
+已撤站，推测值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ( 1961-1990 )</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ( 1961-1990 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ( 1991-2020 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒冷爆发力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ 930</t>
+  </si>
+  <si>
+    <t>/ 930</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>样本天数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="36"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>东亚冷站PK: 寒冷爆发力</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="36"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>自定义公式:  寒冷爆发力 = 100 × 日均温对月均温的标准差</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一月平均气温(℃)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6493,12 +6621,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="0.0"/>
     <numFmt numFmtId="178" formatCode="0.0_ "/>
+    <numFmt numFmtId="179" formatCode="0_ "/>
+    <numFmt numFmtId="180" formatCode="#\ ???/???"/>
   </numFmts>
-  <fonts count="49" x14ac:knownFonts="1">
+  <fonts count="61" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6928,8 +7058,116 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="9" tint="0.79998168889431442"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="2" tint="-0.499984740745262"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFF00"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FF00B0F0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="7" tint="0.39997558519241921"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FF92D050"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="5" tint="0.39997558519241921"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="2" tint="-0.499984740745262"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="36"/>
+      <color rgb="FFFFFF00"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF00B0F0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FFFFFF00"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7017,6 +7255,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF590D22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0A2344"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3B1D4A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6B1650"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9C1057"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC095D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFD0363"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7211,7 +7485,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7311,9 +7585,6 @@
     <xf numFmtId="14" fontId="12" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="8" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7398,77 +7669,14 @@
     <xf numFmtId="0" fontId="32" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -7512,14 +7720,158 @@
     <xf numFmtId="178" fontId="8" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="178" fontId="47" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="49" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="50" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="50" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="51" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="51" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="52" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="18" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="178" fontId="60" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="179" fontId="26" fillId="16" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="179" fontId="26" fillId="17" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="179" fontId="26" fillId="18" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="179" fontId="26" fillId="19" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="179" fontId="26" fillId="20" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="179" fontId="26" fillId="21" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="47" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="43" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="43" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7544,14 +7896,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFF72585"/>
-      <color rgb="FF7209B7"/>
-      <color rgb="FFB7AE02"/>
-      <color rgb="FFA4133C"/>
-      <color rgb="FF800F2F"/>
-      <color rgb="FF590D22"/>
-      <color rgb="FF6F1D1B"/>
-      <color rgb="FFB5179E"/>
+      <color rgb="FF4CC9F0"/>
+      <color rgb="FF3F37C9"/>
+      <color rgb="FF560BAD"/>
+      <color rgb="FFFD0363"/>
+      <color rgb="FFCC095D"/>
+      <color rgb="FF9C1057"/>
+      <color rgb="FF6B1650"/>
+      <color rgb="FF3B1D4A"/>
+      <color rgb="FF0A2344"/>
+      <color rgb="FF3A0CA3"/>
     </mruColors>
   </colors>
   <extLst>
@@ -7864,7 +8218,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BB437BE-8368-478F-8E2B-A86CD46B37A1}">
   <dimension ref="A1:I911"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
@@ -7880,15 +8234,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="62"/>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="64"/>
+      <c r="A1" s="103"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="105"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="15" t="s">
@@ -31469,16 +31823,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94ABDC8A-163A-480F-B2C9-0CD0B852C7D7}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A4"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.59765625" style="25" customWidth="1"/>
-    <col min="2" max="2" width="18.59765625" style="25" customWidth="1"/>
+    <col min="1" max="2" width="12.59765625" style="25" customWidth="1"/>
     <col min="3" max="3" width="22.59765625" style="26" customWidth="1"/>
     <col min="4" max="4" width="17.59765625" style="28" customWidth="1"/>
     <col min="5" max="5" width="22.59765625" style="27" customWidth="1"/>
@@ -31486,291 +31839,309 @@
     <col min="7" max="16384" width="9.06640625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="76.05" customHeight="1" thickBot="1" x14ac:dyDescent="1.2">
-      <c r="A1" s="68" t="s">
-        <v>1800</v>
-      </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-    </row>
-    <row r="2" spans="1:6" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" ht="58.05" customHeight="1" thickBot="1" x14ac:dyDescent="1.2">
+      <c r="A1" s="109" t="s">
+        <v>1954</v>
+      </c>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+    </row>
+    <row r="2" spans="1:6" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="29" t="s">
         <v>1783</v>
       </c>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="114" t="s">
         <v>1775</v>
       </c>
-      <c r="C2" s="74"/>
+      <c r="C2" s="115"/>
       <c r="D2" s="29" t="s">
         <v>1786</v>
       </c>
       <c r="E2" s="29" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="106">
+        <v>2016</v>
+      </c>
+      <c r="B3" s="80" t="s">
         <v>1788</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="65">
-        <v>2016</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>1789</v>
-      </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="34" t="s">
         <v>1784</v>
       </c>
-      <c r="D3" s="34">
+      <c r="D3" s="33">
         <v>-55.3</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>1787</v>
+        <v>1951</v>
       </c>
       <c r="F3" s="24"/>
     </row>
-    <row r="4" spans="1:6" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="66"/>
-      <c r="B4" s="33" t="s">
-        <v>1789</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>1792</v>
-      </c>
-      <c r="D4" s="34">
+    <row r="4" spans="1:6" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="107"/>
+      <c r="B4" s="80" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>1790</v>
+      </c>
+      <c r="D4" s="33">
         <v>-54.7</v>
       </c>
       <c r="E4" s="31">
         <v>42412</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="36">
+    <row r="5" spans="1:6" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="35">
         <v>2017</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="80" t="s">
+        <v>1789</v>
+      </c>
+      <c r="C5" s="34" t="s">
         <v>1791</v>
       </c>
-      <c r="C5" s="35" t="s">
-        <v>1793</v>
-      </c>
-      <c r="D5" s="34">
+      <c r="D5" s="33">
         <v>-45.4</v>
       </c>
       <c r="E5" s="31">
         <v>42763</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="65">
+    <row r="6" spans="1:6" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="106">
         <v>2018</v>
       </c>
-      <c r="B6" s="33" t="s">
-        <v>1789</v>
-      </c>
-      <c r="C6" s="35" t="s">
-        <v>1792</v>
-      </c>
-      <c r="D6" s="34">
+      <c r="B6" s="80" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>1790</v>
+      </c>
+      <c r="D6" s="33">
         <v>-53.2</v>
       </c>
       <c r="E6" s="31">
         <v>43124</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="34.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="67"/>
-      <c r="B7" s="33" t="s">
-        <v>1789</v>
-      </c>
-      <c r="C7" s="35" t="s">
-        <v>1794</v>
-      </c>
-      <c r="D7" s="34">
+    <row r="7" spans="1:6" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="108"/>
+      <c r="B7" s="80" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>1792</v>
+      </c>
+      <c r="D7" s="33">
         <v>-51.8</v>
       </c>
       <c r="E7" s="31">
         <v>43127</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="67"/>
-      <c r="B8" s="33" t="s">
+    <row r="8" spans="1:6" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="108"/>
+      <c r="B8" s="80" t="s">
+        <v>1789</v>
+      </c>
+      <c r="C8" s="34" t="s">
         <v>1791</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="D8" s="33">
+        <v>-50</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="107"/>
+      <c r="B9" s="80" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C9" s="34" t="s">
         <v>1793</v>
       </c>
-      <c r="D8" s="34">
-        <v>-50</v>
-      </c>
-      <c r="E8" s="31" t="s">
-        <v>1790</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="66"/>
-      <c r="B9" s="33" t="s">
-        <v>1789</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>1795</v>
-      </c>
-      <c r="D9" s="34">
+      <c r="D9" s="33">
         <v>-50</v>
       </c>
       <c r="E9" s="31">
         <v>43125</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="36">
+    <row r="10" spans="1:6" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="35">
         <v>2019</v>
       </c>
-      <c r="B10" s="33" t="s">
-        <v>1789</v>
-      </c>
-      <c r="C10" s="35" t="s">
-        <v>1794</v>
-      </c>
-      <c r="D10" s="34">
+      <c r="B10" s="80" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>1792</v>
+      </c>
+      <c r="D10" s="33">
         <v>-48.4</v>
       </c>
       <c r="E10" s="31">
         <v>43828</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="36">
+    <row r="11" spans="1:6" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="35">
         <v>2020</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="80" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>1784</v>
+      </c>
+      <c r="D11" s="33">
+        <v>-49.6</v>
+      </c>
+      <c r="E11" s="30"/>
+    </row>
+    <row r="12" spans="1:6" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="35">
+        <v>2021</v>
+      </c>
+      <c r="B12" s="80" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>1784</v>
+      </c>
+      <c r="D12" s="33">
+        <v>-47.2</v>
+      </c>
+      <c r="E12" s="30"/>
+    </row>
+    <row r="13" spans="1:6" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="35">
+        <v>2022</v>
+      </c>
+      <c r="B13" s="80" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>1792</v>
+      </c>
+      <c r="D13" s="33">
+        <v>-46.8</v>
+      </c>
+      <c r="E13" s="30"/>
+    </row>
+    <row r="14" spans="1:6" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="106">
+        <v>2023</v>
+      </c>
+      <c r="B14" s="80" t="s">
+        <v>1949</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>1950</v>
+      </c>
+      <c r="D14" s="33">
+        <v>-50</v>
+      </c>
+      <c r="E14" s="31">
+        <v>45280</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="107"/>
+      <c r="B15" s="80" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>1792</v>
+      </c>
+      <c r="D15" s="33">
+        <v>-49.9</v>
+      </c>
+      <c r="E15" s="30"/>
+    </row>
+    <row r="16" spans="1:6" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="35">
+        <v>2024</v>
+      </c>
+      <c r="B16" s="80" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>1784</v>
+      </c>
+      <c r="D16" s="33">
+        <v>-48.8</v>
+      </c>
+      <c r="E16" s="31">
+        <v>45312</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="111" t="s">
+        <v>1795</v>
+      </c>
+      <c r="B17" s="80" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>1785</v>
+      </c>
+      <c r="D17" s="33">
+        <v>-45.6</v>
+      </c>
+      <c r="E17" s="31">
+        <v>45659</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="112"/>
+      <c r="B18" s="80" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D18" s="33">
+        <v>-45.6</v>
+      </c>
+      <c r="E18" s="31">
+        <v>45673</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="113"/>
+      <c r="B19" s="80" t="s">
         <v>1789</v>
       </c>
-      <c r="C11" s="35" t="s">
-        <v>1784</v>
-      </c>
-      <c r="D11" s="34">
-        <v>-49.6</v>
-      </c>
-      <c r="E11" s="30"/>
-    </row>
-    <row r="12" spans="1:6" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="36">
-        <v>2021</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>1789</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>1784</v>
-      </c>
-      <c r="D12" s="34">
-        <v>-47.2</v>
-      </c>
-      <c r="E12" s="30"/>
-    </row>
-    <row r="13" spans="1:6" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="36">
-        <v>2022</v>
-      </c>
-      <c r="B13" s="33" t="s">
-        <v>1789</v>
-      </c>
-      <c r="C13" s="35" t="s">
+      <c r="C19" s="34" t="s">
         <v>1794</v>
       </c>
-      <c r="D13" s="34">
-        <v>-46.8</v>
-      </c>
-      <c r="E13" s="30"/>
-    </row>
-    <row r="14" spans="1:6" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="36">
-        <v>2023</v>
-      </c>
-      <c r="B14" s="33" t="s">
-        <v>1789</v>
-      </c>
-      <c r="C14" s="35" t="s">
-        <v>1794</v>
-      </c>
-      <c r="D14" s="34">
-        <v>-49.9</v>
-      </c>
-      <c r="E14" s="30"/>
-    </row>
-    <row r="15" spans="1:6" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="36">
-        <v>2024</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>1789</v>
-      </c>
-      <c r="C15" s="35" t="s">
-        <v>1784</v>
-      </c>
-      <c r="D15" s="34">
-        <v>-48.8</v>
-      </c>
-      <c r="E15" s="30"/>
-    </row>
-    <row r="16" spans="1:6" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="70" t="s">
-        <v>1798</v>
-      </c>
-      <c r="B16" s="33" t="s">
-        <v>1789</v>
-      </c>
-      <c r="C16" s="35" t="s">
-        <v>1785</v>
-      </c>
-      <c r="D16" s="34">
-        <v>-45.6</v>
-      </c>
-      <c r="E16" s="31">
-        <v>45659</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="71"/>
-      <c r="B17" s="33" t="s">
-        <v>1789</v>
-      </c>
-      <c r="C17" s="35" t="s">
-        <v>1799</v>
-      </c>
-      <c r="D17" s="34">
-        <v>-45.6</v>
-      </c>
-      <c r="E17" s="31">
-        <v>45673</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="72"/>
-      <c r="B18" s="33" t="s">
-        <v>1791</v>
-      </c>
-      <c r="C18" s="35" t="s">
-        <v>1796</v>
-      </c>
-      <c r="D18" s="34">
+      <c r="D19" s="33">
         <v>-44.2</v>
       </c>
-      <c r="E18" s="32" t="s">
-        <v>1797</v>
+      <c r="E19" s="32" t="s">
+        <v>1953</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D3:D18">
+  <conditionalFormatting sqref="D3:D19">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -31804,276 +32175,276 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="116" t="s">
+        <v>1836</v>
+      </c>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+    </row>
+    <row r="2" spans="1:4" s="36" customFormat="1" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="59" t="s">
+        <v>1835</v>
+      </c>
+      <c r="B2" s="60" t="s">
+        <v>1853</v>
+      </c>
+      <c r="C2" s="60" t="s">
+        <v>1854</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="52" t="s">
+        <v>1814</v>
+      </c>
+      <c r="B3" s="50" t="s">
         <v>1840</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-    </row>
-    <row r="2" spans="1:4" s="37" customFormat="1" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="60" t="s">
+      <c r="C3" s="51" t="s">
+        <v>1841</v>
+      </c>
+      <c r="D3" s="56">
+        <v>51573</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="49" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B4" s="45" t="s">
         <v>1839</v>
       </c>
-      <c r="B2" s="61" t="s">
-        <v>1857</v>
-      </c>
-      <c r="C2" s="61" t="s">
-        <v>1858</v>
-      </c>
-      <c r="D2" s="38" t="s">
-        <v>1776</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="53" t="s">
+      <c r="C4" s="39" t="s">
+        <v>1830</v>
+      </c>
+      <c r="D4" s="56">
+        <v>58968</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="49" t="s">
+        <v>1799</v>
+      </c>
+      <c r="B5" s="45" t="s">
+        <v>1817</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>1826</v>
+      </c>
+      <c r="D5" s="56">
+        <v>58606</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="49" t="s">
+        <v>1806</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>1817</v>
+      </c>
+      <c r="C6" s="53" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D6" s="56">
+        <v>57687</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="49" t="s">
+        <v>1801</v>
+      </c>
+      <c r="B7" s="45" t="s">
+        <v>1819</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>1828</v>
+      </c>
+      <c r="D7" s="56">
+        <v>58847</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="49" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B8" s="45" t="s">
         <v>1818</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="C8" s="40" t="s">
+        <v>1827</v>
+      </c>
+      <c r="D8" s="56">
+        <v>58457</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="49" t="s">
+        <v>1807</v>
+      </c>
+      <c r="B9" s="45" t="s">
+        <v>1818</v>
+      </c>
+      <c r="C9" s="53" t="s">
+        <v>1847</v>
+      </c>
+      <c r="D9" s="56">
+        <v>57494</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="49" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>1843</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>1838</v>
+      </c>
+      <c r="D10" s="56">
+        <v>57516</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="49" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>1829</v>
+      </c>
+      <c r="D11" s="56">
+        <v>59287</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="49" t="s">
+        <v>1808</v>
+      </c>
+      <c r="B12" s="44" t="s">
         <v>1844</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C12" s="54" t="s">
+        <v>1848</v>
+      </c>
+      <c r="D12" s="56">
+        <v>59758</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="49" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>1816</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>1825</v>
+      </c>
+      <c r="D13" s="56">
+        <v>58321</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="49" t="s">
+        <v>1805</v>
+      </c>
+      <c r="B14" s="44" t="s">
+        <v>1821</v>
+      </c>
+      <c r="C14" s="41" t="s">
+        <v>1831</v>
+      </c>
+      <c r="D14" s="56">
+        <v>45011</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="49" t="s">
+        <v>1797</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>1815</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>1824</v>
+      </c>
+      <c r="D15" s="56">
+        <v>58238</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="49" t="s">
+        <v>1809</v>
+      </c>
+      <c r="B16" s="44" t="s">
+        <v>1822</v>
+      </c>
+      <c r="C16" s="54" t="s">
+        <v>1833</v>
+      </c>
+      <c r="D16" s="56">
+        <v>59431</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="49" t="s">
+        <v>1804</v>
+      </c>
+      <c r="B17" s="46" t="s">
         <v>1845</v>
       </c>
-      <c r="D3" s="57">
-        <v>51573</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="50" t="s">
-        <v>1807</v>
-      </c>
-      <c r="B4" s="46" t="s">
-        <v>1843</v>
-      </c>
-      <c r="C4" s="40" t="s">
+      <c r="C17" s="40" t="s">
+        <v>1846</v>
+      </c>
+      <c r="D17" s="57" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="49" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B18" s="58" t="s">
+        <v>1850</v>
+      </c>
+      <c r="C18" s="38" t="s">
         <v>1834</v>
       </c>
-      <c r="D4" s="57">
-        <v>58968</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="50" t="s">
-        <v>1803</v>
-      </c>
-      <c r="B5" s="46" t="s">
-        <v>1821</v>
-      </c>
-      <c r="C5" s="41" t="s">
-        <v>1830</v>
-      </c>
-      <c r="D5" s="57">
-        <v>58606</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="50" t="s">
+      <c r="D18" s="57" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="49" t="s">
         <v>1810</v>
       </c>
-      <c r="B6" s="46" t="s">
-        <v>1821</v>
-      </c>
-      <c r="C6" s="54" t="s">
-        <v>1836</v>
-      </c>
-      <c r="D6" s="57">
-        <v>57687</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="50" t="s">
-        <v>1805</v>
-      </c>
-      <c r="B7" s="46" t="s">
+      <c r="B19" s="47" t="s">
         <v>1823</v>
       </c>
-      <c r="C7" s="40" t="s">
-        <v>1832</v>
-      </c>
-      <c r="D7" s="57">
-        <v>58847</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="50" t="s">
-        <v>1804</v>
-      </c>
-      <c r="B8" s="46" t="s">
-        <v>1822</v>
-      </c>
-      <c r="C8" s="41" t="s">
-        <v>1831</v>
-      </c>
-      <c r="D8" s="57">
-        <v>58457</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="50" t="s">
+      <c r="C19" s="55" t="s">
+        <v>1849</v>
+      </c>
+      <c r="D19" s="56">
+        <v>57816</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="49" t="s">
         <v>1811</v>
       </c>
-      <c r="B9" s="46" t="s">
-        <v>1822</v>
-      </c>
-      <c r="C9" s="54" t="s">
-        <v>1851</v>
-      </c>
-      <c r="D9" s="57">
-        <v>57494</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="50" t="s">
-        <v>1816</v>
-      </c>
-      <c r="B10" s="45" t="s">
-        <v>1847</v>
-      </c>
-      <c r="C10" s="44" t="s">
+      <c r="B20" s="48" t="s">
         <v>1842</v>
       </c>
-      <c r="D10" s="57">
-        <v>57516</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="50" t="s">
-        <v>1806</v>
-      </c>
-      <c r="B11" s="45" t="s">
-        <v>1824</v>
-      </c>
-      <c r="C11" s="42" t="s">
-        <v>1833</v>
-      </c>
-      <c r="D11" s="57">
-        <v>59287</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="50" t="s">
-        <v>1812</v>
-      </c>
-      <c r="B12" s="45" t="s">
-        <v>1848</v>
-      </c>
-      <c r="C12" s="55" t="s">
-        <v>1852</v>
-      </c>
-      <c r="D12" s="57">
-        <v>59758</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="50" t="s">
-        <v>1802</v>
-      </c>
-      <c r="B13" s="45" t="s">
-        <v>1820</v>
-      </c>
-      <c r="C13" s="40" t="s">
-        <v>1829</v>
-      </c>
-      <c r="D13" s="57">
-        <v>58321</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="50" t="s">
-        <v>1809</v>
-      </c>
-      <c r="B14" s="45" t="s">
-        <v>1825</v>
-      </c>
-      <c r="C14" s="42" t="s">
-        <v>1835</v>
-      </c>
-      <c r="D14" s="57">
-        <v>45011</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="50" t="s">
-        <v>1801</v>
-      </c>
-      <c r="B15" s="45" t="s">
-        <v>1819</v>
-      </c>
-      <c r="C15" s="40" t="s">
-        <v>1828</v>
-      </c>
-      <c r="D15" s="57">
-        <v>58238</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="50" t="s">
-        <v>1813</v>
-      </c>
-      <c r="B16" s="45" t="s">
-        <v>1826</v>
-      </c>
-      <c r="C16" s="55" t="s">
+      <c r="C20" s="42" t="s">
         <v>1837</v>
       </c>
-      <c r="D16" s="57">
-        <v>59431</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="50" t="s">
-        <v>1808</v>
-      </c>
-      <c r="B17" s="47" t="s">
-        <v>1849</v>
-      </c>
-      <c r="C17" s="41" t="s">
-        <v>1850</v>
-      </c>
-      <c r="D17" s="58" t="s">
-        <v>1856</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="50" t="s">
-        <v>1817</v>
-      </c>
-      <c r="B18" s="59" t="s">
-        <v>1854</v>
-      </c>
-      <c r="C18" s="39" t="s">
-        <v>1838</v>
-      </c>
-      <c r="D18" s="58" t="s">
-        <v>1855</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="50" t="s">
-        <v>1814</v>
-      </c>
-      <c r="B19" s="48" t="s">
-        <v>1827</v>
-      </c>
-      <c r="C19" s="56" t="s">
-        <v>1853</v>
-      </c>
-      <c r="D19" s="57">
-        <v>57816</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="50" t="s">
-        <v>1815</v>
-      </c>
-      <c r="B20" s="49" t="s">
-        <v>1846</v>
-      </c>
-      <c r="C20" s="43" t="s">
-        <v>1841</v>
-      </c>
-      <c r="D20" s="57">
+      <c r="D20" s="56">
         <v>56778</v>
       </c>
     </row>
@@ -32091,971 +32462,1065 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C10FC6CE-0451-4869-90B8-490F0EE2219F}">
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="28.59765625" style="77" customWidth="1"/>
-    <col min="2" max="2" width="24.59765625" style="80" customWidth="1"/>
-    <col min="3" max="3" width="15.59765625" style="76" customWidth="1"/>
-    <col min="4" max="4" width="23.59765625" style="81" customWidth="1"/>
-    <col min="5" max="5" width="15.59765625" style="76" customWidth="1"/>
-    <col min="6" max="6" width="15.59765625" style="27" customWidth="1"/>
-    <col min="7" max="7" width="16.59765625" style="76" customWidth="1"/>
-    <col min="8" max="13" width="9.06640625" style="76"/>
-    <col min="14" max="14" width="12.46484375" style="76" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.06640625" style="76"/>
+    <col min="1" max="1" width="28.59765625" style="61" customWidth="1"/>
+    <col min="2" max="2" width="24.59765625" style="62" customWidth="1"/>
+    <col min="3" max="3" width="16.59765625" customWidth="1"/>
+    <col min="4" max="4" width="24.59765625" style="63" customWidth="1"/>
+    <col min="5" max="5" width="16.59765625" customWidth="1"/>
+    <col min="6" max="6" width="17.59765625" style="27" customWidth="1"/>
+    <col min="7" max="7" width="16.59765625" customWidth="1"/>
+    <col min="14" max="14" width="12.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="100" t="s">
-        <v>1951</v>
-      </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-    </row>
-    <row r="2" spans="1:11" s="37" customFormat="1" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="82" t="s">
+      <c r="A1" s="117" t="s">
+        <v>1946</v>
+      </c>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+    </row>
+    <row r="2" spans="1:11" s="36" customFormat="1" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="122" t="s">
         <v>1775</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="84" t="s">
+      <c r="B2" s="123"/>
+      <c r="C2" s="118" t="s">
+        <v>1855</v>
+      </c>
+      <c r="D2" s="119"/>
+      <c r="E2" s="120" t="s">
+        <v>1945</v>
+      </c>
+      <c r="F2" s="121"/>
+      <c r="G2" s="60" t="s">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="64" t="s">
+        <v>1963</v>
+      </c>
+      <c r="B3" s="65" t="s">
+        <v>1964</v>
+      </c>
+      <c r="C3" s="74">
+        <v>-41.1</v>
+      </c>
+      <c r="D3" s="81" t="s">
+        <v>1965</v>
+      </c>
+      <c r="E3" s="76">
+        <v>-33.299999999999997</v>
+      </c>
+      <c r="F3" s="82" t="s">
+        <v>1966</v>
+      </c>
+      <c r="G3" s="77">
+        <f t="shared" ref="G3" si="0">ABS(E3-C3)</f>
+        <v>7.8000000000000043</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="64" t="s">
+        <v>1894</v>
+      </c>
+      <c r="B4" s="65" t="s">
+        <v>1890</v>
+      </c>
+      <c r="C4" s="74">
+        <v>-40.9</v>
+      </c>
+      <c r="D4" s="78" t="s">
+        <v>1920</v>
+      </c>
+      <c r="E4" s="76">
+        <v>-29.3</v>
+      </c>
+      <c r="F4" s="75" t="s">
+        <v>1943</v>
+      </c>
+      <c r="G4" s="77">
+        <f t="shared" ref="G4:G44" si="1">ABS(E4-C4)</f>
+        <v>11.599999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="64" t="s">
+        <v>1894</v>
+      </c>
+      <c r="B5" s="65" t="s">
+        <v>1864</v>
+      </c>
+      <c r="C5" s="74">
+        <v>-40.200000000000003</v>
+      </c>
+      <c r="D5" s="75" t="s">
+        <v>1921</v>
+      </c>
+      <c r="E5" s="76">
+        <v>-28.7</v>
+      </c>
+      <c r="F5" s="75" t="s">
+        <v>1943</v>
+      </c>
+      <c r="G5" s="77">
+        <f t="shared" si="1"/>
+        <v>11.500000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="66" t="s">
+        <v>1895</v>
+      </c>
+      <c r="B6" s="67" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C6" s="74">
+        <v>-40.1</v>
+      </c>
+      <c r="D6" s="75" t="s">
+        <v>1922</v>
+      </c>
+      <c r="E6" s="76">
+        <v>-32.4</v>
+      </c>
+      <c r="F6" s="75" t="s">
+        <v>1943</v>
+      </c>
+      <c r="G6" s="77">
+        <f t="shared" si="1"/>
+        <v>7.7000000000000028</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="66" t="s">
+        <v>1896</v>
+      </c>
+      <c r="B7" s="67" t="s">
+        <v>1871</v>
+      </c>
+      <c r="C7" s="74">
+        <v>-40</v>
+      </c>
+      <c r="D7" s="78" t="s">
+        <v>1920</v>
+      </c>
+      <c r="E7" s="76">
+        <v>-31.5</v>
+      </c>
+      <c r="F7" s="75" t="s">
+        <v>1943</v>
+      </c>
+      <c r="G7" s="77">
+        <f t="shared" si="1"/>
+        <v>8.5</v>
+      </c>
+      <c r="K7" s="79"/>
+    </row>
+    <row r="8" spans="1:11" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="66" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B8" s="67" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C8" s="74">
+        <v>-39.4</v>
+      </c>
+      <c r="D8" s="78" t="s">
+        <v>1920</v>
+      </c>
+      <c r="E8" s="76">
+        <v>-31.3</v>
+      </c>
+      <c r="F8" s="75" t="s">
+        <v>1943</v>
+      </c>
+      <c r="G8" s="77">
+        <f t="shared" si="1"/>
+        <v>8.0999999999999979</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="64" t="s">
+        <v>1898</v>
+      </c>
+      <c r="B9" s="65" t="s">
         <v>1859</v>
       </c>
-      <c r="D2" s="85"/>
-      <c r="E2" s="78" t="s">
-        <v>1950</v>
-      </c>
-      <c r="F2" s="79"/>
-      <c r="G2" s="61" t="s">
-        <v>1952</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="86" t="s">
-        <v>1898</v>
-      </c>
-      <c r="B3" s="87" t="s">
+      <c r="C9" s="74">
+        <v>-39.299999999999997</v>
+      </c>
+      <c r="D9" s="75" t="s">
+        <v>1923</v>
+      </c>
+      <c r="E9" s="76">
+        <v>-29.4</v>
+      </c>
+      <c r="F9" s="75" t="s">
+        <v>1943</v>
+      </c>
+      <c r="G9" s="77">
+        <f t="shared" si="1"/>
+        <v>9.8999999999999986</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="64" t="s">
         <v>1894</v>
       </c>
-      <c r="C3" s="96">
-        <v>-40.9</v>
-      </c>
-      <c r="D3" s="101" t="s">
+      <c r="B10" s="65" t="s">
+        <v>1866</v>
+      </c>
+      <c r="C10" s="74">
+        <v>-38.9</v>
+      </c>
+      <c r="D10" s="75" t="s">
+        <v>1924</v>
+      </c>
+      <c r="E10" s="76">
+        <v>-31</v>
+      </c>
+      <c r="F10" s="75" t="s">
+        <v>1943</v>
+      </c>
+      <c r="G10" s="77">
+        <f t="shared" si="1"/>
+        <v>7.8999999999999986</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="64" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B11" s="65" t="s">
+        <v>1889</v>
+      </c>
+      <c r="C11" s="74">
+        <v>-38.700000000000003</v>
+      </c>
+      <c r="D11" s="78" t="s">
+        <v>1920</v>
+      </c>
+      <c r="E11" s="76">
+        <v>-29.5</v>
+      </c>
+      <c r="F11" s="75" t="s">
+        <v>1943</v>
+      </c>
+      <c r="G11" s="77">
+        <f t="shared" si="1"/>
+        <v>9.2000000000000028</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="64" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B12" s="65" t="s">
+        <v>1861</v>
+      </c>
+      <c r="C12" s="74">
+        <v>-38.700000000000003</v>
+      </c>
+      <c r="D12" s="75" t="s">
         <v>1925</v>
       </c>
-      <c r="E3" s="98">
-        <v>-29.3</v>
-      </c>
-      <c r="F3" s="97" t="s">
+      <c r="E12" s="76">
+        <v>-29.8</v>
+      </c>
+      <c r="F12" s="78" t="s">
+        <v>1944</v>
+      </c>
+      <c r="G12" s="77">
+        <f t="shared" si="1"/>
+        <v>8.9000000000000021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="64" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B13" s="65" t="s">
+        <v>1862</v>
+      </c>
+      <c r="C13" s="74">
+        <v>-38.5</v>
+      </c>
+      <c r="D13" s="78" t="s">
+        <v>1920</v>
+      </c>
+      <c r="E13" s="76">
+        <v>-30.5</v>
+      </c>
+      <c r="F13" s="75" t="s">
+        <v>1943</v>
+      </c>
+      <c r="G13" s="77">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="66" t="s">
+        <v>1896</v>
+      </c>
+      <c r="B14" s="67" t="s">
+        <v>1869</v>
+      </c>
+      <c r="C14" s="74">
+        <v>-38.4</v>
+      </c>
+      <c r="D14" s="75" t="s">
+        <v>1926</v>
+      </c>
+      <c r="E14" s="76">
+        <v>-31.4</v>
+      </c>
+      <c r="F14" s="75" t="s">
+        <v>1943</v>
+      </c>
+      <c r="G14" s="77">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="64" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B15" s="65" t="s">
+        <v>1865</v>
+      </c>
+      <c r="C15" s="74">
+        <v>-37.9</v>
+      </c>
+      <c r="D15" s="75" t="s">
+        <v>1927</v>
+      </c>
+      <c r="E15" s="76">
+        <v>-27.3</v>
+      </c>
+      <c r="F15" s="75" t="s">
+        <v>1943</v>
+      </c>
+      <c r="G15" s="77">
+        <f t="shared" si="1"/>
+        <v>10.599999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="68" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B16" s="69" t="s">
+        <v>1875</v>
+      </c>
+      <c r="C16" s="74">
+        <v>-37.5</v>
+      </c>
+      <c r="D16" s="75" t="s">
+        <v>1928</v>
+      </c>
+      <c r="E16" s="76">
+        <v>-25</v>
+      </c>
+      <c r="F16" s="75" t="s">
+        <v>1943</v>
+      </c>
+      <c r="G16" s="77">
+        <f t="shared" si="1"/>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="68" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B17" s="69" t="s">
+        <v>1888</v>
+      </c>
+      <c r="C17" s="74">
+        <v>-37.200000000000003</v>
+      </c>
+      <c r="D17" s="75" t="s">
+        <v>1929</v>
+      </c>
+      <c r="E17" s="76">
+        <v>-27.7</v>
+      </c>
+      <c r="F17" s="75" t="s">
+        <v>1943</v>
+      </c>
+      <c r="G17" s="77">
+        <f t="shared" si="1"/>
+        <v>9.5000000000000036</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="66" t="s">
+        <v>1896</v>
+      </c>
+      <c r="B18" s="67" t="s">
+        <v>1870</v>
+      </c>
+      <c r="C18" s="74">
+        <v>-36.9</v>
+      </c>
+      <c r="D18" s="75" t="s">
+        <v>1930</v>
+      </c>
+      <c r="E18" s="76">
+        <v>-27.6</v>
+      </c>
+      <c r="F18" s="75" t="s">
+        <v>1943</v>
+      </c>
+      <c r="G18" s="77">
+        <f t="shared" si="1"/>
+        <v>9.2999999999999972</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="64" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B19" s="65" t="s">
+        <v>1856</v>
+      </c>
+      <c r="C19" s="74">
+        <v>-36.299999999999997</v>
+      </c>
+      <c r="D19" s="78" t="s">
+        <v>1920</v>
+      </c>
+      <c r="E19" s="76">
+        <v>-27.9</v>
+      </c>
+      <c r="F19" s="75" t="s">
+        <v>1943</v>
+      </c>
+      <c r="G19" s="77">
+        <f t="shared" si="1"/>
+        <v>8.3999999999999986</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="68" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B20" s="69" t="s">
+        <v>1874</v>
+      </c>
+      <c r="C20" s="74">
+        <v>-36</v>
+      </c>
+      <c r="D20" s="75" t="s">
+        <v>1929</v>
+      </c>
+      <c r="E20" s="76">
+        <v>-28.4</v>
+      </c>
+      <c r="F20" s="75" t="s">
+        <v>1943</v>
+      </c>
+      <c r="G20" s="77">
+        <f t="shared" si="1"/>
+        <v>7.6000000000000014</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="64" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B21" s="65" t="s">
+        <v>1857</v>
+      </c>
+      <c r="C21" s="74">
+        <v>-35.6</v>
+      </c>
+      <c r="D21" s="75" t="s">
+        <v>1931</v>
+      </c>
+      <c r="E21" s="76">
+        <v>-26.4</v>
+      </c>
+      <c r="F21" s="75" t="s">
+        <v>1943</v>
+      </c>
+      <c r="G21" s="77">
+        <f t="shared" si="1"/>
+        <v>9.2000000000000028</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="64" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B22" s="65" t="s">
+        <v>1858</v>
+      </c>
+      <c r="C22" s="74">
+        <v>-35.6</v>
+      </c>
+      <c r="D22" s="75" t="s">
+        <v>1932</v>
+      </c>
+      <c r="E22" s="76">
+        <v>-27.6</v>
+      </c>
+      <c r="F22" s="75" t="s">
+        <v>1943</v>
+      </c>
+      <c r="G22" s="77">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="64" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B23" s="65" t="s">
+        <v>1860</v>
+      </c>
+      <c r="C23" s="74">
+        <v>-35.4</v>
+      </c>
+      <c r="D23" s="75" t="s">
+        <v>1933</v>
+      </c>
+      <c r="E23" s="76">
+        <v>-27.4</v>
+      </c>
+      <c r="F23" s="75" t="s">
+        <v>1943</v>
+      </c>
+      <c r="G23" s="77">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="68" t="s">
+        <v>1905</v>
+      </c>
+      <c r="B24" s="69" t="s">
+        <v>1873</v>
+      </c>
+      <c r="C24" s="74">
+        <v>-35.299999999999997</v>
+      </c>
+      <c r="D24" s="78" t="s">
+        <v>1920</v>
+      </c>
+      <c r="E24" s="76">
+        <v>-27.9</v>
+      </c>
+      <c r="F24" s="75" t="s">
+        <v>1943</v>
+      </c>
+      <c r="G24" s="77">
+        <f t="shared" si="1"/>
+        <v>7.3999999999999986</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="68" t="s">
+        <v>1906</v>
+      </c>
+      <c r="B25" s="69" t="s">
+        <v>1878</v>
+      </c>
+      <c r="C25" s="74">
+        <v>-34.5</v>
+      </c>
+      <c r="D25" s="75" t="s">
+        <v>1934</v>
+      </c>
+      <c r="E25" s="76">
+        <v>-26.4</v>
+      </c>
+      <c r="F25" s="75" t="s">
+        <v>1943</v>
+      </c>
+      <c r="G25" s="77">
+        <f t="shared" si="1"/>
+        <v>8.1000000000000014</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="68" t="s">
+        <v>1962</v>
+      </c>
+      <c r="B26" s="69" t="s">
+        <v>1961</v>
+      </c>
+      <c r="C26" s="74">
+        <v>-33.1</v>
+      </c>
+      <c r="D26" s="75" t="s">
+        <v>1957</v>
+      </c>
+      <c r="E26" s="76">
+        <v>-25</v>
+      </c>
+      <c r="F26" s="75" t="s">
+        <v>1943</v>
+      </c>
+      <c r="G26" s="77">
+        <f t="shared" ref="G26" si="2">ABS(E26-C26)</f>
+        <v>8.1000000000000014</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="68" t="s">
+        <v>1907</v>
+      </c>
+      <c r="B27" s="69" t="s">
+        <v>1886</v>
+      </c>
+      <c r="C27" s="74">
+        <v>-32</v>
+      </c>
+      <c r="D27" s="75" t="s">
+        <v>1922</v>
+      </c>
+      <c r="E27" s="76">
+        <v>-24.4</v>
+      </c>
+      <c r="F27" s="75" t="s">
+        <v>1943</v>
+      </c>
+      <c r="G27" s="77">
+        <f t="shared" si="1"/>
+        <v>7.6000000000000014</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="68" t="s">
+        <v>1905</v>
+      </c>
+      <c r="B28" s="69" t="s">
+        <v>1885</v>
+      </c>
+      <c r="C28" s="74">
+        <v>-31.8</v>
+      </c>
+      <c r="D28" s="75" t="s">
+        <v>1935</v>
+      </c>
+      <c r="E28" s="76">
+        <v>-24.7</v>
+      </c>
+      <c r="F28" s="75" t="s">
+        <v>1943</v>
+      </c>
+      <c r="G28" s="77">
+        <f t="shared" si="1"/>
+        <v>7.1000000000000014</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="70" t="s">
+        <v>1908</v>
+      </c>
+      <c r="B29" s="71" t="s">
+        <v>1891</v>
+      </c>
+      <c r="C29" s="74">
+        <v>-31.7</v>
+      </c>
+      <c r="D29" s="78" t="s">
+        <v>1920</v>
+      </c>
+      <c r="E29" s="76">
+        <v>-20.3</v>
+      </c>
+      <c r="F29" s="75" t="s">
+        <v>1943</v>
+      </c>
+      <c r="G29" s="77">
+        <f t="shared" si="1"/>
+        <v>11.399999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="64" t="s">
+        <v>1909</v>
+      </c>
+      <c r="B30" s="65" t="s">
+        <v>1863</v>
+      </c>
+      <c r="C30" s="74">
+        <v>-30.7</v>
+      </c>
+      <c r="D30" s="75" t="s">
+        <v>1922</v>
+      </c>
+      <c r="E30" s="76">
+        <v>-24.6</v>
+      </c>
+      <c r="F30" s="75" t="s">
+        <v>1943</v>
+      </c>
+      <c r="G30" s="77">
+        <f t="shared" si="1"/>
+        <v>6.0999999999999979</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="66" t="s">
+        <v>1910</v>
+      </c>
+      <c r="B31" s="67" t="s">
+        <v>1872</v>
+      </c>
+      <c r="C31" s="74">
+        <v>-30.5</v>
+      </c>
+      <c r="D31" s="75" t="s">
+        <v>1936</v>
+      </c>
+      <c r="E31" s="76">
+        <v>-21.3</v>
+      </c>
+      <c r="F31" s="75" t="s">
+        <v>1943</v>
+      </c>
+      <c r="G31" s="77">
+        <f t="shared" si="1"/>
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="68" t="s">
+        <v>1958</v>
+      </c>
+      <c r="B32" s="69" t="s">
+        <v>1959</v>
+      </c>
+      <c r="C32" s="74">
+        <v>-29.5</v>
+      </c>
+      <c r="D32" s="78" t="s">
+        <v>1960</v>
+      </c>
+      <c r="E32" s="76">
+        <v>-21.4</v>
+      </c>
+      <c r="F32" s="75" t="s">
+        <v>1943</v>
+      </c>
+      <c r="G32" s="77">
+        <f t="shared" ref="G32" si="3">ABS(E32-C32)</f>
+        <v>8.1000000000000014</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="68" t="s">
+        <v>1911</v>
+      </c>
+      <c r="B33" s="69" t="s">
+        <v>1881</v>
+      </c>
+      <c r="C33" s="74">
+        <v>-27.5</v>
+      </c>
+      <c r="D33" s="75" t="s">
+        <v>1928</v>
+      </c>
+      <c r="E33" s="76">
+        <v>-17.3</v>
+      </c>
+      <c r="F33" s="75" t="s">
+        <v>1943</v>
+      </c>
+      <c r="G33" s="77">
+        <f t="shared" si="1"/>
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="68" t="s">
+        <v>1912</v>
+      </c>
+      <c r="B34" s="69" t="s">
+        <v>1876</v>
+      </c>
+      <c r="C34" s="74">
+        <v>-25.1</v>
+      </c>
+      <c r="D34" s="78" t="s">
+        <v>1920</v>
+      </c>
+      <c r="E34" s="76">
+        <v>-15.8</v>
+      </c>
+      <c r="F34" s="75" t="s">
+        <v>1943</v>
+      </c>
+      <c r="G34" s="77">
+        <f t="shared" si="1"/>
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="68" t="s">
         <v>1948</v>
       </c>
-      <c r="G3" s="99">
-        <f>ABS(E3-C3)</f>
-        <v>11.599999999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="86" t="s">
-        <v>1898</v>
-      </c>
-      <c r="B4" s="87" t="s">
-        <v>1868</v>
-      </c>
-      <c r="C4" s="96">
-        <v>-40.200000000000003</v>
-      </c>
-      <c r="D4" s="97" t="s">
+      <c r="B35" s="69" t="s">
+        <v>1892</v>
+      </c>
+      <c r="C35" s="74">
+        <v>-24.9</v>
+      </c>
+      <c r="D35" s="75" t="s">
+        <v>1937</v>
+      </c>
+      <c r="E35" s="76">
+        <v>-15.9</v>
+      </c>
+      <c r="F35" s="75" t="s">
+        <v>1943</v>
+      </c>
+      <c r="G35" s="77">
+        <f t="shared" si="1"/>
+        <v>8.9999999999999982</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="68" t="s">
+        <v>1948</v>
+      </c>
+      <c r="B36" s="69" t="s">
+        <v>1887</v>
+      </c>
+      <c r="C36" s="74">
+        <v>-24.3</v>
+      </c>
+      <c r="D36" s="75" t="s">
+        <v>1938</v>
+      </c>
+      <c r="E36" s="76">
+        <v>-16.3</v>
+      </c>
+      <c r="F36" s="75" t="s">
+        <v>1943</v>
+      </c>
+      <c r="G36" s="77">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="68" t="s">
+        <v>1913</v>
+      </c>
+      <c r="B37" s="69" t="s">
+        <v>1882</v>
+      </c>
+      <c r="C37" s="74">
+        <v>-23</v>
+      </c>
+      <c r="D37" s="75" t="s">
+        <v>1939</v>
+      </c>
+      <c r="E37" s="76">
+        <v>-17.3</v>
+      </c>
+      <c r="F37" s="75" t="s">
+        <v>1943</v>
+      </c>
+      <c r="G37" s="77">
+        <f t="shared" si="1"/>
+        <v>5.6999999999999993</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="68" t="s">
+        <v>1914</v>
+      </c>
+      <c r="B38" s="69" t="s">
+        <v>1883</v>
+      </c>
+      <c r="C38" s="74">
+        <v>-22.8</v>
+      </c>
+      <c r="D38" s="75" t="s">
+        <v>1928</v>
+      </c>
+      <c r="E38" s="76">
+        <v>-14.3</v>
+      </c>
+      <c r="F38" s="75" t="s">
+        <v>1943</v>
+      </c>
+      <c r="G38" s="77">
+        <f t="shared" si="1"/>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="68" t="s">
+        <v>1955</v>
+      </c>
+      <c r="B39" s="69" t="s">
+        <v>1956</v>
+      </c>
+      <c r="C39" s="74">
+        <v>-22.6</v>
+      </c>
+      <c r="D39" s="75" t="s">
+        <v>1957</v>
+      </c>
+      <c r="E39" s="76">
+        <v>-17</v>
+      </c>
+      <c r="F39" s="75" t="s">
+        <v>1943</v>
+      </c>
+      <c r="G39" s="77">
+        <f t="shared" ref="G39" si="4">ABS(E39-C39)</f>
+        <v>5.6000000000000014</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="72" t="s">
+        <v>1915</v>
+      </c>
+      <c r="B40" s="73" t="s">
+        <v>1893</v>
+      </c>
+      <c r="C40" s="74">
+        <v>-22.4</v>
+      </c>
+      <c r="D40" s="75" t="s">
+        <v>1922</v>
+      </c>
+      <c r="E40" s="76">
+        <v>-17</v>
+      </c>
+      <c r="F40" s="75" t="s">
+        <v>1943</v>
+      </c>
+      <c r="G40" s="77">
+        <f t="shared" si="1"/>
+        <v>5.3999999999999986</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="68" t="s">
+        <v>1916</v>
+      </c>
+      <c r="B41" s="69" t="s">
+        <v>1879</v>
+      </c>
+      <c r="C41" s="74">
+        <v>-20.9</v>
+      </c>
+      <c r="D41" s="75" t="s">
+        <v>1940</v>
+      </c>
+      <c r="E41" s="76">
+        <v>-10.7</v>
+      </c>
+      <c r="F41" s="75" t="s">
+        <v>1943</v>
+      </c>
+      <c r="G41" s="77">
+        <f t="shared" si="1"/>
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="68" t="s">
+        <v>1917</v>
+      </c>
+      <c r="B42" s="69" t="s">
+        <v>1877</v>
+      </c>
+      <c r="C42" s="74">
+        <v>-20.399999999999999</v>
+      </c>
+      <c r="D42" s="75" t="s">
+        <v>1941</v>
+      </c>
+      <c r="E42" s="76">
+        <v>-12.2</v>
+      </c>
+      <c r="F42" s="75" t="s">
+        <v>1943</v>
+      </c>
+      <c r="G42" s="77">
+        <f t="shared" si="1"/>
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="68" t="s">
+        <v>1918</v>
+      </c>
+      <c r="B43" s="69" t="s">
+        <v>1884</v>
+      </c>
+      <c r="C43" s="74">
+        <v>-18.5</v>
+      </c>
+      <c r="D43" s="75" t="s">
+        <v>1942</v>
+      </c>
+      <c r="E43" s="76">
+        <v>-11.4</v>
+      </c>
+      <c r="F43" s="75" t="s">
+        <v>1943</v>
+      </c>
+      <c r="G43" s="77">
+        <f t="shared" si="1"/>
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="68" t="s">
+        <v>1919</v>
+      </c>
+      <c r="B44" s="69" t="s">
+        <v>1880</v>
+      </c>
+      <c r="C44" s="74">
+        <v>-17.600000000000001</v>
+      </c>
+      <c r="D44" s="75" t="s">
         <v>1926</v>
       </c>
-      <c r="E4" s="98">
-        <v>-28.7</v>
-      </c>
-      <c r="F4" s="97" t="s">
-        <v>1948</v>
-      </c>
-      <c r="G4" s="99">
-        <f>ABS(E4-C4)</f>
-        <v>11.500000000000004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="88" t="s">
-        <v>1899</v>
-      </c>
-      <c r="B5" s="89" t="s">
-        <v>1871</v>
-      </c>
-      <c r="C5" s="96">
-        <v>-40.1</v>
-      </c>
-      <c r="D5" s="97" t="s">
-        <v>1927</v>
-      </c>
-      <c r="E5" s="98">
-        <v>-32.4</v>
-      </c>
-      <c r="F5" s="97" t="s">
-        <v>1948</v>
-      </c>
-      <c r="G5" s="99">
-        <f>ABS(E5-C5)</f>
-        <v>7.7000000000000028</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="88" t="s">
-        <v>1900</v>
-      </c>
-      <c r="B6" s="89" t="s">
-        <v>1875</v>
-      </c>
-      <c r="C6" s="96">
-        <v>-40</v>
-      </c>
-      <c r="D6" s="101" t="s">
-        <v>1925</v>
-      </c>
-      <c r="E6" s="98">
-        <v>-31.5</v>
-      </c>
-      <c r="F6" s="97" t="s">
-        <v>1948</v>
-      </c>
-      <c r="G6" s="99">
-        <f>ABS(E6-C6)</f>
-        <v>8.5</v>
-      </c>
-      <c r="K6" s="102"/>
-    </row>
-    <row r="7" spans="1:11" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="88" t="s">
-        <v>1901</v>
-      </c>
-      <c r="B7" s="89" t="s">
-        <v>1872</v>
-      </c>
-      <c r="C7" s="96">
-        <v>-39.4</v>
-      </c>
-      <c r="D7" s="101" t="s">
-        <v>1925</v>
-      </c>
-      <c r="E7" s="98">
-        <v>-31.3</v>
-      </c>
-      <c r="F7" s="97" t="s">
-        <v>1948</v>
-      </c>
-      <c r="G7" s="99">
-        <f>ABS(E7-C7)</f>
-        <v>8.0999999999999979</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="86" t="s">
-        <v>1902</v>
-      </c>
-      <c r="B8" s="87" t="s">
-        <v>1863</v>
-      </c>
-      <c r="C8" s="96">
-        <v>-39.299999999999997</v>
-      </c>
-      <c r="D8" s="97" t="s">
-        <v>1928</v>
-      </c>
-      <c r="E8" s="98">
-        <v>-29.4</v>
-      </c>
-      <c r="F8" s="97" t="s">
-        <v>1948</v>
-      </c>
-      <c r="G8" s="99">
-        <f>ABS(E8-C8)</f>
-        <v>9.8999999999999986</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="86" t="s">
-        <v>1898</v>
-      </c>
-      <c r="B9" s="87" t="s">
-        <v>1870</v>
-      </c>
-      <c r="C9" s="96">
-        <v>-38.9</v>
-      </c>
-      <c r="D9" s="97" t="s">
-        <v>1929</v>
-      </c>
-      <c r="E9" s="98">
-        <v>-31</v>
-      </c>
-      <c r="F9" s="97" t="s">
-        <v>1948</v>
-      </c>
-      <c r="G9" s="99">
-        <f>ABS(E9-C9)</f>
-        <v>7.8999999999999986</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="86" t="s">
-        <v>1903</v>
-      </c>
-      <c r="B10" s="87" t="s">
-        <v>1893</v>
-      </c>
-      <c r="C10" s="96">
-        <v>-38.700000000000003</v>
-      </c>
-      <c r="D10" s="101" t="s">
-        <v>1925</v>
-      </c>
-      <c r="E10" s="98">
-        <v>-29.5</v>
-      </c>
-      <c r="F10" s="97" t="s">
-        <v>1948</v>
-      </c>
-      <c r="G10" s="99">
-        <f>ABS(E10-C10)</f>
-        <v>9.2000000000000028</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="86" t="s">
-        <v>1904</v>
-      </c>
-      <c r="B11" s="87" t="s">
-        <v>1865</v>
-      </c>
-      <c r="C11" s="96">
-        <v>-38.700000000000003</v>
-      </c>
-      <c r="D11" s="97" t="s">
-        <v>1930</v>
-      </c>
-      <c r="E11" s="98">
-        <v>-29.8</v>
-      </c>
-      <c r="F11" s="101" t="s">
-        <v>1949</v>
-      </c>
-      <c r="G11" s="99">
-        <f>ABS(E11-C11)</f>
-        <v>8.9000000000000021</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="86" t="s">
-        <v>1904</v>
-      </c>
-      <c r="B12" s="87" t="s">
-        <v>1866</v>
-      </c>
-      <c r="C12" s="96">
-        <v>-38.5</v>
-      </c>
-      <c r="D12" s="101" t="s">
-        <v>1925</v>
-      </c>
-      <c r="E12" s="98">
-        <v>-30.5</v>
-      </c>
-      <c r="F12" s="97" t="s">
-        <v>1948</v>
-      </c>
-      <c r="G12" s="99">
-        <f>ABS(E12-C12)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="88" t="s">
-        <v>1900</v>
-      </c>
-      <c r="B13" s="89" t="s">
-        <v>1873</v>
-      </c>
-      <c r="C13" s="96">
-        <v>-38.4</v>
-      </c>
-      <c r="D13" s="97" t="s">
-        <v>1931</v>
-      </c>
-      <c r="E13" s="98">
-        <v>-31.4</v>
-      </c>
-      <c r="F13" s="97" t="s">
-        <v>1948</v>
-      </c>
-      <c r="G13" s="99">
-        <f>ABS(E13-C13)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="86" t="s">
-        <v>1905</v>
-      </c>
-      <c r="B14" s="87" t="s">
-        <v>1869</v>
-      </c>
-      <c r="C14" s="96">
-        <v>-37.9</v>
-      </c>
-      <c r="D14" s="97" t="s">
-        <v>1932</v>
-      </c>
-      <c r="E14" s="98">
-        <v>-27.3</v>
-      </c>
-      <c r="F14" s="97" t="s">
-        <v>1948</v>
-      </c>
-      <c r="G14" s="99">
-        <f>ABS(E14-C14)</f>
-        <v>10.599999999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="90" t="s">
-        <v>1906</v>
-      </c>
-      <c r="B15" s="91" t="s">
-        <v>1879</v>
-      </c>
-      <c r="C15" s="96">
-        <v>-37.5</v>
-      </c>
-      <c r="D15" s="97" t="s">
-        <v>1933</v>
-      </c>
-      <c r="E15" s="98">
-        <v>-25</v>
-      </c>
-      <c r="F15" s="97" t="s">
-        <v>1948</v>
-      </c>
-      <c r="G15" s="99">
-        <f>ABS(E15-C15)</f>
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="90" t="s">
-        <v>1906</v>
-      </c>
-      <c r="B16" s="91" t="s">
-        <v>1892</v>
-      </c>
-      <c r="C16" s="96">
-        <v>-37.200000000000003</v>
-      </c>
-      <c r="D16" s="97" t="s">
-        <v>1934</v>
-      </c>
-      <c r="E16" s="98">
-        <v>-27.7</v>
-      </c>
-      <c r="F16" s="97" t="s">
-        <v>1948</v>
-      </c>
-      <c r="G16" s="99">
-        <f>ABS(E16-C16)</f>
-        <v>9.5000000000000036</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="88" t="s">
-        <v>1900</v>
-      </c>
-      <c r="B17" s="89" t="s">
-        <v>1874</v>
-      </c>
-      <c r="C17" s="96">
-        <v>-36.9</v>
-      </c>
-      <c r="D17" s="97" t="s">
-        <v>1935</v>
-      </c>
-      <c r="E17" s="98">
-        <v>-27.6</v>
-      </c>
-      <c r="F17" s="97" t="s">
-        <v>1948</v>
-      </c>
-      <c r="G17" s="99">
-        <f>ABS(E17-C17)</f>
-        <v>9.2999999999999972</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="86" t="s">
-        <v>1907</v>
-      </c>
-      <c r="B18" s="87" t="s">
-        <v>1860</v>
-      </c>
-      <c r="C18" s="96">
-        <v>-36.299999999999997</v>
-      </c>
-      <c r="D18" s="101" t="s">
-        <v>1925</v>
-      </c>
-      <c r="E18" s="98">
-        <v>-27.9</v>
-      </c>
-      <c r="F18" s="97" t="s">
-        <v>1948</v>
-      </c>
-      <c r="G18" s="99">
-        <f>ABS(E18-C18)</f>
-        <v>8.3999999999999986</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="90" t="s">
-        <v>1906</v>
-      </c>
-      <c r="B19" s="91" t="s">
-        <v>1878</v>
-      </c>
-      <c r="C19" s="96">
-        <v>-36</v>
-      </c>
-      <c r="D19" s="97" t="s">
-        <v>1934</v>
-      </c>
-      <c r="E19" s="98">
-        <v>-28.4</v>
-      </c>
-      <c r="F19" s="97" t="s">
-        <v>1948</v>
-      </c>
-      <c r="G19" s="99">
-        <f>ABS(E19-C19)</f>
-        <v>7.6000000000000014</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="86" t="s">
-        <v>1908</v>
-      </c>
-      <c r="B20" s="87" t="s">
-        <v>1861</v>
-      </c>
-      <c r="C20" s="96">
-        <v>-35.6</v>
-      </c>
-      <c r="D20" s="97" t="s">
-        <v>1936</v>
-      </c>
-      <c r="E20" s="98">
-        <v>-26.4</v>
-      </c>
-      <c r="F20" s="97" t="s">
-        <v>1948</v>
-      </c>
-      <c r="G20" s="99">
-        <f>ABS(E20-C20)</f>
-        <v>9.2000000000000028</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="86" t="s">
-        <v>1903</v>
-      </c>
-      <c r="B21" s="87" t="s">
-        <v>1862</v>
-      </c>
-      <c r="C21" s="96">
-        <v>-35.6</v>
-      </c>
-      <c r="D21" s="97" t="s">
-        <v>1937</v>
-      </c>
-      <c r="E21" s="98">
-        <v>-27.6</v>
-      </c>
-      <c r="F21" s="97" t="s">
-        <v>1948</v>
-      </c>
-      <c r="G21" s="99">
-        <f>ABS(E21-C21)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="86" t="s">
-        <v>1904</v>
-      </c>
-      <c r="B22" s="87" t="s">
-        <v>1864</v>
-      </c>
-      <c r="C22" s="96">
-        <v>-35.4</v>
-      </c>
-      <c r="D22" s="97" t="s">
-        <v>1938</v>
-      </c>
-      <c r="E22" s="98">
-        <v>-27.4</v>
-      </c>
-      <c r="F22" s="97" t="s">
-        <v>1948</v>
-      </c>
-      <c r="G22" s="99">
-        <f>ABS(E22-C22)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="90" t="s">
-        <v>1909</v>
-      </c>
-      <c r="B23" s="91" t="s">
-        <v>1877</v>
-      </c>
-      <c r="C23" s="96">
-        <v>-35.299999999999997</v>
-      </c>
-      <c r="D23" s="101" t="s">
-        <v>1925</v>
-      </c>
-      <c r="E23" s="98">
-        <v>-27.9</v>
-      </c>
-      <c r="F23" s="97" t="s">
-        <v>1948</v>
-      </c>
-      <c r="G23" s="99">
-        <f>ABS(E23-C23)</f>
-        <v>7.3999999999999986</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="90" t="s">
-        <v>1910</v>
-      </c>
-      <c r="B24" s="91" t="s">
-        <v>1882</v>
-      </c>
-      <c r="C24" s="96">
-        <v>-34.5</v>
-      </c>
-      <c r="D24" s="97" t="s">
-        <v>1939</v>
-      </c>
-      <c r="E24" s="98">
-        <v>-26.4</v>
-      </c>
-      <c r="F24" s="97" t="s">
-        <v>1948</v>
-      </c>
-      <c r="G24" s="99">
-        <f>ABS(E24-C24)</f>
-        <v>8.1000000000000014</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="90" t="s">
-        <v>1911</v>
-      </c>
-      <c r="B25" s="91" t="s">
-        <v>1890</v>
-      </c>
-      <c r="C25" s="96">
-        <v>-32</v>
-      </c>
-      <c r="D25" s="97" t="s">
-        <v>1927</v>
-      </c>
-      <c r="E25" s="98">
-        <v>-24.4</v>
-      </c>
-      <c r="F25" s="97" t="s">
-        <v>1948</v>
-      </c>
-      <c r="G25" s="99">
-        <f>ABS(E25-C25)</f>
-        <v>7.6000000000000014</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="90" t="s">
-        <v>1909</v>
-      </c>
-      <c r="B26" s="91" t="s">
-        <v>1889</v>
-      </c>
-      <c r="C26" s="96">
-        <v>-31.8</v>
-      </c>
-      <c r="D26" s="97" t="s">
-        <v>1940</v>
-      </c>
-      <c r="E26" s="98">
-        <v>-24.7</v>
-      </c>
-      <c r="F26" s="97" t="s">
-        <v>1948</v>
-      </c>
-      <c r="G26" s="99">
-        <f>ABS(E26-C26)</f>
-        <v>7.1000000000000014</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="92" t="s">
-        <v>1912</v>
-      </c>
-      <c r="B27" s="93" t="s">
-        <v>1895</v>
-      </c>
-      <c r="C27" s="96">
-        <v>-31.7</v>
-      </c>
-      <c r="D27" s="101" t="s">
-        <v>1925</v>
-      </c>
-      <c r="E27" s="98">
-        <v>-20.3</v>
-      </c>
-      <c r="F27" s="97" t="s">
-        <v>1948</v>
-      </c>
-      <c r="G27" s="99">
-        <f>ABS(E27-C27)</f>
-        <v>11.399999999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="86" t="s">
-        <v>1913</v>
-      </c>
-      <c r="B28" s="87" t="s">
-        <v>1867</v>
-      </c>
-      <c r="C28" s="96">
-        <v>-30.7</v>
-      </c>
-      <c r="D28" s="97" t="s">
-        <v>1927</v>
-      </c>
-      <c r="E28" s="98">
-        <v>-24.6</v>
-      </c>
-      <c r="F28" s="97" t="s">
-        <v>1948</v>
-      </c>
-      <c r="G28" s="99">
-        <f>ABS(E28-C28)</f>
-        <v>6.0999999999999979</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="88" t="s">
-        <v>1914</v>
-      </c>
-      <c r="B29" s="89" t="s">
-        <v>1876</v>
-      </c>
-      <c r="C29" s="96">
-        <v>-30.5</v>
-      </c>
-      <c r="D29" s="97" t="s">
-        <v>1941</v>
-      </c>
-      <c r="E29" s="98">
-        <v>-21.3</v>
-      </c>
-      <c r="F29" s="97" t="s">
-        <v>1948</v>
-      </c>
-      <c r="G29" s="99">
-        <f>ABS(E29-C29)</f>
-        <v>9.1999999999999993</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="90" t="s">
-        <v>1915</v>
-      </c>
-      <c r="B30" s="91" t="s">
-        <v>1885</v>
-      </c>
-      <c r="C30" s="96">
-        <v>-27.5</v>
-      </c>
-      <c r="D30" s="97" t="s">
-        <v>1933</v>
-      </c>
-      <c r="E30" s="98">
-        <v>-17.3</v>
-      </c>
-      <c r="F30" s="97" t="s">
-        <v>1948</v>
-      </c>
-      <c r="G30" s="99">
-        <f>ABS(E30-C30)</f>
-        <v>10.199999999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="90" t="s">
-        <v>1916</v>
-      </c>
-      <c r="B31" s="91" t="s">
-        <v>1880</v>
-      </c>
-      <c r="C31" s="96">
-        <v>-25.1</v>
-      </c>
-      <c r="D31" s="101" t="s">
-        <v>1925</v>
-      </c>
-      <c r="E31" s="98">
-        <v>-15.8</v>
-      </c>
-      <c r="F31" s="97" t="s">
-        <v>1948</v>
-      </c>
-      <c r="G31" s="99">
-        <f>ABS(E31-C31)</f>
-        <v>9.3000000000000007</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="90" t="s">
-        <v>1917</v>
-      </c>
-      <c r="B32" s="91" t="s">
-        <v>1896</v>
-      </c>
-      <c r="C32" s="96">
-        <v>-24.9</v>
-      </c>
-      <c r="D32" s="97" t="s">
-        <v>1942</v>
-      </c>
-      <c r="E32" s="98">
-        <v>-15.9</v>
-      </c>
-      <c r="F32" s="97" t="s">
-        <v>1948</v>
-      </c>
-      <c r="G32" s="99">
-        <f>ABS(E32-C32)</f>
-        <v>8.9999999999999982</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="90" t="s">
-        <v>1917</v>
-      </c>
-      <c r="B33" s="91" t="s">
-        <v>1891</v>
-      </c>
-      <c r="C33" s="96">
-        <v>-24.3</v>
-      </c>
-      <c r="D33" s="97" t="s">
+      <c r="E44" s="76">
+        <v>-12</v>
+      </c>
+      <c r="F44" s="75" t="s">
         <v>1943</v>
       </c>
-      <c r="E33" s="98">
-        <v>-16.3</v>
-      </c>
-      <c r="F33" s="97" t="s">
-        <v>1948</v>
-      </c>
-      <c r="G33" s="99">
-        <f>ABS(E33-C33)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="90" t="s">
-        <v>1918</v>
-      </c>
-      <c r="B34" s="91" t="s">
-        <v>1886</v>
-      </c>
-      <c r="C34" s="96">
-        <v>-23</v>
-      </c>
-      <c r="D34" s="97" t="s">
-        <v>1944</v>
-      </c>
-      <c r="E34" s="98">
-        <v>-17.3</v>
-      </c>
-      <c r="F34" s="97" t="s">
-        <v>1948</v>
-      </c>
-      <c r="G34" s="99">
-        <f>ABS(E34-C34)</f>
-        <v>5.6999999999999993</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="90" t="s">
-        <v>1919</v>
-      </c>
-      <c r="B35" s="91" t="s">
-        <v>1887</v>
-      </c>
-      <c r="C35" s="96">
-        <v>-22.8</v>
-      </c>
-      <c r="D35" s="97" t="s">
-        <v>1933</v>
-      </c>
-      <c r="E35" s="98">
-        <v>-14.3</v>
-      </c>
-      <c r="F35" s="97" t="s">
-        <v>1948</v>
-      </c>
-      <c r="G35" s="99">
-        <f>ABS(E35-C35)</f>
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="94" t="s">
-        <v>1920</v>
-      </c>
-      <c r="B36" s="95" t="s">
-        <v>1897</v>
-      </c>
-      <c r="C36" s="96">
-        <v>-22.4</v>
-      </c>
-      <c r="D36" s="97" t="s">
-        <v>1927</v>
-      </c>
-      <c r="E36" s="98">
-        <v>-17</v>
-      </c>
-      <c r="F36" s="97" t="s">
-        <v>1948</v>
-      </c>
-      <c r="G36" s="99">
-        <f>ABS(E36-C36)</f>
-        <v>5.3999999999999986</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="90" t="s">
-        <v>1921</v>
-      </c>
-      <c r="B37" s="91" t="s">
-        <v>1883</v>
-      </c>
-      <c r="C37" s="96">
-        <v>-20.9</v>
-      </c>
-      <c r="D37" s="97" t="s">
-        <v>1945</v>
-      </c>
-      <c r="E37" s="98">
-        <v>-10.7</v>
-      </c>
-      <c r="F37" s="97" t="s">
-        <v>1948</v>
-      </c>
-      <c r="G37" s="99">
-        <f>ABS(E37-C37)</f>
-        <v>10.199999999999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="90" t="s">
-        <v>1922</v>
-      </c>
-      <c r="B38" s="91" t="s">
-        <v>1881</v>
-      </c>
-      <c r="C38" s="96">
-        <v>-20.399999999999999</v>
-      </c>
-      <c r="D38" s="97" t="s">
-        <v>1946</v>
-      </c>
-      <c r="E38" s="98">
-        <v>-12.2</v>
-      </c>
-      <c r="F38" s="97" t="s">
-        <v>1948</v>
-      </c>
-      <c r="G38" s="99">
-        <f>ABS(E38-C38)</f>
-        <v>8.1999999999999993</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="90" t="s">
-        <v>1923</v>
-      </c>
-      <c r="B39" s="91" t="s">
-        <v>1888</v>
-      </c>
-      <c r="C39" s="96">
-        <v>-18.5</v>
-      </c>
-      <c r="D39" s="97" t="s">
-        <v>1947</v>
-      </c>
-      <c r="E39" s="98">
-        <v>-11.4</v>
-      </c>
-      <c r="F39" s="97" t="s">
-        <v>1948</v>
-      </c>
-      <c r="G39" s="99">
-        <f>ABS(E39-C39)</f>
-        <v>7.1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="90" t="s">
-        <v>1924</v>
-      </c>
-      <c r="B40" s="91" t="s">
-        <v>1884</v>
-      </c>
-      <c r="C40" s="96">
-        <v>-17.600000000000001</v>
-      </c>
-      <c r="D40" s="97" t="s">
-        <v>1931</v>
-      </c>
-      <c r="E40" s="98">
-        <v>-12</v>
-      </c>
-      <c r="F40" s="97" t="s">
-        <v>1948</v>
-      </c>
-      <c r="G40" s="99">
-        <f>ABS(E40-C40)</f>
+      <c r="G44" s="77">
+        <f t="shared" si="1"/>
         <v>5.6000000000000014</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G40">
-    <sortCondition ref="C3:C40"/>
-    <sortCondition descending="1" ref="G3:G40"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:G44">
+    <sortCondition ref="C4:C44"/>
+    <sortCondition descending="1" ref="G4:G44"/>
   </sortState>
   <mergeCells count="4">
     <mergeCell ref="A1:G1"/>
@@ -33064,7 +33529,7 @@
     <mergeCell ref="A2:B2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C3:C40">
+  <conditionalFormatting sqref="C3:C44">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -33076,7 +33541,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E40">
+  <conditionalFormatting sqref="E3:E44">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -33088,7 +33553,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G40">
+  <conditionalFormatting sqref="G3:G44">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -33102,4 +33567,942 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03CA6617-7F10-43DA-BCF3-88A8302EB6F2}">
+  <dimension ref="A1:K39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="31.5" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="28.59765625" style="61" customWidth="1"/>
+    <col min="2" max="2" width="20.59765625" style="62" customWidth="1"/>
+    <col min="3" max="3" width="28.59765625" style="85" customWidth="1"/>
+    <col min="4" max="4" width="24.59765625" style="84" customWidth="1"/>
+    <col min="5" max="5" width="24.59765625" customWidth="1"/>
+    <col min="6" max="6" width="13.59765625" customWidth="1"/>
+    <col min="7" max="7" width="15.59765625" style="23" customWidth="1"/>
+    <col min="14" max="14" width="12.46484375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="1.2">
+      <c r="A1" s="109" t="s">
+        <v>1974</v>
+      </c>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+    </row>
+    <row r="2" spans="1:11" s="36" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="124" t="s">
+        <v>1775</v>
+      </c>
+      <c r="B2" s="124"/>
+      <c r="C2" s="94" t="s">
+        <v>1970</v>
+      </c>
+      <c r="D2" s="125" t="s">
+        <v>1975</v>
+      </c>
+      <c r="E2" s="126"/>
+      <c r="F2" s="127" t="s">
+        <v>1973</v>
+      </c>
+      <c r="G2" s="128"/>
+    </row>
+    <row r="3" spans="1:11" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="66" t="s">
+        <v>1896</v>
+      </c>
+      <c r="B3" s="89" t="s">
+        <v>1870</v>
+      </c>
+      <c r="C3" s="102">
+        <v>811</v>
+      </c>
+      <c r="D3" s="88" t="s">
+        <v>1969</v>
+      </c>
+      <c r="E3" s="95">
+        <v>-27.6</v>
+      </c>
+      <c r="F3" s="86">
+        <v>523</v>
+      </c>
+      <c r="G3" s="87" t="s">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="70" t="s">
+        <v>1908</v>
+      </c>
+      <c r="B4" s="90" t="s">
+        <v>1891</v>
+      </c>
+      <c r="C4" s="102">
+        <v>805</v>
+      </c>
+      <c r="D4" s="83" t="s">
+        <v>1967</v>
+      </c>
+      <c r="E4" s="95">
+        <v>-20.9</v>
+      </c>
+      <c r="F4" s="86">
+        <v>728</v>
+      </c>
+      <c r="G4" s="87" t="s">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="64" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B5" s="91" t="s">
+        <v>1856</v>
+      </c>
+      <c r="C5" s="101">
+        <v>756</v>
+      </c>
+      <c r="D5" s="88" t="s">
+        <v>1969</v>
+      </c>
+      <c r="E5" s="95">
+        <v>-27.9</v>
+      </c>
+      <c r="F5" s="86">
+        <v>898</v>
+      </c>
+      <c r="G5" s="87" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="64" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B6" s="91" t="s">
+        <v>1860</v>
+      </c>
+      <c r="C6" s="101">
+        <v>738</v>
+      </c>
+      <c r="D6" s="83" t="s">
+        <v>1967</v>
+      </c>
+      <c r="E6" s="95">
+        <v>-27.4</v>
+      </c>
+      <c r="F6" s="86">
+        <v>735</v>
+      </c>
+      <c r="G6" s="87" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="64" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B7" s="91" t="s">
+        <v>1857</v>
+      </c>
+      <c r="C7" s="101">
+        <v>730</v>
+      </c>
+      <c r="D7" s="88" t="s">
+        <v>1969</v>
+      </c>
+      <c r="E7" s="95">
+        <v>-26.4</v>
+      </c>
+      <c r="F7" s="86">
+        <v>439</v>
+      </c>
+      <c r="G7" s="87" t="s">
+        <v>1971</v>
+      </c>
+      <c r="K7" s="79"/>
+    </row>
+    <row r="8" spans="1:11" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="64" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B8" s="91" t="s">
+        <v>1889</v>
+      </c>
+      <c r="C8" s="100">
+        <v>676</v>
+      </c>
+      <c r="D8" s="83" t="s">
+        <v>1967</v>
+      </c>
+      <c r="E8" s="95">
+        <v>-30.2</v>
+      </c>
+      <c r="F8" s="86">
+        <v>897</v>
+      </c>
+      <c r="G8" s="87" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="64" t="s">
+        <v>1963</v>
+      </c>
+      <c r="B9" s="91" t="s">
+        <v>1964</v>
+      </c>
+      <c r="C9" s="100">
+        <v>664</v>
+      </c>
+      <c r="D9" s="83" t="s">
+        <v>1968</v>
+      </c>
+      <c r="E9" s="96">
+        <v>-35.5</v>
+      </c>
+      <c r="F9" s="86">
+        <v>570</v>
+      </c>
+      <c r="G9" s="87" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="64" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B10" s="91" t="s">
+        <v>1865</v>
+      </c>
+      <c r="C10" s="100">
+        <v>649</v>
+      </c>
+      <c r="D10" s="83" t="s">
+        <v>1967</v>
+      </c>
+      <c r="E10" s="95">
+        <v>-28.4</v>
+      </c>
+      <c r="F10" s="86">
+        <v>801</v>
+      </c>
+      <c r="G10" s="87" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="64" t="s">
+        <v>1898</v>
+      </c>
+      <c r="B11" s="91" t="s">
+        <v>1859</v>
+      </c>
+      <c r="C11" s="100">
+        <v>627</v>
+      </c>
+      <c r="D11" s="83" t="s">
+        <v>1967</v>
+      </c>
+      <c r="E11" s="95">
+        <v>-31.6</v>
+      </c>
+      <c r="F11" s="86">
+        <v>890</v>
+      </c>
+      <c r="G11" s="87" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="64" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B12" s="91" t="s">
+        <v>1861</v>
+      </c>
+      <c r="C12" s="100">
+        <v>619</v>
+      </c>
+      <c r="D12" s="83" t="s">
+        <v>1967</v>
+      </c>
+      <c r="E12" s="95">
+        <v>-31.9</v>
+      </c>
+      <c r="F12" s="86">
+        <v>648</v>
+      </c>
+      <c r="G12" s="87" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="64" t="s">
+        <v>1894</v>
+      </c>
+      <c r="B13" s="91" t="s">
+        <v>1890</v>
+      </c>
+      <c r="C13" s="100">
+        <v>605</v>
+      </c>
+      <c r="D13" s="83" t="s">
+        <v>1968</v>
+      </c>
+      <c r="E13" s="95">
+        <v>-30.8</v>
+      </c>
+      <c r="F13" s="86">
+        <v>776</v>
+      </c>
+      <c r="G13" s="87" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="66" t="s">
+        <v>1896</v>
+      </c>
+      <c r="B14" s="89" t="s">
+        <v>1871</v>
+      </c>
+      <c r="C14" s="100">
+        <v>601</v>
+      </c>
+      <c r="D14" s="88" t="s">
+        <v>1969</v>
+      </c>
+      <c r="E14" s="95">
+        <v>-31.5</v>
+      </c>
+      <c r="F14" s="86">
+        <v>929</v>
+      </c>
+      <c r="G14" s="87" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="68" t="s">
+        <v>1905</v>
+      </c>
+      <c r="B15" s="92" t="s">
+        <v>1873</v>
+      </c>
+      <c r="C15" s="99">
+        <v>590</v>
+      </c>
+      <c r="D15" s="83" t="s">
+        <v>1967</v>
+      </c>
+      <c r="E15" s="95">
+        <v>-30.2</v>
+      </c>
+      <c r="F15" s="86">
+        <v>488</v>
+      </c>
+      <c r="G15" s="87" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="68" t="s">
+        <v>1907</v>
+      </c>
+      <c r="B16" s="92" t="s">
+        <v>1886</v>
+      </c>
+      <c r="C16" s="99">
+        <v>587</v>
+      </c>
+      <c r="D16" s="83" t="s">
+        <v>1967</v>
+      </c>
+      <c r="E16" s="95">
+        <v>-25.6</v>
+      </c>
+      <c r="F16" s="86">
+        <v>681</v>
+      </c>
+      <c r="G16" s="87" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="66" t="s">
+        <v>1896</v>
+      </c>
+      <c r="B17" s="89" t="s">
+        <v>1869</v>
+      </c>
+      <c r="C17" s="99">
+        <v>586</v>
+      </c>
+      <c r="D17" s="88" t="s">
+        <v>1969</v>
+      </c>
+      <c r="E17" s="95">
+        <v>-31.4</v>
+      </c>
+      <c r="F17" s="86">
+        <v>552</v>
+      </c>
+      <c r="G17" s="87" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="68" t="s">
+        <v>1905</v>
+      </c>
+      <c r="B18" s="92" t="s">
+        <v>1885</v>
+      </c>
+      <c r="C18" s="99">
+        <v>584</v>
+      </c>
+      <c r="D18" s="83" t="s">
+        <v>1967</v>
+      </c>
+      <c r="E18" s="95">
+        <v>-26.8</v>
+      </c>
+      <c r="F18" s="86">
+        <v>678</v>
+      </c>
+      <c r="G18" s="87" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="64" t="s">
+        <v>1894</v>
+      </c>
+      <c r="B19" s="91" t="s">
+        <v>1864</v>
+      </c>
+      <c r="C19" s="99">
+        <v>580</v>
+      </c>
+      <c r="D19" s="83" t="s">
+        <v>1967</v>
+      </c>
+      <c r="E19" s="95">
+        <v>-30.4</v>
+      </c>
+      <c r="F19" s="86">
+        <v>650</v>
+      </c>
+      <c r="G19" s="87" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="64" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B20" s="91" t="s">
+        <v>1858</v>
+      </c>
+      <c r="C20" s="99">
+        <v>574</v>
+      </c>
+      <c r="D20" s="83" t="s">
+        <v>1967</v>
+      </c>
+      <c r="E20" s="95">
+        <v>-28.8</v>
+      </c>
+      <c r="F20" s="86">
+        <v>895</v>
+      </c>
+      <c r="G20" s="87" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="68" t="s">
+        <v>1906</v>
+      </c>
+      <c r="B21" s="92" t="s">
+        <v>1878</v>
+      </c>
+      <c r="C21" s="99">
+        <v>574</v>
+      </c>
+      <c r="D21" s="83" t="s">
+        <v>1967</v>
+      </c>
+      <c r="E21" s="95">
+        <v>-26.3</v>
+      </c>
+      <c r="F21" s="86">
+        <v>556</v>
+      </c>
+      <c r="G21" s="87" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="64" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B22" s="91" t="s">
+        <v>1862</v>
+      </c>
+      <c r="C22" s="99">
+        <v>541</v>
+      </c>
+      <c r="D22" s="83" t="s">
+        <v>1967</v>
+      </c>
+      <c r="E22" s="95">
+        <v>-33.1</v>
+      </c>
+      <c r="F22" s="86">
+        <v>609</v>
+      </c>
+      <c r="G22" s="87" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="68" t="s">
+        <v>1912</v>
+      </c>
+      <c r="B23" s="92" t="s">
+        <v>1876</v>
+      </c>
+      <c r="C23" s="99">
+        <v>537</v>
+      </c>
+      <c r="D23" s="83" t="s">
+        <v>1967</v>
+      </c>
+      <c r="E23" s="95">
+        <v>-16</v>
+      </c>
+      <c r="F23" s="86">
+        <v>672</v>
+      </c>
+      <c r="G23" s="87" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="68" t="s">
+        <v>1914</v>
+      </c>
+      <c r="B24" s="92" t="s">
+        <v>1883</v>
+      </c>
+      <c r="C24" s="99">
+        <v>521</v>
+      </c>
+      <c r="D24" s="83" t="s">
+        <v>1967</v>
+      </c>
+      <c r="E24" s="95">
+        <v>-15.9</v>
+      </c>
+      <c r="F24" s="86">
+        <v>680</v>
+      </c>
+      <c r="G24" s="87" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="72" t="s">
+        <v>1915</v>
+      </c>
+      <c r="B25" s="93" t="s">
+        <v>1893</v>
+      </c>
+      <c r="C25" s="99">
+        <v>519</v>
+      </c>
+      <c r="D25" s="88" t="s">
+        <v>1969</v>
+      </c>
+      <c r="E25" s="95">
+        <v>-17</v>
+      </c>
+      <c r="F25" s="86">
+        <v>888</v>
+      </c>
+      <c r="G25" s="87" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="68" t="s">
+        <v>1918</v>
+      </c>
+      <c r="B26" s="92" t="s">
+        <v>1884</v>
+      </c>
+      <c r="C26" s="99">
+        <v>512</v>
+      </c>
+      <c r="D26" s="83" t="s">
+        <v>1967</v>
+      </c>
+      <c r="E26" s="96">
+        <v>-11.5</v>
+      </c>
+      <c r="F26" s="86">
+        <v>681</v>
+      </c>
+      <c r="G26" s="87" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="66" t="s">
+        <v>1895</v>
+      </c>
+      <c r="B27" s="89" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C27" s="99">
+        <v>503</v>
+      </c>
+      <c r="D27" s="88" t="s">
+        <v>1969</v>
+      </c>
+      <c r="E27" s="95">
+        <v>-32.4</v>
+      </c>
+      <c r="F27" s="86">
+        <v>927</v>
+      </c>
+      <c r="G27" s="87" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="68" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B28" s="92" t="s">
+        <v>1874</v>
+      </c>
+      <c r="C28" s="99">
+        <v>502</v>
+      </c>
+      <c r="D28" s="83" t="s">
+        <v>1967</v>
+      </c>
+      <c r="E28" s="95">
+        <v>-29.4</v>
+      </c>
+      <c r="F28" s="86">
+        <v>641</v>
+      </c>
+      <c r="G28" s="87" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="64" t="s">
+        <v>1909</v>
+      </c>
+      <c r="B29" s="91" t="s">
+        <v>1863</v>
+      </c>
+      <c r="C29" s="98">
+        <v>498</v>
+      </c>
+      <c r="D29" s="83" t="s">
+        <v>1967</v>
+      </c>
+      <c r="E29" s="95">
+        <v>-26.1</v>
+      </c>
+      <c r="F29" s="86">
+        <v>742</v>
+      </c>
+      <c r="G29" s="87" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="68" t="s">
+        <v>1911</v>
+      </c>
+      <c r="B30" s="92" t="s">
+        <v>1881</v>
+      </c>
+      <c r="C30" s="98">
+        <v>498</v>
+      </c>
+      <c r="D30" s="83" t="s">
+        <v>1967</v>
+      </c>
+      <c r="E30" s="95">
+        <v>-19.100000000000001</v>
+      </c>
+      <c r="F30" s="86">
+        <v>679</v>
+      </c>
+      <c r="G30" s="87" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="68" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B31" s="92" t="s">
+        <v>1875</v>
+      </c>
+      <c r="C31" s="98">
+        <v>493</v>
+      </c>
+      <c r="D31" s="83" t="s">
+        <v>1967</v>
+      </c>
+      <c r="E31" s="95">
+        <v>-26.1</v>
+      </c>
+      <c r="F31" s="86">
+        <v>680</v>
+      </c>
+      <c r="G31" s="87" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="66" t="s">
+        <v>1910</v>
+      </c>
+      <c r="B32" s="89" t="s">
+        <v>1872</v>
+      </c>
+      <c r="C32" s="98">
+        <v>469</v>
+      </c>
+      <c r="D32" s="83" t="s">
+        <v>1967</v>
+      </c>
+      <c r="E32" s="95">
+        <v>-21.7</v>
+      </c>
+      <c r="F32" s="86">
+        <v>737</v>
+      </c>
+      <c r="G32" s="87" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="68" t="s">
+        <v>1917</v>
+      </c>
+      <c r="B33" s="92" t="s">
+        <v>1877</v>
+      </c>
+      <c r="C33" s="98">
+        <v>460</v>
+      </c>
+      <c r="D33" s="83" t="s">
+        <v>1967</v>
+      </c>
+      <c r="E33" s="95">
+        <v>-13.7</v>
+      </c>
+      <c r="F33" s="86">
+        <v>678</v>
+      </c>
+      <c r="G33" s="87" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="68" t="s">
+        <v>1919</v>
+      </c>
+      <c r="B34" s="92" t="s">
+        <v>1880</v>
+      </c>
+      <c r="C34" s="98">
+        <v>449</v>
+      </c>
+      <c r="D34" s="83" t="s">
+        <v>1967</v>
+      </c>
+      <c r="E34" s="95">
+        <v>-11.7</v>
+      </c>
+      <c r="F34" s="86">
+        <v>565</v>
+      </c>
+      <c r="G34" s="87" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="68" t="s">
+        <v>1948</v>
+      </c>
+      <c r="B35" s="92" t="s">
+        <v>1887</v>
+      </c>
+      <c r="C35" s="98">
+        <v>437</v>
+      </c>
+      <c r="D35" s="83" t="s">
+        <v>1967</v>
+      </c>
+      <c r="E35" s="95">
+        <v>-17</v>
+      </c>
+      <c r="F35" s="86">
+        <v>521</v>
+      </c>
+      <c r="G35" s="87" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="64" t="s">
+        <v>1894</v>
+      </c>
+      <c r="B36" s="91" t="s">
+        <v>1866</v>
+      </c>
+      <c r="C36" s="98">
+        <v>423</v>
+      </c>
+      <c r="D36" s="83" t="s">
+        <v>1967</v>
+      </c>
+      <c r="E36" s="95">
+        <v>-32.4</v>
+      </c>
+      <c r="F36" s="86">
+        <v>634</v>
+      </c>
+      <c r="G36" s="87" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="66" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B37" s="89" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C37" s="98">
+        <v>400</v>
+      </c>
+      <c r="D37" s="83" t="s">
+        <v>1967</v>
+      </c>
+      <c r="E37" s="95">
+        <v>-32.299999999999997</v>
+      </c>
+      <c r="F37" s="86">
+        <v>710</v>
+      </c>
+      <c r="G37" s="87" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="68" t="s">
+        <v>1916</v>
+      </c>
+      <c r="B38" s="92" t="s">
+        <v>1879</v>
+      </c>
+      <c r="C38" s="97">
+        <v>368</v>
+      </c>
+      <c r="D38" s="83" t="s">
+        <v>1967</v>
+      </c>
+      <c r="E38" s="95">
+        <v>-12.4</v>
+      </c>
+      <c r="F38" s="86">
+        <v>650</v>
+      </c>
+      <c r="G38" s="87" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="68" t="s">
+        <v>1948</v>
+      </c>
+      <c r="B39" s="92" t="s">
+        <v>1892</v>
+      </c>
+      <c r="C39" s="97">
+        <v>323</v>
+      </c>
+      <c r="D39" s="83" t="s">
+        <v>1967</v>
+      </c>
+      <c r="E39" s="95">
+        <v>-16.399999999999999</v>
+      </c>
+      <c r="F39" s="86">
+        <v>562</v>
+      </c>
+      <c r="G39" s="87" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G39">
+    <sortCondition descending="1" ref="C3:C39"/>
+    <sortCondition ref="E3:E39"/>
+  </sortState>
+  <mergeCells count="4">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="E3:E39">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF560BAD"/>
+        <color rgb="FF3F37C9"/>
+        <color rgb="FF4CC9F0"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF72585"/>
+        <color rgb="FF7209B7"/>
+        <color rgb="FF00B0F0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/气象/多站统计.xlsx
+++ b/气象/多站统计.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B0D51B-E026-412A-9902-35B8CE69C997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43EDBC97-EF47-4482-8538-880799437BE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="4" xr2:uid="{237916A9-0E72-4A8C-88B8-0F539FC0B012}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{237916A9-0E72-4A8C-88B8-0F539FC0B012}"/>
   </bookViews>
   <sheets>
     <sheet name="输出页" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2256" uniqueCount="1976">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2295" uniqueCount="1979">
   <si>
     <t>undefined</t>
   </si>
@@ -5468,9 +5468,6 @@
   </si>
   <si>
     <t>巴彦特斯</t>
-  </si>
-  <si>
-    <t>陶松臣格勒</t>
   </si>
   <si>
     <t>东戈壁</t>
@@ -6614,6 +6611,22 @@
   </si>
   <si>
     <t>一月平均气温(℃)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扎布汗省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台勒门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大乌拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-50) ~ (-52)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6734,15 +6747,6 @@
       <b/>
       <sz val="13"/>
       <color theme="0" tint="-0.34998626667073579"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="24"/>
-      <color rgb="FF00B0F0"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -7161,6 +7165,15 @@
       <b/>
       <sz val="20"/>
       <color rgb="FFFFFF00"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF00B0F0"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -7585,64 +7598,58 @@
     <xf numFmtId="14" fontId="12" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="20" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="19" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="20" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="19" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="20" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="19" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="20" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="19" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="21" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="20" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="22" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="21" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="23" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="22" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="23" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="22" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="23" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="22" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="23" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="22" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="24" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="25" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="27" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="23" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="24" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="26" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="2" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7654,64 +7661,64 @@
     <xf numFmtId="178" fontId="2" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="23" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="22" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="26" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="25" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="45" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="44" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="8" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7720,22 +7727,19 @@
     <xf numFmtId="178" fontId="8" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="178" fontId="47" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="46" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="178" fontId="48" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="49" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="50" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="50" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="49" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -7744,14 +7748,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="51" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="50" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="51" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="50" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="52" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="51" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -7759,40 +7766,37 @@
     <xf numFmtId="0" fontId="54" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="18" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="17" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="178" fontId="60" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="59" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="179" fontId="26" fillId="16" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="25" fillId="16" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="6"/>
     </xf>
-    <xf numFmtId="179" fontId="26" fillId="17" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="25" fillId="17" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="6"/>
     </xf>
-    <xf numFmtId="179" fontId="26" fillId="18" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="25" fillId="18" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="6"/>
     </xf>
-    <xf numFmtId="179" fontId="26" fillId="19" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="25" fillId="19" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="6"/>
     </xf>
-    <xf numFmtId="179" fontId="26" fillId="20" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="25" fillId="20" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="6"/>
     </xf>
-    <xf numFmtId="179" fontId="26" fillId="21" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="25" fillId="21" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="6"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7804,13 +7808,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7819,13 +7823,13 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7834,28 +7838,28 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7867,11 +7871,20 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="17" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8234,15 +8247,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="103"/>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="105"/>
+      <c r="A1" s="100"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="102"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="15" t="s">
@@ -31823,10 +31836,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94ABDC8A-163A-480F-B2C9-0CD0B852C7D7}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" x14ac:dyDescent="0.4"/>
@@ -31840,22 +31853,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="58.05" customHeight="1" thickBot="1" x14ac:dyDescent="1.2">
-      <c r="A1" s="109" t="s">
-        <v>1954</v>
-      </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
+      <c r="A1" s="106" t="s">
+        <v>1953</v>
+      </c>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
     </row>
     <row r="2" spans="1:6" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="29" t="s">
         <v>1783</v>
       </c>
-      <c r="B2" s="114" t="s">
+      <c r="B2" s="111" t="s">
         <v>1775</v>
       </c>
-      <c r="C2" s="115"/>
+      <c r="C2" s="112"/>
       <c r="D2" s="29" t="s">
         <v>1786</v>
       </c>
@@ -31863,286 +31876,569 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="106">
+    <row r="3" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="103">
         <v>2016</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="127" t="s">
+        <v>1975</v>
+      </c>
+      <c r="C3" s="126" t="s">
+        <v>1869</v>
+      </c>
+      <c r="D3" s="128">
+        <v>-50</v>
+      </c>
+      <c r="E3" s="31">
+        <v>42394</v>
+      </c>
+      <c r="F3" s="24"/>
+    </row>
+    <row r="4" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="105"/>
+      <c r="B4" s="127" t="s">
+        <v>1975</v>
+      </c>
+      <c r="C4" s="126" t="s">
+        <v>1869</v>
+      </c>
+      <c r="D4" s="128">
+        <v>-51.9</v>
+      </c>
+      <c r="E4" s="31">
+        <v>42398</v>
+      </c>
+      <c r="F4" s="24"/>
+    </row>
+    <row r="5" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="105"/>
+      <c r="B5" s="127" t="s">
+        <v>1975</v>
+      </c>
+      <c r="C5" s="126" t="s">
+        <v>1785</v>
+      </c>
+      <c r="D5" s="128">
+        <v>-55.3</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>1950</v>
+      </c>
+      <c r="F5" s="24"/>
+    </row>
+    <row r="6" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="105"/>
+      <c r="B6" s="127" t="s">
+        <v>1975</v>
+      </c>
+      <c r="C6" s="126" t="s">
+        <v>1869</v>
+      </c>
+      <c r="D6" s="128">
+        <v>-52.8</v>
+      </c>
+      <c r="E6" s="31">
+        <v>42399</v>
+      </c>
+      <c r="F6" s="24"/>
+    </row>
+    <row r="7" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="105"/>
+      <c r="B7" s="127" t="s">
+        <v>1975</v>
+      </c>
+      <c r="C7" s="126" t="s">
+        <v>1869</v>
+      </c>
+      <c r="D7" s="128">
+        <v>-51.5</v>
+      </c>
+      <c r="E7" s="31">
+        <v>42400</v>
+      </c>
+      <c r="F7" s="24"/>
+    </row>
+    <row r="8" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="105"/>
+      <c r="B8" s="127" t="s">
+        <v>1975</v>
+      </c>
+      <c r="C8" s="126" t="s">
+        <v>1869</v>
+      </c>
+      <c r="D8" s="128">
+        <v>-50</v>
+      </c>
+      <c r="E8" s="31">
+        <v>42404</v>
+      </c>
+      <c r="F8" s="24"/>
+    </row>
+    <row r="9" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="105"/>
+      <c r="B9" s="127" t="s">
+        <v>1975</v>
+      </c>
+      <c r="C9" s="126" t="s">
+        <v>1869</v>
+      </c>
+      <c r="D9" s="128">
+        <v>-52.3</v>
+      </c>
+      <c r="E9" s="31">
+        <v>42405</v>
+      </c>
+      <c r="F9" s="24"/>
+    </row>
+    <row r="10" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="105"/>
+      <c r="B10" s="127" t="s">
+        <v>1975</v>
+      </c>
+      <c r="C10" s="126" t="s">
+        <v>1869</v>
+      </c>
+      <c r="D10" s="128">
+        <v>-52</v>
+      </c>
+      <c r="E10" s="31">
+        <v>42406</v>
+      </c>
+      <c r="F10" s="24"/>
+    </row>
+    <row r="11" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="105"/>
+      <c r="B11" s="127" t="s">
         <v>1788</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C11" s="126" t="s">
+        <v>1790</v>
+      </c>
+      <c r="D11" s="128">
+        <v>-54.7</v>
+      </c>
+      <c r="E11" s="31">
+        <v>42412</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="105"/>
+      <c r="B12" s="127" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C12" s="126" t="s">
+        <v>1790</v>
+      </c>
+      <c r="D12" s="128">
+        <v>-50.3</v>
+      </c>
+      <c r="E12" s="31">
+        <v>42437</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="105"/>
+      <c r="B13" s="127" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C13" s="126" t="s">
+        <v>1790</v>
+      </c>
+      <c r="D13" s="128">
+        <v>-54</v>
+      </c>
+      <c r="E13" s="31">
+        <v>42438</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="104"/>
+      <c r="B14" s="127" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C14" s="126" t="s">
+        <v>1790</v>
+      </c>
+      <c r="D14" s="128">
+        <v>-53</v>
+      </c>
+      <c r="E14" s="31">
+        <v>42439</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="33">
+        <v>2017</v>
+      </c>
+      <c r="B15" s="127" t="s">
+        <v>1789</v>
+      </c>
+      <c r="C15" s="126" t="s">
+        <v>1791</v>
+      </c>
+      <c r="D15" s="128">
+        <v>-45.4</v>
+      </c>
+      <c r="E15" s="31">
+        <v>42763</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="103">
+        <v>2018</v>
+      </c>
+      <c r="B16" s="127" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C16" s="126" t="s">
+        <v>1790</v>
+      </c>
+      <c r="D16" s="128">
+        <v>-51.6</v>
+      </c>
+      <c r="E16" s="31">
+        <v>43123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="105"/>
+      <c r="B17" s="127" t="s">
+        <v>1975</v>
+      </c>
+      <c r="C17" s="126" t="s">
+        <v>1868</v>
+      </c>
+      <c r="D17" s="128">
+        <v>-51.3</v>
+      </c>
+      <c r="E17" s="31">
+        <v>43123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="105"/>
+      <c r="B18" s="127" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C18" s="126" t="s">
+        <v>1790</v>
+      </c>
+      <c r="D18" s="128">
+        <v>-53.2</v>
+      </c>
+      <c r="E18" s="31">
+        <v>43124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="105"/>
+      <c r="B19" s="127" t="s">
+        <v>1975</v>
+      </c>
+      <c r="C19" s="126" t="s">
+        <v>1868</v>
+      </c>
+      <c r="D19" s="128">
+        <v>-51.7</v>
+      </c>
+      <c r="E19" s="31">
+        <v>43124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="105"/>
+      <c r="B20" s="127" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C20" s="126" t="s">
+        <v>1790</v>
+      </c>
+      <c r="D20" s="128">
+        <v>-50.1</v>
+      </c>
+      <c r="E20" s="31">
+        <v>43125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="105"/>
+      <c r="B21" s="127" t="s">
+        <v>1975</v>
+      </c>
+      <c r="C21" s="126" t="s">
+        <v>1870</v>
+      </c>
+      <c r="D21" s="128">
+        <v>-50</v>
+      </c>
+      <c r="E21" s="31">
+        <v>43125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="105"/>
+      <c r="B22" s="127" t="s">
+        <v>1948</v>
+      </c>
+      <c r="C22" s="126" t="s">
+        <v>1795</v>
+      </c>
+      <c r="D22" s="128">
+        <v>-50</v>
+      </c>
+      <c r="E22" s="31" t="s">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="105"/>
+      <c r="B23" s="127" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C23" s="126" t="s">
+        <v>1792</v>
+      </c>
+      <c r="D23" s="128">
+        <v>-51.8</v>
+      </c>
+      <c r="E23" s="31">
+        <v>43127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="105"/>
+      <c r="B24" s="127" t="s">
+        <v>1975</v>
+      </c>
+      <c r="C24" s="126" t="s">
+        <v>1795</v>
+      </c>
+      <c r="D24" s="128">
+        <v>-50</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="105"/>
+      <c r="B25" s="127" t="s">
+        <v>1975</v>
+      </c>
+      <c r="C25" s="126" t="s">
+        <v>1976</v>
+      </c>
+      <c r="D25" s="128">
+        <v>-50</v>
+      </c>
+      <c r="E25" s="31" t="s">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="104"/>
+      <c r="B26" s="127" t="s">
+        <v>1975</v>
+      </c>
+      <c r="C26" s="126" t="s">
+        <v>1977</v>
+      </c>
+      <c r="D26" s="128">
+        <v>-50</v>
+      </c>
+      <c r="E26" s="31" t="s">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="33">
+        <v>2019</v>
+      </c>
+      <c r="B27" s="127" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C27" s="126" t="s">
+        <v>1792</v>
+      </c>
+      <c r="D27" s="128">
+        <v>-48.4</v>
+      </c>
+      <c r="E27" s="31">
+        <v>43828</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="33">
+        <v>2020</v>
+      </c>
+      <c r="B28" s="127" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C28" s="126" t="s">
         <v>1784</v>
       </c>
-      <c r="D3" s="33">
-        <v>-55.3</v>
-      </c>
-      <c r="E3" s="30" t="s">
-        <v>1951</v>
-      </c>
-      <c r="F3" s="24"/>
-    </row>
-    <row r="4" spans="1:6" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="107"/>
-      <c r="B4" s="80" t="s">
+      <c r="D28" s="128">
+        <v>-49.6</v>
+      </c>
+      <c r="E28" s="31">
+        <v>44194</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="33">
+        <v>2021</v>
+      </c>
+      <c r="B29" s="127" t="s">
         <v>1788</v>
       </c>
-      <c r="C4" s="34" t="s">
-        <v>1790</v>
-      </c>
-      <c r="D4" s="33">
-        <v>-54.7</v>
-      </c>
-      <c r="E4" s="31">
-        <v>42412</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="35">
-        <v>2017</v>
-      </c>
-      <c r="B5" s="80" t="s">
+      <c r="C29" s="126" t="s">
+        <v>1784</v>
+      </c>
+      <c r="D29" s="128">
+        <v>-47.2</v>
+      </c>
+      <c r="E29" s="31">
+        <v>44200</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="33">
+        <v>2022</v>
+      </c>
+      <c r="B30" s="127" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C30" s="126" t="s">
+        <v>1792</v>
+      </c>
+      <c r="D30" s="128">
+        <v>-46.8</v>
+      </c>
+      <c r="E30" s="30"/>
+    </row>
+    <row r="31" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="103">
+        <v>2023</v>
+      </c>
+      <c r="B31" s="127" t="s">
+        <v>1975</v>
+      </c>
+      <c r="C31" s="126" t="s">
+        <v>1868</v>
+      </c>
+      <c r="D31" s="128">
+        <v>-50</v>
+      </c>
+      <c r="E31" s="31">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="105"/>
+      <c r="B32" s="127" t="s">
+        <v>1948</v>
+      </c>
+      <c r="C32" s="126" t="s">
+        <v>1949</v>
+      </c>
+      <c r="D32" s="128">
+        <v>-49.4</v>
+      </c>
+      <c r="E32" s="31">
+        <v>45279</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="104"/>
+      <c r="B33" s="127" t="s">
+        <v>1948</v>
+      </c>
+      <c r="C33" s="126" t="s">
+        <v>1949</v>
+      </c>
+      <c r="D33" s="128">
+        <v>-50</v>
+      </c>
+      <c r="E33" s="31">
+        <v>45280</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="33">
+        <v>2024</v>
+      </c>
+      <c r="B34" s="127" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C34" s="126" t="s">
+        <v>1784</v>
+      </c>
+      <c r="D34" s="128">
+        <v>-48.8</v>
+      </c>
+      <c r="E34" s="31">
+        <v>45312</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="108" t="s">
+        <v>1794</v>
+      </c>
+      <c r="B35" s="127" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C35" s="126" t="s">
+        <v>1785</v>
+      </c>
+      <c r="D35" s="128">
+        <v>-45.6</v>
+      </c>
+      <c r="E35" s="31">
+        <v>45659</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="109"/>
+      <c r="B36" s="127" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C36" s="126" t="s">
+        <v>1795</v>
+      </c>
+      <c r="D36" s="128">
+        <v>-45.6</v>
+      </c>
+      <c r="E36" s="31">
+        <v>45673</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="110"/>
+      <c r="B37" s="127" t="s">
         <v>1789</v>
       </c>
-      <c r="C5" s="34" t="s">
-        <v>1791</v>
-      </c>
-      <c r="D5" s="33">
-        <v>-45.4</v>
-      </c>
-      <c r="E5" s="31">
-        <v>42763</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="106">
-        <v>2018</v>
-      </c>
-      <c r="B6" s="80" t="s">
-        <v>1788</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>1790</v>
-      </c>
-      <c r="D6" s="33">
-        <v>-53.2</v>
-      </c>
-      <c r="E6" s="31">
-        <v>43124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="108"/>
-      <c r="B7" s="80" t="s">
-        <v>1788</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>1792</v>
-      </c>
-      <c r="D7" s="33">
-        <v>-51.8</v>
-      </c>
-      <c r="E7" s="31">
-        <v>43127</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="108"/>
-      <c r="B8" s="80" t="s">
-        <v>1789</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>1791</v>
-      </c>
-      <c r="D8" s="33">
-        <v>-50</v>
-      </c>
-      <c r="E8" s="31" t="s">
+      <c r="C37" s="126" t="s">
+        <v>1793</v>
+      </c>
+      <c r="D37" s="128">
+        <v>-44.2</v>
+      </c>
+      <c r="E37" s="32" t="s">
         <v>1952</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="107"/>
-      <c r="B9" s="80" t="s">
-        <v>1788</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>1793</v>
-      </c>
-      <c r="D9" s="33">
-        <v>-50</v>
-      </c>
-      <c r="E9" s="31">
-        <v>43125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="35">
-        <v>2019</v>
-      </c>
-      <c r="B10" s="80" t="s">
-        <v>1788</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>1792</v>
-      </c>
-      <c r="D10" s="33">
-        <v>-48.4</v>
-      </c>
-      <c r="E10" s="31">
-        <v>43828</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="35">
-        <v>2020</v>
-      </c>
-      <c r="B11" s="80" t="s">
-        <v>1788</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>1784</v>
-      </c>
-      <c r="D11" s="33">
-        <v>-49.6</v>
-      </c>
-      <c r="E11" s="30"/>
-    </row>
-    <row r="12" spans="1:6" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="35">
-        <v>2021</v>
-      </c>
-      <c r="B12" s="80" t="s">
-        <v>1788</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>1784</v>
-      </c>
-      <c r="D12" s="33">
-        <v>-47.2</v>
-      </c>
-      <c r="E12" s="30"/>
-    </row>
-    <row r="13" spans="1:6" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="35">
-        <v>2022</v>
-      </c>
-      <c r="B13" s="80" t="s">
-        <v>1788</v>
-      </c>
-      <c r="C13" s="34" t="s">
-        <v>1792</v>
-      </c>
-      <c r="D13" s="33">
-        <v>-46.8</v>
-      </c>
-      <c r="E13" s="30"/>
-    </row>
-    <row r="14" spans="1:6" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="106">
-        <v>2023</v>
-      </c>
-      <c r="B14" s="80" t="s">
-        <v>1949</v>
-      </c>
-      <c r="C14" s="34" t="s">
-        <v>1950</v>
-      </c>
-      <c r="D14" s="33">
-        <v>-50</v>
-      </c>
-      <c r="E14" s="31">
-        <v>45280</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="107"/>
-      <c r="B15" s="80" t="s">
-        <v>1788</v>
-      </c>
-      <c r="C15" s="34" t="s">
-        <v>1792</v>
-      </c>
-      <c r="D15" s="33">
-        <v>-49.9</v>
-      </c>
-      <c r="E15" s="30"/>
-    </row>
-    <row r="16" spans="1:6" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="35">
-        <v>2024</v>
-      </c>
-      <c r="B16" s="80" t="s">
-        <v>1788</v>
-      </c>
-      <c r="C16" s="34" t="s">
-        <v>1784</v>
-      </c>
-      <c r="D16" s="33">
-        <v>-48.8</v>
-      </c>
-      <c r="E16" s="31">
-        <v>45312</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="111" t="s">
-        <v>1795</v>
-      </c>
-      <c r="B17" s="80" t="s">
-        <v>1788</v>
-      </c>
-      <c r="C17" s="34" t="s">
-        <v>1785</v>
-      </c>
-      <c r="D17" s="33">
-        <v>-45.6</v>
-      </c>
-      <c r="E17" s="31">
-        <v>45659</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="112"/>
-      <c r="B18" s="80" t="s">
-        <v>1788</v>
-      </c>
-      <c r="C18" s="34" t="s">
-        <v>1796</v>
-      </c>
-      <c r="D18" s="33">
-        <v>-45.6</v>
-      </c>
-      <c r="E18" s="31">
-        <v>45673</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="113"/>
-      <c r="B19" s="80" t="s">
-        <v>1789</v>
-      </c>
-      <c r="C19" s="34" t="s">
-        <v>1794</v>
-      </c>
-      <c r="D19" s="33">
-        <v>-44.2</v>
-      </c>
-      <c r="E19" s="32" t="s">
-        <v>1953</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A6:A9"/>
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A35:A37"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A3:A14"/>
+    <mergeCell ref="A16:A26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D3:D19">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="D3:D37">
+    <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -32175,276 +32471,276 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="113" t="s">
+        <v>1835</v>
+      </c>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+    </row>
+    <row r="2" spans="1:4" s="34" customFormat="1" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="57" t="s">
+        <v>1834</v>
+      </c>
+      <c r="B2" s="58" t="s">
+        <v>1852</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>1853</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="50" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B3" s="48" t="s">
+        <v>1839</v>
+      </c>
+      <c r="C3" s="49" t="s">
+        <v>1840</v>
+      </c>
+      <c r="D3" s="54">
+        <v>51573</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="47" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>1838</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>1829</v>
+      </c>
+      <c r="D4" s="54">
+        <v>58968</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="47" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>1816</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>1825</v>
+      </c>
+      <c r="D5" s="54">
+        <v>58606</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="47" t="s">
+        <v>1805</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>1816</v>
+      </c>
+      <c r="C6" s="51" t="s">
+        <v>1831</v>
+      </c>
+      <c r="D6" s="54">
+        <v>57687</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="47" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>1818</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>1827</v>
+      </c>
+      <c r="D7" s="54">
+        <v>58847</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="47" t="s">
+        <v>1799</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>1817</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>1826</v>
+      </c>
+      <c r="D8" s="54">
+        <v>58457</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="47" t="s">
+        <v>1806</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>1817</v>
+      </c>
+      <c r="C9" s="51" t="s">
+        <v>1846</v>
+      </c>
+      <c r="D9" s="54">
+        <v>57494</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="47" t="s">
+        <v>1811</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>1842</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>1837</v>
+      </c>
+      <c r="D10" s="54">
+        <v>57516</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="47" t="s">
+        <v>1801</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>1819</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>1828</v>
+      </c>
+      <c r="D11" s="54">
+        <v>59287</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="47" t="s">
+        <v>1807</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>1843</v>
+      </c>
+      <c r="C12" s="52" t="s">
+        <v>1847</v>
+      </c>
+      <c r="D12" s="54">
+        <v>59758</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="47" t="s">
+        <v>1797</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>1815</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>1824</v>
+      </c>
+      <c r="D13" s="54">
+        <v>58321</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="47" t="s">
+        <v>1804</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>1830</v>
+      </c>
+      <c r="D14" s="54">
+        <v>45011</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="47" t="s">
+        <v>1796</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>1814</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>1823</v>
+      </c>
+      <c r="D15" s="54">
+        <v>58238</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="47" t="s">
+        <v>1808</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>1821</v>
+      </c>
+      <c r="C16" s="52" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D16" s="54">
+        <v>59431</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="47" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B17" s="44" t="s">
+        <v>1844</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>1845</v>
+      </c>
+      <c r="D17" s="55" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="47" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B18" s="56" t="s">
+        <v>1849</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>1833</v>
+      </c>
+      <c r="D18" s="55" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="47" t="s">
+        <v>1809</v>
+      </c>
+      <c r="B19" s="45" t="s">
+        <v>1822</v>
+      </c>
+      <c r="C19" s="53" t="s">
+        <v>1848</v>
+      </c>
+      <c r="D19" s="54">
+        <v>57816</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="47" t="s">
+        <v>1810</v>
+      </c>
+      <c r="B20" s="46" t="s">
+        <v>1841</v>
+      </c>
+      <c r="C20" s="40" t="s">
         <v>1836</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-    </row>
-    <row r="2" spans="1:4" s="36" customFormat="1" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="59" t="s">
-        <v>1835</v>
-      </c>
-      <c r="B2" s="60" t="s">
-        <v>1853</v>
-      </c>
-      <c r="C2" s="60" t="s">
-        <v>1854</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>1776</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="52" t="s">
-        <v>1814</v>
-      </c>
-      <c r="B3" s="50" t="s">
-        <v>1840</v>
-      </c>
-      <c r="C3" s="51" t="s">
-        <v>1841</v>
-      </c>
-      <c r="D3" s="56">
-        <v>51573</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="49" t="s">
-        <v>1803</v>
-      </c>
-      <c r="B4" s="45" t="s">
-        <v>1839</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>1830</v>
-      </c>
-      <c r="D4" s="56">
-        <v>58968</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="49" t="s">
-        <v>1799</v>
-      </c>
-      <c r="B5" s="45" t="s">
-        <v>1817</v>
-      </c>
-      <c r="C5" s="40" t="s">
-        <v>1826</v>
-      </c>
-      <c r="D5" s="56">
-        <v>58606</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="49" t="s">
-        <v>1806</v>
-      </c>
-      <c r="B6" s="45" t="s">
-        <v>1817</v>
-      </c>
-      <c r="C6" s="53" t="s">
-        <v>1832</v>
-      </c>
-      <c r="D6" s="56">
-        <v>57687</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="49" t="s">
-        <v>1801</v>
-      </c>
-      <c r="B7" s="45" t="s">
-        <v>1819</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>1828</v>
-      </c>
-      <c r="D7" s="56">
-        <v>58847</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="49" t="s">
-        <v>1800</v>
-      </c>
-      <c r="B8" s="45" t="s">
-        <v>1818</v>
-      </c>
-      <c r="C8" s="40" t="s">
-        <v>1827</v>
-      </c>
-      <c r="D8" s="56">
-        <v>58457</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="49" t="s">
-        <v>1807</v>
-      </c>
-      <c r="B9" s="45" t="s">
-        <v>1818</v>
-      </c>
-      <c r="C9" s="53" t="s">
-        <v>1847</v>
-      </c>
-      <c r="D9" s="56">
-        <v>57494</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="49" t="s">
-        <v>1812</v>
-      </c>
-      <c r="B10" s="44" t="s">
-        <v>1843</v>
-      </c>
-      <c r="C10" s="43" t="s">
-        <v>1838</v>
-      </c>
-      <c r="D10" s="56">
-        <v>57516</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="49" t="s">
-        <v>1802</v>
-      </c>
-      <c r="B11" s="44" t="s">
-        <v>1820</v>
-      </c>
-      <c r="C11" s="41" t="s">
-        <v>1829</v>
-      </c>
-      <c r="D11" s="56">
-        <v>59287</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="49" t="s">
-        <v>1808</v>
-      </c>
-      <c r="B12" s="44" t="s">
-        <v>1844</v>
-      </c>
-      <c r="C12" s="54" t="s">
-        <v>1848</v>
-      </c>
-      <c r="D12" s="56">
-        <v>59758</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="49" t="s">
-        <v>1798</v>
-      </c>
-      <c r="B13" s="44" t="s">
-        <v>1816</v>
-      </c>
-      <c r="C13" s="39" t="s">
-        <v>1825</v>
-      </c>
-      <c r="D13" s="56">
-        <v>58321</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="49" t="s">
-        <v>1805</v>
-      </c>
-      <c r="B14" s="44" t="s">
-        <v>1821</v>
-      </c>
-      <c r="C14" s="41" t="s">
-        <v>1831</v>
-      </c>
-      <c r="D14" s="56">
-        <v>45011</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="49" t="s">
-        <v>1797</v>
-      </c>
-      <c r="B15" s="44" t="s">
-        <v>1815</v>
-      </c>
-      <c r="C15" s="39" t="s">
-        <v>1824</v>
-      </c>
-      <c r="D15" s="56">
-        <v>58238</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="49" t="s">
-        <v>1809</v>
-      </c>
-      <c r="B16" s="44" t="s">
-        <v>1822</v>
-      </c>
-      <c r="C16" s="54" t="s">
-        <v>1833</v>
-      </c>
-      <c r="D16" s="56">
-        <v>59431</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="49" t="s">
-        <v>1804</v>
-      </c>
-      <c r="B17" s="46" t="s">
-        <v>1845</v>
-      </c>
-      <c r="C17" s="40" t="s">
-        <v>1846</v>
-      </c>
-      <c r="D17" s="57" t="s">
-        <v>1852</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="49" t="s">
-        <v>1813</v>
-      </c>
-      <c r="B18" s="58" t="s">
-        <v>1850</v>
-      </c>
-      <c r="C18" s="38" t="s">
-        <v>1834</v>
-      </c>
-      <c r="D18" s="57" t="s">
-        <v>1851</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="49" t="s">
-        <v>1810</v>
-      </c>
-      <c r="B19" s="47" t="s">
-        <v>1823</v>
-      </c>
-      <c r="C19" s="55" t="s">
-        <v>1849</v>
-      </c>
-      <c r="D19" s="56">
-        <v>57816</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="49" t="s">
-        <v>1811</v>
-      </c>
-      <c r="B20" s="48" t="s">
-        <v>1842</v>
-      </c>
-      <c r="C20" s="42" t="s">
-        <v>1837</v>
-      </c>
-      <c r="D20" s="56">
+      <c r="D20" s="54">
         <v>56778</v>
       </c>
     </row>
@@ -32470,10 +32766,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="28.59765625" style="61" customWidth="1"/>
-    <col min="2" max="2" width="24.59765625" style="62" customWidth="1"/>
+    <col min="1" max="1" width="28.59765625" style="59" customWidth="1"/>
+    <col min="2" max="2" width="24.59765625" style="60" customWidth="1"/>
     <col min="3" max="3" width="16.59765625" customWidth="1"/>
-    <col min="4" max="4" width="24.59765625" style="63" customWidth="1"/>
+    <col min="4" max="4" width="24.59765625" style="61" customWidth="1"/>
     <col min="5" max="5" width="16.59765625" customWidth="1"/>
     <col min="6" max="6" width="17.59765625" style="27" customWidth="1"/>
     <col min="7" max="7" width="16.59765625" customWidth="1"/>
@@ -32481,1038 +32777,1038 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="114" t="s">
+        <v>1945</v>
+      </c>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+    </row>
+    <row r="2" spans="1:11" s="34" customFormat="1" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="119" t="s">
+        <v>1775</v>
+      </c>
+      <c r="B2" s="120"/>
+      <c r="C2" s="115" t="s">
+        <v>1854</v>
+      </c>
+      <c r="D2" s="116"/>
+      <c r="E2" s="117" t="s">
+        <v>1944</v>
+      </c>
+      <c r="F2" s="118"/>
+      <c r="G2" s="58" t="s">
         <v>1946</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-    </row>
-    <row r="2" spans="1:11" s="36" customFormat="1" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="122" t="s">
-        <v>1775</v>
-      </c>
-      <c r="B2" s="123"/>
-      <c r="C2" s="118" t="s">
-        <v>1855</v>
-      </c>
-      <c r="D2" s="119"/>
-      <c r="E2" s="120" t="s">
-        <v>1945</v>
-      </c>
-      <c r="F2" s="121"/>
-      <c r="G2" s="60" t="s">
-        <v>1947</v>
-      </c>
     </row>
     <row r="3" spans="1:11" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="62" t="s">
+        <v>1962</v>
+      </c>
+      <c r="B3" s="63" t="s">
         <v>1963</v>
       </c>
-      <c r="B3" s="65" t="s">
+      <c r="C3" s="72">
+        <v>-41.1</v>
+      </c>
+      <c r="D3" s="78" t="s">
         <v>1964</v>
       </c>
-      <c r="C3" s="74">
-        <v>-41.1</v>
-      </c>
-      <c r="D3" s="81" t="s">
+      <c r="E3" s="74">
+        <v>-33.299999999999997</v>
+      </c>
+      <c r="F3" s="79" t="s">
         <v>1965</v>
       </c>
-      <c r="E3" s="76">
-        <v>-33.299999999999997</v>
-      </c>
-      <c r="F3" s="82" t="s">
-        <v>1966</v>
-      </c>
-      <c r="G3" s="77">
+      <c r="G3" s="75">
         <f t="shared" ref="G3" si="0">ABS(E3-C3)</f>
         <v>7.8000000000000043</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="64" t="s">
-        <v>1894</v>
-      </c>
-      <c r="B4" s="65" t="s">
-        <v>1890</v>
-      </c>
-      <c r="C4" s="74">
+      <c r="A4" s="62" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B4" s="63" t="s">
+        <v>1889</v>
+      </c>
+      <c r="C4" s="72">
         <v>-40.9</v>
       </c>
-      <c r="D4" s="78" t="s">
-        <v>1920</v>
-      </c>
-      <c r="E4" s="76">
+      <c r="D4" s="76" t="s">
+        <v>1919</v>
+      </c>
+      <c r="E4" s="74">
         <v>-29.3</v>
       </c>
-      <c r="F4" s="75" t="s">
-        <v>1943</v>
-      </c>
-      <c r="G4" s="77">
+      <c r="F4" s="73" t="s">
+        <v>1942</v>
+      </c>
+      <c r="G4" s="75">
         <f t="shared" ref="G4:G44" si="1">ABS(E4-C4)</f>
         <v>11.599999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="64" t="s">
-        <v>1894</v>
-      </c>
-      <c r="B5" s="65" t="s">
-        <v>1864</v>
-      </c>
-      <c r="C5" s="74">
+      <c r="A5" s="62" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B5" s="63" t="s">
+        <v>1863</v>
+      </c>
+      <c r="C5" s="72">
         <v>-40.200000000000003</v>
       </c>
-      <c r="D5" s="75" t="s">
-        <v>1921</v>
-      </c>
-      <c r="E5" s="76">
+      <c r="D5" s="73" t="s">
+        <v>1920</v>
+      </c>
+      <c r="E5" s="74">
         <v>-28.7</v>
       </c>
-      <c r="F5" s="75" t="s">
-        <v>1943</v>
-      </c>
-      <c r="G5" s="77">
+      <c r="F5" s="73" t="s">
+        <v>1942</v>
+      </c>
+      <c r="G5" s="75">
         <f t="shared" si="1"/>
         <v>11.500000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="66" t="s">
-        <v>1895</v>
-      </c>
-      <c r="B6" s="67" t="s">
-        <v>1867</v>
-      </c>
-      <c r="C6" s="74">
+      <c r="A6" s="64" t="s">
+        <v>1894</v>
+      </c>
+      <c r="B6" s="65" t="s">
+        <v>1866</v>
+      </c>
+      <c r="C6" s="72">
         <v>-40.1</v>
       </c>
-      <c r="D6" s="75" t="s">
-        <v>1922</v>
-      </c>
-      <c r="E6" s="76">
+      <c r="D6" s="73" t="s">
+        <v>1921</v>
+      </c>
+      <c r="E6" s="74">
         <v>-32.4</v>
       </c>
-      <c r="F6" s="75" t="s">
-        <v>1943</v>
-      </c>
-      <c r="G6" s="77">
+      <c r="F6" s="73" t="s">
+        <v>1942</v>
+      </c>
+      <c r="G6" s="75">
         <f t="shared" si="1"/>
         <v>7.7000000000000028</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="66" t="s">
-        <v>1896</v>
-      </c>
-      <c r="B7" s="67" t="s">
-        <v>1871</v>
-      </c>
-      <c r="C7" s="74">
+      <c r="A7" s="64" t="s">
+        <v>1895</v>
+      </c>
+      <c r="B7" s="65" t="s">
+        <v>1870</v>
+      </c>
+      <c r="C7" s="72">
         <v>-40</v>
       </c>
-      <c r="D7" s="78" t="s">
-        <v>1920</v>
-      </c>
-      <c r="E7" s="76">
+      <c r="D7" s="76" t="s">
+        <v>1919</v>
+      </c>
+      <c r="E7" s="74">
         <v>-31.5</v>
       </c>
-      <c r="F7" s="75" t="s">
-        <v>1943</v>
-      </c>
-      <c r="G7" s="77">
+      <c r="F7" s="73" t="s">
+        <v>1942</v>
+      </c>
+      <c r="G7" s="75">
         <f t="shared" si="1"/>
         <v>8.5</v>
       </c>
-      <c r="K7" s="79"/>
+      <c r="K7" s="77"/>
     </row>
     <row r="8" spans="1:11" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="66" t="s">
-        <v>1897</v>
-      </c>
-      <c r="B8" s="67" t="s">
-        <v>1868</v>
-      </c>
-      <c r="C8" s="74">
+      <c r="A8" s="64" t="s">
+        <v>1896</v>
+      </c>
+      <c r="B8" s="65" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C8" s="72">
         <v>-39.4</v>
       </c>
-      <c r="D8" s="78" t="s">
-        <v>1920</v>
-      </c>
-      <c r="E8" s="76">
+      <c r="D8" s="76" t="s">
+        <v>1919</v>
+      </c>
+      <c r="E8" s="74">
         <v>-31.3</v>
       </c>
-      <c r="F8" s="75" t="s">
-        <v>1943</v>
-      </c>
-      <c r="G8" s="77">
+      <c r="F8" s="73" t="s">
+        <v>1942</v>
+      </c>
+      <c r="G8" s="75">
         <f t="shared" si="1"/>
         <v>8.0999999999999979</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="64" t="s">
-        <v>1898</v>
-      </c>
-      <c r="B9" s="65" t="s">
-        <v>1859</v>
-      </c>
-      <c r="C9" s="74">
+      <c r="A9" s="62" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B9" s="63" t="s">
+        <v>1858</v>
+      </c>
+      <c r="C9" s="72">
         <v>-39.299999999999997</v>
       </c>
-      <c r="D9" s="75" t="s">
-        <v>1923</v>
-      </c>
-      <c r="E9" s="76">
+      <c r="D9" s="73" t="s">
+        <v>1922</v>
+      </c>
+      <c r="E9" s="74">
         <v>-29.4</v>
       </c>
-      <c r="F9" s="75" t="s">
-        <v>1943</v>
-      </c>
-      <c r="G9" s="77">
+      <c r="F9" s="73" t="s">
+        <v>1942</v>
+      </c>
+      <c r="G9" s="75">
         <f t="shared" si="1"/>
         <v>9.8999999999999986</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="64" t="s">
-        <v>1894</v>
-      </c>
-      <c r="B10" s="65" t="s">
-        <v>1866</v>
-      </c>
-      <c r="C10" s="74">
+      <c r="A10" s="62" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B10" s="63" t="s">
+        <v>1865</v>
+      </c>
+      <c r="C10" s="72">
         <v>-38.9</v>
       </c>
-      <c r="D10" s="75" t="s">
-        <v>1924</v>
-      </c>
-      <c r="E10" s="76">
+      <c r="D10" s="73" t="s">
+        <v>1923</v>
+      </c>
+      <c r="E10" s="74">
         <v>-31</v>
       </c>
-      <c r="F10" s="75" t="s">
-        <v>1943</v>
-      </c>
-      <c r="G10" s="77">
+      <c r="F10" s="73" t="s">
+        <v>1942</v>
+      </c>
+      <c r="G10" s="75">
         <f t="shared" si="1"/>
         <v>7.8999999999999986</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="64" t="s">
-        <v>1899</v>
-      </c>
-      <c r="B11" s="65" t="s">
-        <v>1889</v>
-      </c>
-      <c r="C11" s="74">
+      <c r="A11" s="62" t="s">
+        <v>1898</v>
+      </c>
+      <c r="B11" s="63" t="s">
+        <v>1888</v>
+      </c>
+      <c r="C11" s="72">
         <v>-38.700000000000003</v>
       </c>
-      <c r="D11" s="78" t="s">
-        <v>1920</v>
-      </c>
-      <c r="E11" s="76">
+      <c r="D11" s="76" t="s">
+        <v>1919</v>
+      </c>
+      <c r="E11" s="74">
         <v>-29.5</v>
       </c>
-      <c r="F11" s="75" t="s">
-        <v>1943</v>
-      </c>
-      <c r="G11" s="77">
+      <c r="F11" s="73" t="s">
+        <v>1942</v>
+      </c>
+      <c r="G11" s="75">
         <f t="shared" si="1"/>
         <v>9.2000000000000028</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="64" t="s">
-        <v>1900</v>
-      </c>
-      <c r="B12" s="65" t="s">
-        <v>1861</v>
-      </c>
-      <c r="C12" s="74">
+      <c r="A12" s="62" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B12" s="63" t="s">
+        <v>1860</v>
+      </c>
+      <c r="C12" s="72">
         <v>-38.700000000000003</v>
       </c>
-      <c r="D12" s="75" t="s">
-        <v>1925</v>
-      </c>
-      <c r="E12" s="76">
+      <c r="D12" s="73" t="s">
+        <v>1924</v>
+      </c>
+      <c r="E12" s="74">
         <v>-29.8</v>
       </c>
-      <c r="F12" s="78" t="s">
-        <v>1944</v>
-      </c>
-      <c r="G12" s="77">
+      <c r="F12" s="76" t="s">
+        <v>1943</v>
+      </c>
+      <c r="G12" s="75">
         <f t="shared" si="1"/>
         <v>8.9000000000000021</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="64" t="s">
-        <v>1900</v>
-      </c>
-      <c r="B13" s="65" t="s">
-        <v>1862</v>
-      </c>
-      <c r="C13" s="74">
+      <c r="A13" s="62" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B13" s="63" t="s">
+        <v>1861</v>
+      </c>
+      <c r="C13" s="72">
         <v>-38.5</v>
       </c>
-      <c r="D13" s="78" t="s">
-        <v>1920</v>
-      </c>
-      <c r="E13" s="76">
+      <c r="D13" s="76" t="s">
+        <v>1919</v>
+      </c>
+      <c r="E13" s="74">
         <v>-30.5</v>
       </c>
-      <c r="F13" s="75" t="s">
-        <v>1943</v>
-      </c>
-      <c r="G13" s="77">
+      <c r="F13" s="73" t="s">
+        <v>1942</v>
+      </c>
+      <c r="G13" s="75">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="66" t="s">
-        <v>1896</v>
-      </c>
-      <c r="B14" s="67" t="s">
-        <v>1869</v>
-      </c>
-      <c r="C14" s="74">
+      <c r="A14" s="64" t="s">
+        <v>1895</v>
+      </c>
+      <c r="B14" s="65" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C14" s="72">
         <v>-38.4</v>
       </c>
-      <c r="D14" s="75" t="s">
-        <v>1926</v>
-      </c>
-      <c r="E14" s="76">
+      <c r="D14" s="73" t="s">
+        <v>1925</v>
+      </c>
+      <c r="E14" s="74">
         <v>-31.4</v>
       </c>
-      <c r="F14" s="75" t="s">
-        <v>1943</v>
-      </c>
-      <c r="G14" s="77">
+      <c r="F14" s="73" t="s">
+        <v>1942</v>
+      </c>
+      <c r="G14" s="75">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="64" t="s">
-        <v>1901</v>
-      </c>
-      <c r="B15" s="65" t="s">
-        <v>1865</v>
-      </c>
-      <c r="C15" s="74">
+      <c r="A15" s="62" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B15" s="63" t="s">
+        <v>1864</v>
+      </c>
+      <c r="C15" s="72">
         <v>-37.9</v>
       </c>
-      <c r="D15" s="75" t="s">
-        <v>1927</v>
-      </c>
-      <c r="E15" s="76">
+      <c r="D15" s="73" t="s">
+        <v>1926</v>
+      </c>
+      <c r="E15" s="74">
         <v>-27.3</v>
       </c>
-      <c r="F15" s="75" t="s">
-        <v>1943</v>
-      </c>
-      <c r="G15" s="77">
+      <c r="F15" s="73" t="s">
+        <v>1942</v>
+      </c>
+      <c r="G15" s="75">
         <f t="shared" si="1"/>
         <v>10.599999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="68" t="s">
-        <v>1902</v>
-      </c>
-      <c r="B16" s="69" t="s">
-        <v>1875</v>
-      </c>
-      <c r="C16" s="74">
+      <c r="A16" s="66" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B16" s="67" t="s">
+        <v>1874</v>
+      </c>
+      <c r="C16" s="72">
         <v>-37.5</v>
       </c>
-      <c r="D16" s="75" t="s">
-        <v>1928</v>
-      </c>
-      <c r="E16" s="76">
+      <c r="D16" s="73" t="s">
+        <v>1927</v>
+      </c>
+      <c r="E16" s="74">
         <v>-25</v>
       </c>
-      <c r="F16" s="75" t="s">
-        <v>1943</v>
-      </c>
-      <c r="G16" s="77">
+      <c r="F16" s="73" t="s">
+        <v>1942</v>
+      </c>
+      <c r="G16" s="75">
         <f t="shared" si="1"/>
         <v>12.5</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="68" t="s">
-        <v>1902</v>
-      </c>
-      <c r="B17" s="69" t="s">
-        <v>1888</v>
-      </c>
-      <c r="C17" s="74">
+      <c r="A17" s="66" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B17" s="67" t="s">
+        <v>1887</v>
+      </c>
+      <c r="C17" s="72">
         <v>-37.200000000000003</v>
       </c>
-      <c r="D17" s="75" t="s">
-        <v>1929</v>
-      </c>
-      <c r="E17" s="76">
+      <c r="D17" s="73" t="s">
+        <v>1928</v>
+      </c>
+      <c r="E17" s="74">
         <v>-27.7</v>
       </c>
-      <c r="F17" s="75" t="s">
-        <v>1943</v>
-      </c>
-      <c r="G17" s="77">
+      <c r="F17" s="73" t="s">
+        <v>1942</v>
+      </c>
+      <c r="G17" s="75">
         <f t="shared" si="1"/>
         <v>9.5000000000000036</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="66" t="s">
-        <v>1896</v>
-      </c>
-      <c r="B18" s="67" t="s">
-        <v>1870</v>
-      </c>
-      <c r="C18" s="74">
+      <c r="A18" s="64" t="s">
+        <v>1895</v>
+      </c>
+      <c r="B18" s="65" t="s">
+        <v>1869</v>
+      </c>
+      <c r="C18" s="72">
         <v>-36.9</v>
       </c>
-      <c r="D18" s="75" t="s">
-        <v>1930</v>
-      </c>
-      <c r="E18" s="76">
+      <c r="D18" s="73" t="s">
+        <v>1929</v>
+      </c>
+      <c r="E18" s="74">
         <v>-27.6</v>
       </c>
-      <c r="F18" s="75" t="s">
-        <v>1943</v>
-      </c>
-      <c r="G18" s="77">
+      <c r="F18" s="73" t="s">
+        <v>1942</v>
+      </c>
+      <c r="G18" s="75">
         <f t="shared" si="1"/>
         <v>9.2999999999999972</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="64" t="s">
-        <v>1903</v>
-      </c>
-      <c r="B19" s="65" t="s">
-        <v>1856</v>
-      </c>
-      <c r="C19" s="74">
+      <c r="A19" s="62" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B19" s="63" t="s">
+        <v>1855</v>
+      </c>
+      <c r="C19" s="72">
         <v>-36.299999999999997</v>
       </c>
-      <c r="D19" s="78" t="s">
-        <v>1920</v>
-      </c>
-      <c r="E19" s="76">
+      <c r="D19" s="76" t="s">
+        <v>1919</v>
+      </c>
+      <c r="E19" s="74">
         <v>-27.9</v>
       </c>
-      <c r="F19" s="75" t="s">
-        <v>1943</v>
-      </c>
-      <c r="G19" s="77">
+      <c r="F19" s="73" t="s">
+        <v>1942</v>
+      </c>
+      <c r="G19" s="75">
         <f t="shared" si="1"/>
         <v>8.3999999999999986</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="68" t="s">
-        <v>1902</v>
-      </c>
-      <c r="B20" s="69" t="s">
-        <v>1874</v>
-      </c>
-      <c r="C20" s="74">
+      <c r="A20" s="66" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B20" s="67" t="s">
+        <v>1873</v>
+      </c>
+      <c r="C20" s="72">
         <v>-36</v>
       </c>
-      <c r="D20" s="75" t="s">
-        <v>1929</v>
-      </c>
-      <c r="E20" s="76">
+      <c r="D20" s="73" t="s">
+        <v>1928</v>
+      </c>
+      <c r="E20" s="74">
         <v>-28.4</v>
       </c>
-      <c r="F20" s="75" t="s">
-        <v>1943</v>
-      </c>
-      <c r="G20" s="77">
+      <c r="F20" s="73" t="s">
+        <v>1942</v>
+      </c>
+      <c r="G20" s="75">
         <f t="shared" si="1"/>
         <v>7.6000000000000014</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="64" t="s">
-        <v>1904</v>
-      </c>
-      <c r="B21" s="65" t="s">
-        <v>1857</v>
-      </c>
-      <c r="C21" s="74">
+      <c r="A21" s="62" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B21" s="63" t="s">
+        <v>1856</v>
+      </c>
+      <c r="C21" s="72">
         <v>-35.6</v>
       </c>
-      <c r="D21" s="75" t="s">
-        <v>1931</v>
-      </c>
-      <c r="E21" s="76">
+      <c r="D21" s="73" t="s">
+        <v>1930</v>
+      </c>
+      <c r="E21" s="74">
         <v>-26.4</v>
       </c>
-      <c r="F21" s="75" t="s">
-        <v>1943</v>
-      </c>
-      <c r="G21" s="77">
+      <c r="F21" s="73" t="s">
+        <v>1942</v>
+      </c>
+      <c r="G21" s="75">
         <f t="shared" si="1"/>
         <v>9.2000000000000028</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="64" t="s">
-        <v>1899</v>
-      </c>
-      <c r="B22" s="65" t="s">
-        <v>1858</v>
-      </c>
-      <c r="C22" s="74">
+      <c r="A22" s="62" t="s">
+        <v>1898</v>
+      </c>
+      <c r="B22" s="63" t="s">
+        <v>1857</v>
+      </c>
+      <c r="C22" s="72">
         <v>-35.6</v>
       </c>
-      <c r="D22" s="75" t="s">
-        <v>1932</v>
-      </c>
-      <c r="E22" s="76">
+      <c r="D22" s="73" t="s">
+        <v>1931</v>
+      </c>
+      <c r="E22" s="74">
         <v>-27.6</v>
       </c>
-      <c r="F22" s="75" t="s">
-        <v>1943</v>
-      </c>
-      <c r="G22" s="77">
+      <c r="F22" s="73" t="s">
+        <v>1942</v>
+      </c>
+      <c r="G22" s="75">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="64" t="s">
-        <v>1900</v>
-      </c>
-      <c r="B23" s="65" t="s">
-        <v>1860</v>
-      </c>
-      <c r="C23" s="74">
+      <c r="A23" s="62" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B23" s="63" t="s">
+        <v>1859</v>
+      </c>
+      <c r="C23" s="72">
         <v>-35.4</v>
       </c>
-      <c r="D23" s="75" t="s">
-        <v>1933</v>
-      </c>
-      <c r="E23" s="76">
+      <c r="D23" s="73" t="s">
+        <v>1932</v>
+      </c>
+      <c r="E23" s="74">
         <v>-27.4</v>
       </c>
-      <c r="F23" s="75" t="s">
-        <v>1943</v>
-      </c>
-      <c r="G23" s="77">
+      <c r="F23" s="73" t="s">
+        <v>1942</v>
+      </c>
+      <c r="G23" s="75">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="68" t="s">
-        <v>1905</v>
-      </c>
-      <c r="B24" s="69" t="s">
-        <v>1873</v>
-      </c>
-      <c r="C24" s="74">
+      <c r="A24" s="66" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B24" s="67" t="s">
+        <v>1872</v>
+      </c>
+      <c r="C24" s="72">
         <v>-35.299999999999997</v>
       </c>
-      <c r="D24" s="78" t="s">
-        <v>1920</v>
-      </c>
-      <c r="E24" s="76">
+      <c r="D24" s="76" t="s">
+        <v>1919</v>
+      </c>
+      <c r="E24" s="74">
         <v>-27.9</v>
       </c>
-      <c r="F24" s="75" t="s">
-        <v>1943</v>
-      </c>
-      <c r="G24" s="77">
+      <c r="F24" s="73" t="s">
+        <v>1942</v>
+      </c>
+      <c r="G24" s="75">
         <f t="shared" si="1"/>
         <v>7.3999999999999986</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="68" t="s">
-        <v>1906</v>
-      </c>
-      <c r="B25" s="69" t="s">
-        <v>1878</v>
-      </c>
-      <c r="C25" s="74">
+      <c r="A25" s="66" t="s">
+        <v>1905</v>
+      </c>
+      <c r="B25" s="67" t="s">
+        <v>1877</v>
+      </c>
+      <c r="C25" s="72">
         <v>-34.5</v>
       </c>
-      <c r="D25" s="75" t="s">
-        <v>1934</v>
-      </c>
-      <c r="E25" s="76">
+      <c r="D25" s="73" t="s">
+        <v>1933</v>
+      </c>
+      <c r="E25" s="74">
         <v>-26.4</v>
       </c>
-      <c r="F25" s="75" t="s">
-        <v>1943</v>
-      </c>
-      <c r="G25" s="77">
+      <c r="F25" s="73" t="s">
+        <v>1942</v>
+      </c>
+      <c r="G25" s="75">
         <f t="shared" si="1"/>
         <v>8.1000000000000014</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="68" t="s">
-        <v>1962</v>
-      </c>
-      <c r="B26" s="69" t="s">
+      <c r="A26" s="66" t="s">
         <v>1961</v>
       </c>
-      <c r="C26" s="74">
+      <c r="B26" s="67" t="s">
+        <v>1960</v>
+      </c>
+      <c r="C26" s="72">
         <v>-33.1</v>
       </c>
-      <c r="D26" s="75" t="s">
-        <v>1957</v>
-      </c>
-      <c r="E26" s="76">
+      <c r="D26" s="73" t="s">
+        <v>1956</v>
+      </c>
+      <c r="E26" s="74">
         <v>-25</v>
       </c>
-      <c r="F26" s="75" t="s">
-        <v>1943</v>
-      </c>
-      <c r="G26" s="77">
+      <c r="F26" s="73" t="s">
+        <v>1942</v>
+      </c>
+      <c r="G26" s="75">
         <f t="shared" ref="G26" si="2">ABS(E26-C26)</f>
         <v>8.1000000000000014</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="68" t="s">
-        <v>1907</v>
-      </c>
-      <c r="B27" s="69" t="s">
-        <v>1886</v>
-      </c>
-      <c r="C27" s="74">
+      <c r="A27" s="66" t="s">
+        <v>1906</v>
+      </c>
+      <c r="B27" s="67" t="s">
+        <v>1885</v>
+      </c>
+      <c r="C27" s="72">
         <v>-32</v>
       </c>
-      <c r="D27" s="75" t="s">
-        <v>1922</v>
-      </c>
-      <c r="E27" s="76">
+      <c r="D27" s="73" t="s">
+        <v>1921</v>
+      </c>
+      <c r="E27" s="74">
         <v>-24.4</v>
       </c>
-      <c r="F27" s="75" t="s">
-        <v>1943</v>
-      </c>
-      <c r="G27" s="77">
+      <c r="F27" s="73" t="s">
+        <v>1942</v>
+      </c>
+      <c r="G27" s="75">
         <f t="shared" si="1"/>
         <v>7.6000000000000014</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="68" t="s">
-        <v>1905</v>
-      </c>
-      <c r="B28" s="69" t="s">
-        <v>1885</v>
-      </c>
-      <c r="C28" s="74">
+      <c r="A28" s="66" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B28" s="67" t="s">
+        <v>1884</v>
+      </c>
+      <c r="C28" s="72">
         <v>-31.8</v>
       </c>
-      <c r="D28" s="75" t="s">
-        <v>1935</v>
-      </c>
-      <c r="E28" s="76">
+      <c r="D28" s="73" t="s">
+        <v>1934</v>
+      </c>
+      <c r="E28" s="74">
         <v>-24.7</v>
       </c>
-      <c r="F28" s="75" t="s">
-        <v>1943</v>
-      </c>
-      <c r="G28" s="77">
+      <c r="F28" s="73" t="s">
+        <v>1942</v>
+      </c>
+      <c r="G28" s="75">
         <f t="shared" si="1"/>
         <v>7.1000000000000014</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="70" t="s">
-        <v>1908</v>
-      </c>
-      <c r="B29" s="71" t="s">
-        <v>1891</v>
-      </c>
-      <c r="C29" s="74">
+      <c r="A29" s="68" t="s">
+        <v>1907</v>
+      </c>
+      <c r="B29" s="69" t="s">
+        <v>1890</v>
+      </c>
+      <c r="C29" s="72">
         <v>-31.7</v>
       </c>
-      <c r="D29" s="78" t="s">
-        <v>1920</v>
-      </c>
-      <c r="E29" s="76">
+      <c r="D29" s="76" t="s">
+        <v>1919</v>
+      </c>
+      <c r="E29" s="74">
         <v>-20.3</v>
       </c>
-      <c r="F29" s="75" t="s">
-        <v>1943</v>
-      </c>
-      <c r="G29" s="77">
+      <c r="F29" s="73" t="s">
+        <v>1942</v>
+      </c>
+      <c r="G29" s="75">
         <f t="shared" si="1"/>
         <v>11.399999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="64" t="s">
-        <v>1909</v>
-      </c>
-      <c r="B30" s="65" t="s">
-        <v>1863</v>
-      </c>
-      <c r="C30" s="74">
+      <c r="A30" s="62" t="s">
+        <v>1908</v>
+      </c>
+      <c r="B30" s="63" t="s">
+        <v>1862</v>
+      </c>
+      <c r="C30" s="72">
         <v>-30.7</v>
       </c>
-      <c r="D30" s="75" t="s">
-        <v>1922</v>
-      </c>
-      <c r="E30" s="76">
+      <c r="D30" s="73" t="s">
+        <v>1921</v>
+      </c>
+      <c r="E30" s="74">
         <v>-24.6</v>
       </c>
-      <c r="F30" s="75" t="s">
-        <v>1943</v>
-      </c>
-      <c r="G30" s="77">
+      <c r="F30" s="73" t="s">
+        <v>1942</v>
+      </c>
+      <c r="G30" s="75">
         <f t="shared" si="1"/>
         <v>6.0999999999999979</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="66" t="s">
-        <v>1910</v>
-      </c>
-      <c r="B31" s="67" t="s">
-        <v>1872</v>
-      </c>
-      <c r="C31" s="74">
+      <c r="A31" s="64" t="s">
+        <v>1909</v>
+      </c>
+      <c r="B31" s="65" t="s">
+        <v>1871</v>
+      </c>
+      <c r="C31" s="72">
         <v>-30.5</v>
       </c>
-      <c r="D31" s="75" t="s">
-        <v>1936</v>
-      </c>
-      <c r="E31" s="76">
+      <c r="D31" s="73" t="s">
+        <v>1935</v>
+      </c>
+      <c r="E31" s="74">
         <v>-21.3</v>
       </c>
-      <c r="F31" s="75" t="s">
-        <v>1943</v>
-      </c>
-      <c r="G31" s="77">
+      <c r="F31" s="73" t="s">
+        <v>1942</v>
+      </c>
+      <c r="G31" s="75">
         <f t="shared" si="1"/>
         <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="68" t="s">
+      <c r="A32" s="66" t="s">
+        <v>1957</v>
+      </c>
+      <c r="B32" s="67" t="s">
         <v>1958</v>
       </c>
-      <c r="B32" s="69" t="s">
+      <c r="C32" s="72">
+        <v>-29.5</v>
+      </c>
+      <c r="D32" s="76" t="s">
         <v>1959</v>
       </c>
-      <c r="C32" s="74">
-        <v>-29.5</v>
-      </c>
-      <c r="D32" s="78" t="s">
-        <v>1960</v>
-      </c>
-      <c r="E32" s="76">
+      <c r="E32" s="74">
         <v>-21.4</v>
       </c>
-      <c r="F32" s="75" t="s">
-        <v>1943</v>
-      </c>
-      <c r="G32" s="77">
+      <c r="F32" s="73" t="s">
+        <v>1942</v>
+      </c>
+      <c r="G32" s="75">
         <f t="shared" ref="G32" si="3">ABS(E32-C32)</f>
         <v>8.1000000000000014</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="68" t="s">
-        <v>1911</v>
-      </c>
-      <c r="B33" s="69" t="s">
-        <v>1881</v>
-      </c>
-      <c r="C33" s="74">
+      <c r="A33" s="66" t="s">
+        <v>1910</v>
+      </c>
+      <c r="B33" s="67" t="s">
+        <v>1880</v>
+      </c>
+      <c r="C33" s="72">
         <v>-27.5</v>
       </c>
-      <c r="D33" s="75" t="s">
-        <v>1928</v>
-      </c>
-      <c r="E33" s="76">
+      <c r="D33" s="73" t="s">
+        <v>1927</v>
+      </c>
+      <c r="E33" s="74">
         <v>-17.3</v>
       </c>
-      <c r="F33" s="75" t="s">
-        <v>1943</v>
-      </c>
-      <c r="G33" s="77">
+      <c r="F33" s="73" t="s">
+        <v>1942</v>
+      </c>
+      <c r="G33" s="75">
         <f t="shared" si="1"/>
         <v>10.199999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="68" t="s">
-        <v>1912</v>
-      </c>
-      <c r="B34" s="69" t="s">
-        <v>1876</v>
-      </c>
-      <c r="C34" s="74">
+      <c r="A34" s="66" t="s">
+        <v>1911</v>
+      </c>
+      <c r="B34" s="67" t="s">
+        <v>1875</v>
+      </c>
+      <c r="C34" s="72">
         <v>-25.1</v>
       </c>
-      <c r="D34" s="78" t="s">
-        <v>1920</v>
-      </c>
-      <c r="E34" s="76">
+      <c r="D34" s="76" t="s">
+        <v>1919</v>
+      </c>
+      <c r="E34" s="74">
         <v>-15.8</v>
       </c>
-      <c r="F34" s="75" t="s">
-        <v>1943</v>
-      </c>
-      <c r="G34" s="77">
+      <c r="F34" s="73" t="s">
+        <v>1942</v>
+      </c>
+      <c r="G34" s="75">
         <f t="shared" si="1"/>
         <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="68" t="s">
-        <v>1948</v>
-      </c>
-      <c r="B35" s="69" t="s">
-        <v>1892</v>
-      </c>
-      <c r="C35" s="74">
+      <c r="A35" s="66" t="s">
+        <v>1947</v>
+      </c>
+      <c r="B35" s="67" t="s">
+        <v>1891</v>
+      </c>
+      <c r="C35" s="72">
         <v>-24.9</v>
       </c>
-      <c r="D35" s="75" t="s">
-        <v>1937</v>
-      </c>
-      <c r="E35" s="76">
+      <c r="D35" s="73" t="s">
+        <v>1936</v>
+      </c>
+      <c r="E35" s="74">
         <v>-15.9</v>
       </c>
-      <c r="F35" s="75" t="s">
-        <v>1943</v>
-      </c>
-      <c r="G35" s="77">
+      <c r="F35" s="73" t="s">
+        <v>1942</v>
+      </c>
+      <c r="G35" s="75">
         <f t="shared" si="1"/>
         <v>8.9999999999999982</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="68" t="s">
-        <v>1948</v>
-      </c>
-      <c r="B36" s="69" t="s">
-        <v>1887</v>
-      </c>
-      <c r="C36" s="74">
+      <c r="A36" s="66" t="s">
+        <v>1947</v>
+      </c>
+      <c r="B36" s="67" t="s">
+        <v>1886</v>
+      </c>
+      <c r="C36" s="72">
         <v>-24.3</v>
       </c>
-      <c r="D36" s="75" t="s">
-        <v>1938</v>
-      </c>
-      <c r="E36" s="76">
+      <c r="D36" s="73" t="s">
+        <v>1937</v>
+      </c>
+      <c r="E36" s="74">
         <v>-16.3</v>
       </c>
-      <c r="F36" s="75" t="s">
-        <v>1943</v>
-      </c>
-      <c r="G36" s="77">
+      <c r="F36" s="73" t="s">
+        <v>1942</v>
+      </c>
+      <c r="G36" s="75">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="68" t="s">
-        <v>1913</v>
-      </c>
-      <c r="B37" s="69" t="s">
-        <v>1882</v>
-      </c>
-      <c r="C37" s="74">
+      <c r="A37" s="66" t="s">
+        <v>1912</v>
+      </c>
+      <c r="B37" s="67" t="s">
+        <v>1881</v>
+      </c>
+      <c r="C37" s="72">
         <v>-23</v>
       </c>
-      <c r="D37" s="75" t="s">
-        <v>1939</v>
-      </c>
-      <c r="E37" s="76">
+      <c r="D37" s="73" t="s">
+        <v>1938</v>
+      </c>
+      <c r="E37" s="74">
         <v>-17.3</v>
       </c>
-      <c r="F37" s="75" t="s">
-        <v>1943</v>
-      </c>
-      <c r="G37" s="77">
+      <c r="F37" s="73" t="s">
+        <v>1942</v>
+      </c>
+      <c r="G37" s="75">
         <f t="shared" si="1"/>
         <v>5.6999999999999993</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="68" t="s">
-        <v>1914</v>
-      </c>
-      <c r="B38" s="69" t="s">
-        <v>1883</v>
-      </c>
-      <c r="C38" s="74">
+      <c r="A38" s="66" t="s">
+        <v>1913</v>
+      </c>
+      <c r="B38" s="67" t="s">
+        <v>1882</v>
+      </c>
+      <c r="C38" s="72">
         <v>-22.8</v>
       </c>
-      <c r="D38" s="75" t="s">
-        <v>1928</v>
-      </c>
-      <c r="E38" s="76">
+      <c r="D38" s="73" t="s">
+        <v>1927</v>
+      </c>
+      <c r="E38" s="74">
         <v>-14.3</v>
       </c>
-      <c r="F38" s="75" t="s">
-        <v>1943</v>
-      </c>
-      <c r="G38" s="77">
+      <c r="F38" s="73" t="s">
+        <v>1942</v>
+      </c>
+      <c r="G38" s="75">
         <f t="shared" si="1"/>
         <v>8.5</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="68" t="s">
+      <c r="A39" s="66" t="s">
+        <v>1954</v>
+      </c>
+      <c r="B39" s="67" t="s">
         <v>1955</v>
       </c>
-      <c r="B39" s="69" t="s">
+      <c r="C39" s="72">
+        <v>-22.6</v>
+      </c>
+      <c r="D39" s="73" t="s">
         <v>1956</v>
       </c>
-      <c r="C39" s="74">
-        <v>-22.6</v>
-      </c>
-      <c r="D39" s="75" t="s">
-        <v>1957</v>
-      </c>
-      <c r="E39" s="76">
+      <c r="E39" s="74">
         <v>-17</v>
       </c>
-      <c r="F39" s="75" t="s">
-        <v>1943</v>
-      </c>
-      <c r="G39" s="77">
+      <c r="F39" s="73" t="s">
+        <v>1942</v>
+      </c>
+      <c r="G39" s="75">
         <f t="shared" ref="G39" si="4">ABS(E39-C39)</f>
         <v>5.6000000000000014</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="72" t="s">
-        <v>1915</v>
-      </c>
-      <c r="B40" s="73" t="s">
-        <v>1893</v>
-      </c>
-      <c r="C40" s="74">
+      <c r="A40" s="70" t="s">
+        <v>1914</v>
+      </c>
+      <c r="B40" s="71" t="s">
+        <v>1892</v>
+      </c>
+      <c r="C40" s="72">
         <v>-22.4</v>
       </c>
-      <c r="D40" s="75" t="s">
-        <v>1922</v>
-      </c>
-      <c r="E40" s="76">
+      <c r="D40" s="73" t="s">
+        <v>1921</v>
+      </c>
+      <c r="E40" s="74">
         <v>-17</v>
       </c>
-      <c r="F40" s="75" t="s">
-        <v>1943</v>
-      </c>
-      <c r="G40" s="77">
+      <c r="F40" s="73" t="s">
+        <v>1942</v>
+      </c>
+      <c r="G40" s="75">
         <f t="shared" si="1"/>
         <v>5.3999999999999986</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="68" t="s">
-        <v>1916</v>
-      </c>
-      <c r="B41" s="69" t="s">
-        <v>1879</v>
-      </c>
-      <c r="C41" s="74">
+      <c r="A41" s="66" t="s">
+        <v>1915</v>
+      </c>
+      <c r="B41" s="67" t="s">
+        <v>1878</v>
+      </c>
+      <c r="C41" s="72">
         <v>-20.9</v>
       </c>
-      <c r="D41" s="75" t="s">
-        <v>1940</v>
-      </c>
-      <c r="E41" s="76">
+      <c r="D41" s="73" t="s">
+        <v>1939</v>
+      </c>
+      <c r="E41" s="74">
         <v>-10.7</v>
       </c>
-      <c r="F41" s="75" t="s">
-        <v>1943</v>
-      </c>
-      <c r="G41" s="77">
+      <c r="F41" s="73" t="s">
+        <v>1942</v>
+      </c>
+      <c r="G41" s="75">
         <f t="shared" si="1"/>
         <v>10.199999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="68" t="s">
-        <v>1917</v>
-      </c>
-      <c r="B42" s="69" t="s">
-        <v>1877</v>
-      </c>
-      <c r="C42" s="74">
+      <c r="A42" s="66" t="s">
+        <v>1916</v>
+      </c>
+      <c r="B42" s="67" t="s">
+        <v>1876</v>
+      </c>
+      <c r="C42" s="72">
         <v>-20.399999999999999</v>
       </c>
-      <c r="D42" s="75" t="s">
-        <v>1941</v>
-      </c>
-      <c r="E42" s="76">
+      <c r="D42" s="73" t="s">
+        <v>1940</v>
+      </c>
+      <c r="E42" s="74">
         <v>-12.2</v>
       </c>
-      <c r="F42" s="75" t="s">
-        <v>1943</v>
-      </c>
-      <c r="G42" s="77">
+      <c r="F42" s="73" t="s">
+        <v>1942</v>
+      </c>
+      <c r="G42" s="75">
         <f t="shared" si="1"/>
         <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="68" t="s">
-        <v>1918</v>
-      </c>
-      <c r="B43" s="69" t="s">
-        <v>1884</v>
-      </c>
-      <c r="C43" s="74">
+      <c r="A43" s="66" t="s">
+        <v>1917</v>
+      </c>
+      <c r="B43" s="67" t="s">
+        <v>1883</v>
+      </c>
+      <c r="C43" s="72">
         <v>-18.5</v>
       </c>
-      <c r="D43" s="75" t="s">
+      <c r="D43" s="73" t="s">
+        <v>1941</v>
+      </c>
+      <c r="E43" s="74">
+        <v>-11.4</v>
+      </c>
+      <c r="F43" s="73" t="s">
         <v>1942</v>
       </c>
-      <c r="E43" s="76">
-        <v>-11.4</v>
-      </c>
-      <c r="F43" s="75" t="s">
-        <v>1943</v>
-      </c>
-      <c r="G43" s="77">
+      <c r="G43" s="75">
         <f t="shared" si="1"/>
         <v>7.1</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="68" t="s">
-        <v>1919</v>
-      </c>
-      <c r="B44" s="69" t="s">
-        <v>1880</v>
-      </c>
-      <c r="C44" s="74">
+      <c r="A44" s="66" t="s">
+        <v>1918</v>
+      </c>
+      <c r="B44" s="67" t="s">
+        <v>1879</v>
+      </c>
+      <c r="C44" s="72">
         <v>-17.600000000000001</v>
       </c>
-      <c r="D44" s="75" t="s">
-        <v>1926</v>
-      </c>
-      <c r="E44" s="76">
+      <c r="D44" s="73" t="s">
+        <v>1925</v>
+      </c>
+      <c r="E44" s="74">
         <v>-12</v>
       </c>
-      <c r="F44" s="75" t="s">
-        <v>1943</v>
-      </c>
-      <c r="G44" s="77">
+      <c r="F44" s="73" t="s">
+        <v>1942</v>
+      </c>
+      <c r="G44" s="75">
         <f t="shared" si="1"/>
         <v>5.6000000000000014</v>
       </c>
@@ -33573,16 +33869,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03CA6617-7F10-43DA-BCF3-88A8302EB6F2}">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="28.59765625" style="61" customWidth="1"/>
-    <col min="2" max="2" width="20.59765625" style="62" customWidth="1"/>
-    <col min="3" max="3" width="28.59765625" style="85" customWidth="1"/>
-    <col min="4" max="4" width="24.59765625" style="84" customWidth="1"/>
+    <col min="1" max="1" width="28.59765625" style="59" customWidth="1"/>
+    <col min="2" max="2" width="20.59765625" style="60" customWidth="1"/>
+    <col min="3" max="3" width="28.59765625" style="82" customWidth="1"/>
+    <col min="4" max="4" width="24.59765625" style="81" customWidth="1"/>
     <col min="5" max="5" width="24.59765625" customWidth="1"/>
     <col min="6" max="6" width="13.59765625" customWidth="1"/>
     <col min="7" max="7" width="15.59765625" style="23" customWidth="1"/>
@@ -33590,883 +33886,883 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="1.2">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="106" t="s">
+        <v>1973</v>
+      </c>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+    </row>
+    <row r="2" spans="1:11" s="34" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="121" t="s">
+        <v>1775</v>
+      </c>
+      <c r="B2" s="121"/>
+      <c r="C2" s="91" t="s">
+        <v>1969</v>
+      </c>
+      <c r="D2" s="122" t="s">
         <v>1974</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-    </row>
-    <row r="2" spans="1:11" s="36" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="124" t="s">
-        <v>1775</v>
-      </c>
-      <c r="B2" s="124"/>
-      <c r="C2" s="94" t="s">
+      <c r="E2" s="123"/>
+      <c r="F2" s="124" t="s">
+        <v>1972</v>
+      </c>
+      <c r="G2" s="125"/>
+    </row>
+    <row r="3" spans="1:11" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="64" t="s">
+        <v>1895</v>
+      </c>
+      <c r="B3" s="86" t="s">
+        <v>1869</v>
+      </c>
+      <c r="C3" s="99">
+        <v>811</v>
+      </c>
+      <c r="D3" s="85" t="s">
+        <v>1968</v>
+      </c>
+      <c r="E3" s="92">
+        <v>-27.6</v>
+      </c>
+      <c r="F3" s="83">
+        <v>523</v>
+      </c>
+      <c r="G3" s="84" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="68" t="s">
+        <v>1907</v>
+      </c>
+      <c r="B4" s="87" t="s">
+        <v>1890</v>
+      </c>
+      <c r="C4" s="99">
+        <v>805</v>
+      </c>
+      <c r="D4" s="80" t="s">
+        <v>1966</v>
+      </c>
+      <c r="E4" s="92">
+        <v>-20.9</v>
+      </c>
+      <c r="F4" s="83">
+        <v>728</v>
+      </c>
+      <c r="G4" s="84" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="62" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B5" s="88" t="s">
+        <v>1855</v>
+      </c>
+      <c r="C5" s="98">
+        <v>756</v>
+      </c>
+      <c r="D5" s="85" t="s">
+        <v>1968</v>
+      </c>
+      <c r="E5" s="92">
+        <v>-27.9</v>
+      </c>
+      <c r="F5" s="83">
+        <v>898</v>
+      </c>
+      <c r="G5" s="84" t="s">
         <v>1970</v>
       </c>
-      <c r="D2" s="125" t="s">
-        <v>1975</v>
-      </c>
-      <c r="E2" s="126"/>
-      <c r="F2" s="127" t="s">
-        <v>1973</v>
-      </c>
-      <c r="G2" s="128"/>
-    </row>
-    <row r="3" spans="1:11" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="66" t="s">
+    </row>
+    <row r="6" spans="1:11" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="62" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B6" s="88" t="s">
+        <v>1859</v>
+      </c>
+      <c r="C6" s="98">
+        <v>738</v>
+      </c>
+      <c r="D6" s="80" t="s">
+        <v>1966</v>
+      </c>
+      <c r="E6" s="92">
+        <v>-27.4</v>
+      </c>
+      <c r="F6" s="83">
+        <v>735</v>
+      </c>
+      <c r="G6" s="84" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="62" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B7" s="88" t="s">
+        <v>1856</v>
+      </c>
+      <c r="C7" s="98">
+        <v>730</v>
+      </c>
+      <c r="D7" s="85" t="s">
+        <v>1968</v>
+      </c>
+      <c r="E7" s="92">
+        <v>-26.4</v>
+      </c>
+      <c r="F7" s="83">
+        <v>439</v>
+      </c>
+      <c r="G7" s="84" t="s">
+        <v>1970</v>
+      </c>
+      <c r="K7" s="77"/>
+    </row>
+    <row r="8" spans="1:11" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="62" t="s">
+        <v>1898</v>
+      </c>
+      <c r="B8" s="88" t="s">
+        <v>1888</v>
+      </c>
+      <c r="C8" s="97">
+        <v>676</v>
+      </c>
+      <c r="D8" s="80" t="s">
+        <v>1966</v>
+      </c>
+      <c r="E8" s="92">
+        <v>-30.2</v>
+      </c>
+      <c r="F8" s="83">
+        <v>897</v>
+      </c>
+      <c r="G8" s="84" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="62" t="s">
+        <v>1962</v>
+      </c>
+      <c r="B9" s="88" t="s">
+        <v>1963</v>
+      </c>
+      <c r="C9" s="97">
+        <v>664</v>
+      </c>
+      <c r="D9" s="80" t="s">
+        <v>1967</v>
+      </c>
+      <c r="E9" s="93">
+        <v>-35.5</v>
+      </c>
+      <c r="F9" s="83">
+        <v>570</v>
+      </c>
+      <c r="G9" s="84" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="62" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B10" s="88" t="s">
+        <v>1864</v>
+      </c>
+      <c r="C10" s="97">
+        <v>649</v>
+      </c>
+      <c r="D10" s="80" t="s">
+        <v>1966</v>
+      </c>
+      <c r="E10" s="92">
+        <v>-28.4</v>
+      </c>
+      <c r="F10" s="83">
+        <v>801</v>
+      </c>
+      <c r="G10" s="84" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="62" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B11" s="88" t="s">
+        <v>1858</v>
+      </c>
+      <c r="C11" s="97">
+        <v>627</v>
+      </c>
+      <c r="D11" s="80" t="s">
+        <v>1966</v>
+      </c>
+      <c r="E11" s="92">
+        <v>-31.6</v>
+      </c>
+      <c r="F11" s="83">
+        <v>890</v>
+      </c>
+      <c r="G11" s="84" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="62" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B12" s="88" t="s">
+        <v>1860</v>
+      </c>
+      <c r="C12" s="97">
+        <v>619</v>
+      </c>
+      <c r="D12" s="80" t="s">
+        <v>1966</v>
+      </c>
+      <c r="E12" s="92">
+        <v>-31.9</v>
+      </c>
+      <c r="F12" s="83">
+        <v>648</v>
+      </c>
+      <c r="G12" s="84" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="62" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B13" s="88" t="s">
+        <v>1889</v>
+      </c>
+      <c r="C13" s="97">
+        <v>605</v>
+      </c>
+      <c r="D13" s="80" t="s">
+        <v>1967</v>
+      </c>
+      <c r="E13" s="92">
+        <v>-30.8</v>
+      </c>
+      <c r="F13" s="83">
+        <v>776</v>
+      </c>
+      <c r="G13" s="84" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="64" t="s">
+        <v>1895</v>
+      </c>
+      <c r="B14" s="86" t="s">
+        <v>1870</v>
+      </c>
+      <c r="C14" s="97">
+        <v>601</v>
+      </c>
+      <c r="D14" s="85" t="s">
+        <v>1968</v>
+      </c>
+      <c r="E14" s="92">
+        <v>-31.5</v>
+      </c>
+      <c r="F14" s="83">
+        <v>929</v>
+      </c>
+      <c r="G14" s="84" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="66" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B15" s="89" t="s">
+        <v>1872</v>
+      </c>
+      <c r="C15" s="96">
+        <v>590</v>
+      </c>
+      <c r="D15" s="80" t="s">
+        <v>1966</v>
+      </c>
+      <c r="E15" s="92">
+        <v>-30.2</v>
+      </c>
+      <c r="F15" s="83">
+        <v>488</v>
+      </c>
+      <c r="G15" s="84" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="66" t="s">
+        <v>1906</v>
+      </c>
+      <c r="B16" s="89" t="s">
+        <v>1885</v>
+      </c>
+      <c r="C16" s="96">
+        <v>587</v>
+      </c>
+      <c r="D16" s="80" t="s">
+        <v>1966</v>
+      </c>
+      <c r="E16" s="92">
+        <v>-25.6</v>
+      </c>
+      <c r="F16" s="83">
+        <v>681</v>
+      </c>
+      <c r="G16" s="84" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="64" t="s">
+        <v>1895</v>
+      </c>
+      <c r="B17" s="86" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C17" s="96">
+        <v>586</v>
+      </c>
+      <c r="D17" s="85" t="s">
+        <v>1968</v>
+      </c>
+      <c r="E17" s="92">
+        <v>-31.4</v>
+      </c>
+      <c r="F17" s="83">
+        <v>552</v>
+      </c>
+      <c r="G17" s="84" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="66" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B18" s="89" t="s">
+        <v>1884</v>
+      </c>
+      <c r="C18" s="96">
+        <v>584</v>
+      </c>
+      <c r="D18" s="80" t="s">
+        <v>1966</v>
+      </c>
+      <c r="E18" s="92">
+        <v>-26.8</v>
+      </c>
+      <c r="F18" s="83">
+        <v>678</v>
+      </c>
+      <c r="G18" s="84" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="62" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B19" s="88" t="s">
+        <v>1863</v>
+      </c>
+      <c r="C19" s="96">
+        <v>580</v>
+      </c>
+      <c r="D19" s="80" t="s">
+        <v>1966</v>
+      </c>
+      <c r="E19" s="92">
+        <v>-30.4</v>
+      </c>
+      <c r="F19" s="83">
+        <v>650</v>
+      </c>
+      <c r="G19" s="84" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="62" t="s">
+        <v>1898</v>
+      </c>
+      <c r="B20" s="88" t="s">
+        <v>1857</v>
+      </c>
+      <c r="C20" s="96">
+        <v>574</v>
+      </c>
+      <c r="D20" s="80" t="s">
+        <v>1966</v>
+      </c>
+      <c r="E20" s="92">
+        <v>-28.8</v>
+      </c>
+      <c r="F20" s="83">
+        <v>895</v>
+      </c>
+      <c r="G20" s="84" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="66" t="s">
+        <v>1905</v>
+      </c>
+      <c r="B21" s="89" t="s">
+        <v>1877</v>
+      </c>
+      <c r="C21" s="96">
+        <v>574</v>
+      </c>
+      <c r="D21" s="80" t="s">
+        <v>1966</v>
+      </c>
+      <c r="E21" s="92">
+        <v>-26.3</v>
+      </c>
+      <c r="F21" s="83">
+        <v>556</v>
+      </c>
+      <c r="G21" s="84" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="62" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B22" s="88" t="s">
+        <v>1861</v>
+      </c>
+      <c r="C22" s="96">
+        <v>541</v>
+      </c>
+      <c r="D22" s="80" t="s">
+        <v>1966</v>
+      </c>
+      <c r="E22" s="92">
+        <v>-33.1</v>
+      </c>
+      <c r="F22" s="83">
+        <v>609</v>
+      </c>
+      <c r="G22" s="84" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="66" t="s">
+        <v>1911</v>
+      </c>
+      <c r="B23" s="89" t="s">
+        <v>1875</v>
+      </c>
+      <c r="C23" s="96">
+        <v>537</v>
+      </c>
+      <c r="D23" s="80" t="s">
+        <v>1966</v>
+      </c>
+      <c r="E23" s="92">
+        <v>-16</v>
+      </c>
+      <c r="F23" s="83">
+        <v>672</v>
+      </c>
+      <c r="G23" s="84" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="66" t="s">
+        <v>1913</v>
+      </c>
+      <c r="B24" s="89" t="s">
+        <v>1882</v>
+      </c>
+      <c r="C24" s="96">
+        <v>521</v>
+      </c>
+      <c r="D24" s="80" t="s">
+        <v>1966</v>
+      </c>
+      <c r="E24" s="92">
+        <v>-15.9</v>
+      </c>
+      <c r="F24" s="83">
+        <v>680</v>
+      </c>
+      <c r="G24" s="84" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="70" t="s">
+        <v>1914</v>
+      </c>
+      <c r="B25" s="90" t="s">
+        <v>1892</v>
+      </c>
+      <c r="C25" s="96">
+        <v>519</v>
+      </c>
+      <c r="D25" s="85" t="s">
+        <v>1968</v>
+      </c>
+      <c r="E25" s="92">
+        <v>-17</v>
+      </c>
+      <c r="F25" s="83">
+        <v>888</v>
+      </c>
+      <c r="G25" s="84" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="66" t="s">
+        <v>1917</v>
+      </c>
+      <c r="B26" s="89" t="s">
+        <v>1883</v>
+      </c>
+      <c r="C26" s="96">
+        <v>512</v>
+      </c>
+      <c r="D26" s="80" t="s">
+        <v>1966</v>
+      </c>
+      <c r="E26" s="93">
+        <v>-11.5</v>
+      </c>
+      <c r="F26" s="83">
+        <v>681</v>
+      </c>
+      <c r="G26" s="84" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="64" t="s">
+        <v>1894</v>
+      </c>
+      <c r="B27" s="86" t="s">
+        <v>1866</v>
+      </c>
+      <c r="C27" s="96">
+        <v>503</v>
+      </c>
+      <c r="D27" s="85" t="s">
+        <v>1968</v>
+      </c>
+      <c r="E27" s="92">
+        <v>-32.4</v>
+      </c>
+      <c r="F27" s="83">
+        <v>927</v>
+      </c>
+      <c r="G27" s="84" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="66" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B28" s="89" t="s">
+        <v>1873</v>
+      </c>
+      <c r="C28" s="96">
+        <v>502</v>
+      </c>
+      <c r="D28" s="80" t="s">
+        <v>1966</v>
+      </c>
+      <c r="E28" s="92">
+        <v>-29.4</v>
+      </c>
+      <c r="F28" s="83">
+        <v>641</v>
+      </c>
+      <c r="G28" s="84" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="62" t="s">
+        <v>1908</v>
+      </c>
+      <c r="B29" s="88" t="s">
+        <v>1862</v>
+      </c>
+      <c r="C29" s="95">
+        <v>498</v>
+      </c>
+      <c r="D29" s="80" t="s">
+        <v>1966</v>
+      </c>
+      <c r="E29" s="92">
+        <v>-26.1</v>
+      </c>
+      <c r="F29" s="83">
+        <v>742</v>
+      </c>
+      <c r="G29" s="84" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="66" t="s">
+        <v>1910</v>
+      </c>
+      <c r="B30" s="89" t="s">
+        <v>1880</v>
+      </c>
+      <c r="C30" s="95">
+        <v>498</v>
+      </c>
+      <c r="D30" s="80" t="s">
+        <v>1966</v>
+      </c>
+      <c r="E30" s="92">
+        <v>-19.100000000000001</v>
+      </c>
+      <c r="F30" s="83">
+        <v>679</v>
+      </c>
+      <c r="G30" s="84" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="66" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B31" s="89" t="s">
+        <v>1874</v>
+      </c>
+      <c r="C31" s="95">
+        <v>493</v>
+      </c>
+      <c r="D31" s="80" t="s">
+        <v>1966</v>
+      </c>
+      <c r="E31" s="92">
+        <v>-26.1</v>
+      </c>
+      <c r="F31" s="83">
+        <v>680</v>
+      </c>
+      <c r="G31" s="84" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="64" t="s">
+        <v>1909</v>
+      </c>
+      <c r="B32" s="86" t="s">
+        <v>1871</v>
+      </c>
+      <c r="C32" s="95">
+        <v>469</v>
+      </c>
+      <c r="D32" s="80" t="s">
+        <v>1966</v>
+      </c>
+      <c r="E32" s="92">
+        <v>-21.7</v>
+      </c>
+      <c r="F32" s="83">
+        <v>737</v>
+      </c>
+      <c r="G32" s="84" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="66" t="s">
+        <v>1916</v>
+      </c>
+      <c r="B33" s="89" t="s">
+        <v>1876</v>
+      </c>
+      <c r="C33" s="95">
+        <v>460</v>
+      </c>
+      <c r="D33" s="80" t="s">
+        <v>1966</v>
+      </c>
+      <c r="E33" s="92">
+        <v>-13.7</v>
+      </c>
+      <c r="F33" s="83">
+        <v>678</v>
+      </c>
+      <c r="G33" s="84" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="66" t="s">
+        <v>1918</v>
+      </c>
+      <c r="B34" s="89" t="s">
+        <v>1879</v>
+      </c>
+      <c r="C34" s="95">
+        <v>449</v>
+      </c>
+      <c r="D34" s="80" t="s">
+        <v>1966</v>
+      </c>
+      <c r="E34" s="92">
+        <v>-11.7</v>
+      </c>
+      <c r="F34" s="83">
+        <v>565</v>
+      </c>
+      <c r="G34" s="84" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="66" t="s">
+        <v>1947</v>
+      </c>
+      <c r="B35" s="89" t="s">
+        <v>1886</v>
+      </c>
+      <c r="C35" s="95">
+        <v>437</v>
+      </c>
+      <c r="D35" s="80" t="s">
+        <v>1966</v>
+      </c>
+      <c r="E35" s="92">
+        <v>-17</v>
+      </c>
+      <c r="F35" s="83">
+        <v>521</v>
+      </c>
+      <c r="G35" s="84" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="62" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B36" s="88" t="s">
+        <v>1865</v>
+      </c>
+      <c r="C36" s="95">
+        <v>423</v>
+      </c>
+      <c r="D36" s="80" t="s">
+        <v>1966</v>
+      </c>
+      <c r="E36" s="92">
+        <v>-32.4</v>
+      </c>
+      <c r="F36" s="83">
+        <v>634</v>
+      </c>
+      <c r="G36" s="84" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="64" t="s">
         <v>1896</v>
       </c>
-      <c r="B3" s="89" t="s">
-        <v>1870</v>
-      </c>
-      <c r="C3" s="102">
-        <v>811</v>
-      </c>
-      <c r="D3" s="88" t="s">
-        <v>1969</v>
-      </c>
-      <c r="E3" s="95">
-        <v>-27.6</v>
-      </c>
-      <c r="F3" s="86">
-        <v>523</v>
-      </c>
-      <c r="G3" s="87" t="s">
-        <v>1972</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="70" t="s">
-        <v>1908</v>
-      </c>
-      <c r="B4" s="90" t="s">
+      <c r="B37" s="86" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C37" s="95">
+        <v>400</v>
+      </c>
+      <c r="D37" s="80" t="s">
+        <v>1966</v>
+      </c>
+      <c r="E37" s="92">
+        <v>-32.299999999999997</v>
+      </c>
+      <c r="F37" s="83">
+        <v>710</v>
+      </c>
+      <c r="G37" s="84" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="66" t="s">
+        <v>1915</v>
+      </c>
+      <c r="B38" s="89" t="s">
+        <v>1878</v>
+      </c>
+      <c r="C38" s="94">
+        <v>368</v>
+      </c>
+      <c r="D38" s="80" t="s">
+        <v>1966</v>
+      </c>
+      <c r="E38" s="92">
+        <v>-12.4</v>
+      </c>
+      <c r="F38" s="83">
+        <v>650</v>
+      </c>
+      <c r="G38" s="84" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="66" t="s">
+        <v>1947</v>
+      </c>
+      <c r="B39" s="89" t="s">
         <v>1891</v>
       </c>
-      <c r="C4" s="102">
-        <v>805</v>
-      </c>
-      <c r="D4" s="83" t="s">
-        <v>1967</v>
-      </c>
-      <c r="E4" s="95">
-        <v>-20.9</v>
-      </c>
-      <c r="F4" s="86">
-        <v>728</v>
-      </c>
-      <c r="G4" s="87" t="s">
-        <v>1972</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="64" t="s">
-        <v>1903</v>
-      </c>
-      <c r="B5" s="91" t="s">
-        <v>1856</v>
-      </c>
-      <c r="C5" s="101">
-        <v>756</v>
-      </c>
-      <c r="D5" s="88" t="s">
-        <v>1969</v>
-      </c>
-      <c r="E5" s="95">
-        <v>-27.9</v>
-      </c>
-      <c r="F5" s="86">
-        <v>898</v>
-      </c>
-      <c r="G5" s="87" t="s">
-        <v>1971</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="64" t="s">
-        <v>1900</v>
-      </c>
-      <c r="B6" s="91" t="s">
-        <v>1860</v>
-      </c>
-      <c r="C6" s="101">
-        <v>738</v>
-      </c>
-      <c r="D6" s="83" t="s">
-        <v>1967</v>
-      </c>
-      <c r="E6" s="95">
-        <v>-27.4</v>
-      </c>
-      <c r="F6" s="86">
-        <v>735</v>
-      </c>
-      <c r="G6" s="87" t="s">
-        <v>1971</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="64" t="s">
-        <v>1904</v>
-      </c>
-      <c r="B7" s="91" t="s">
-        <v>1857</v>
-      </c>
-      <c r="C7" s="101">
-        <v>730</v>
-      </c>
-      <c r="D7" s="88" t="s">
-        <v>1969</v>
-      </c>
-      <c r="E7" s="95">
-        <v>-26.4</v>
-      </c>
-      <c r="F7" s="86">
-        <v>439</v>
-      </c>
-      <c r="G7" s="87" t="s">
-        <v>1971</v>
-      </c>
-      <c r="K7" s="79"/>
-    </row>
-    <row r="8" spans="1:11" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="64" t="s">
-        <v>1899</v>
-      </c>
-      <c r="B8" s="91" t="s">
-        <v>1889</v>
-      </c>
-      <c r="C8" s="100">
-        <v>676</v>
-      </c>
-      <c r="D8" s="83" t="s">
-        <v>1967</v>
-      </c>
-      <c r="E8" s="95">
-        <v>-30.2</v>
-      </c>
-      <c r="F8" s="86">
-        <v>897</v>
-      </c>
-      <c r="G8" s="87" t="s">
-        <v>1971</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="64" t="s">
-        <v>1963</v>
-      </c>
-      <c r="B9" s="91" t="s">
-        <v>1964</v>
-      </c>
-      <c r="C9" s="100">
-        <v>664</v>
-      </c>
-      <c r="D9" s="83" t="s">
-        <v>1968</v>
-      </c>
-      <c r="E9" s="96">
-        <v>-35.5</v>
-      </c>
-      <c r="F9" s="86">
-        <v>570</v>
-      </c>
-      <c r="G9" s="87" t="s">
-        <v>1971</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="64" t="s">
-        <v>1901</v>
-      </c>
-      <c r="B10" s="91" t="s">
-        <v>1865</v>
-      </c>
-      <c r="C10" s="100">
-        <v>649</v>
-      </c>
-      <c r="D10" s="83" t="s">
-        <v>1967</v>
-      </c>
-      <c r="E10" s="95">
-        <v>-28.4</v>
-      </c>
-      <c r="F10" s="86">
-        <v>801</v>
-      </c>
-      <c r="G10" s="87" t="s">
-        <v>1971</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="64" t="s">
-        <v>1898</v>
-      </c>
-      <c r="B11" s="91" t="s">
-        <v>1859</v>
-      </c>
-      <c r="C11" s="100">
-        <v>627</v>
-      </c>
-      <c r="D11" s="83" t="s">
-        <v>1967</v>
-      </c>
-      <c r="E11" s="95">
-        <v>-31.6</v>
-      </c>
-      <c r="F11" s="86">
-        <v>890</v>
-      </c>
-      <c r="G11" s="87" t="s">
-        <v>1971</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="64" t="s">
-        <v>1900</v>
-      </c>
-      <c r="B12" s="91" t="s">
-        <v>1861</v>
-      </c>
-      <c r="C12" s="100">
-        <v>619</v>
-      </c>
-      <c r="D12" s="83" t="s">
-        <v>1967</v>
-      </c>
-      <c r="E12" s="95">
-        <v>-31.9</v>
-      </c>
-      <c r="F12" s="86">
-        <v>648</v>
-      </c>
-      <c r="G12" s="87" t="s">
-        <v>1971</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="64" t="s">
-        <v>1894</v>
-      </c>
-      <c r="B13" s="91" t="s">
-        <v>1890</v>
-      </c>
-      <c r="C13" s="100">
-        <v>605</v>
-      </c>
-      <c r="D13" s="83" t="s">
-        <v>1968</v>
-      </c>
-      <c r="E13" s="95">
-        <v>-30.8</v>
-      </c>
-      <c r="F13" s="86">
-        <v>776</v>
-      </c>
-      <c r="G13" s="87" t="s">
-        <v>1971</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="66" t="s">
-        <v>1896</v>
-      </c>
-      <c r="B14" s="89" t="s">
-        <v>1871</v>
-      </c>
-      <c r="C14" s="100">
-        <v>601</v>
-      </c>
-      <c r="D14" s="88" t="s">
-        <v>1969</v>
-      </c>
-      <c r="E14" s="95">
-        <v>-31.5</v>
-      </c>
-      <c r="F14" s="86">
-        <v>929</v>
-      </c>
-      <c r="G14" s="87" t="s">
-        <v>1971</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="68" t="s">
-        <v>1905</v>
-      </c>
-      <c r="B15" s="92" t="s">
-        <v>1873</v>
-      </c>
-      <c r="C15" s="99">
-        <v>590</v>
-      </c>
-      <c r="D15" s="83" t="s">
-        <v>1967</v>
-      </c>
-      <c r="E15" s="95">
-        <v>-30.2</v>
-      </c>
-      <c r="F15" s="86">
-        <v>488</v>
-      </c>
-      <c r="G15" s="87" t="s">
-        <v>1971</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="68" t="s">
-        <v>1907</v>
-      </c>
-      <c r="B16" s="92" t="s">
-        <v>1886</v>
-      </c>
-      <c r="C16" s="99">
-        <v>587</v>
-      </c>
-      <c r="D16" s="83" t="s">
-        <v>1967</v>
-      </c>
-      <c r="E16" s="95">
-        <v>-25.6</v>
-      </c>
-      <c r="F16" s="86">
-        <v>681</v>
-      </c>
-      <c r="G16" s="87" t="s">
-        <v>1971</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="66" t="s">
-        <v>1896</v>
-      </c>
-      <c r="B17" s="89" t="s">
-        <v>1869</v>
-      </c>
-      <c r="C17" s="99">
-        <v>586</v>
-      </c>
-      <c r="D17" s="88" t="s">
-        <v>1969</v>
-      </c>
-      <c r="E17" s="95">
-        <v>-31.4</v>
-      </c>
-      <c r="F17" s="86">
-        <v>552</v>
-      </c>
-      <c r="G17" s="87" t="s">
-        <v>1971</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="68" t="s">
-        <v>1905</v>
-      </c>
-      <c r="B18" s="92" t="s">
-        <v>1885</v>
-      </c>
-      <c r="C18" s="99">
-        <v>584</v>
-      </c>
-      <c r="D18" s="83" t="s">
-        <v>1967</v>
-      </c>
-      <c r="E18" s="95">
-        <v>-26.8</v>
-      </c>
-      <c r="F18" s="86">
-        <v>678</v>
-      </c>
-      <c r="G18" s="87" t="s">
-        <v>1971</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="64" t="s">
-        <v>1894</v>
-      </c>
-      <c r="B19" s="91" t="s">
-        <v>1864</v>
-      </c>
-      <c r="C19" s="99">
-        <v>580</v>
-      </c>
-      <c r="D19" s="83" t="s">
-        <v>1967</v>
-      </c>
-      <c r="E19" s="95">
-        <v>-30.4</v>
-      </c>
-      <c r="F19" s="86">
-        <v>650</v>
-      </c>
-      <c r="G19" s="87" t="s">
-        <v>1971</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="64" t="s">
-        <v>1899</v>
-      </c>
-      <c r="B20" s="91" t="s">
-        <v>1858</v>
-      </c>
-      <c r="C20" s="99">
-        <v>574</v>
-      </c>
-      <c r="D20" s="83" t="s">
-        <v>1967</v>
-      </c>
-      <c r="E20" s="95">
-        <v>-28.8</v>
-      </c>
-      <c r="F20" s="86">
-        <v>895</v>
-      </c>
-      <c r="G20" s="87" t="s">
-        <v>1971</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="68" t="s">
-        <v>1906</v>
-      </c>
-      <c r="B21" s="92" t="s">
-        <v>1878</v>
-      </c>
-      <c r="C21" s="99">
-        <v>574</v>
-      </c>
-      <c r="D21" s="83" t="s">
-        <v>1967</v>
-      </c>
-      <c r="E21" s="95">
-        <v>-26.3</v>
-      </c>
-      <c r="F21" s="86">
-        <v>556</v>
-      </c>
-      <c r="G21" s="87" t="s">
-        <v>1971</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="64" t="s">
-        <v>1900</v>
-      </c>
-      <c r="B22" s="91" t="s">
-        <v>1862</v>
-      </c>
-      <c r="C22" s="99">
-        <v>541</v>
-      </c>
-      <c r="D22" s="83" t="s">
-        <v>1967</v>
-      </c>
-      <c r="E22" s="95">
-        <v>-33.1</v>
-      </c>
-      <c r="F22" s="86">
-        <v>609</v>
-      </c>
-      <c r="G22" s="87" t="s">
-        <v>1971</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="68" t="s">
-        <v>1912</v>
-      </c>
-      <c r="B23" s="92" t="s">
-        <v>1876</v>
-      </c>
-      <c r="C23" s="99">
-        <v>537</v>
-      </c>
-      <c r="D23" s="83" t="s">
-        <v>1967</v>
-      </c>
-      <c r="E23" s="95">
-        <v>-16</v>
-      </c>
-      <c r="F23" s="86">
-        <v>672</v>
-      </c>
-      <c r="G23" s="87" t="s">
-        <v>1971</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="68" t="s">
-        <v>1914</v>
-      </c>
-      <c r="B24" s="92" t="s">
-        <v>1883</v>
-      </c>
-      <c r="C24" s="99">
-        <v>521</v>
-      </c>
-      <c r="D24" s="83" t="s">
-        <v>1967</v>
-      </c>
-      <c r="E24" s="95">
-        <v>-15.9</v>
-      </c>
-      <c r="F24" s="86">
-        <v>680</v>
-      </c>
-      <c r="G24" s="87" t="s">
-        <v>1971</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="72" t="s">
-        <v>1915</v>
-      </c>
-      <c r="B25" s="93" t="s">
-        <v>1893</v>
-      </c>
-      <c r="C25" s="99">
-        <v>519</v>
-      </c>
-      <c r="D25" s="88" t="s">
-        <v>1969</v>
-      </c>
-      <c r="E25" s="95">
-        <v>-17</v>
-      </c>
-      <c r="F25" s="86">
-        <v>888</v>
-      </c>
-      <c r="G25" s="87" t="s">
-        <v>1971</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="68" t="s">
-        <v>1918</v>
-      </c>
-      <c r="B26" s="92" t="s">
-        <v>1884</v>
-      </c>
-      <c r="C26" s="99">
-        <v>512</v>
-      </c>
-      <c r="D26" s="83" t="s">
-        <v>1967</v>
-      </c>
-      <c r="E26" s="96">
-        <v>-11.5</v>
-      </c>
-      <c r="F26" s="86">
-        <v>681</v>
-      </c>
-      <c r="G26" s="87" t="s">
-        <v>1971</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="66" t="s">
-        <v>1895</v>
-      </c>
-      <c r="B27" s="89" t="s">
-        <v>1867</v>
-      </c>
-      <c r="C27" s="99">
-        <v>503</v>
-      </c>
-      <c r="D27" s="88" t="s">
-        <v>1969</v>
-      </c>
-      <c r="E27" s="95">
-        <v>-32.4</v>
-      </c>
-      <c r="F27" s="86">
-        <v>927</v>
-      </c>
-      <c r="G27" s="87" t="s">
-        <v>1971</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="68" t="s">
-        <v>1902</v>
-      </c>
-      <c r="B28" s="92" t="s">
-        <v>1874</v>
-      </c>
-      <c r="C28" s="99">
-        <v>502</v>
-      </c>
-      <c r="D28" s="83" t="s">
-        <v>1967</v>
-      </c>
-      <c r="E28" s="95">
-        <v>-29.4</v>
-      </c>
-      <c r="F28" s="86">
-        <v>641</v>
-      </c>
-      <c r="G28" s="87" t="s">
-        <v>1971</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="64" t="s">
-        <v>1909</v>
-      </c>
-      <c r="B29" s="91" t="s">
-        <v>1863</v>
-      </c>
-      <c r="C29" s="98">
-        <v>498</v>
-      </c>
-      <c r="D29" s="83" t="s">
-        <v>1967</v>
-      </c>
-      <c r="E29" s="95">
-        <v>-26.1</v>
-      </c>
-      <c r="F29" s="86">
-        <v>742</v>
-      </c>
-      <c r="G29" s="87" t="s">
-        <v>1971</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="68" t="s">
-        <v>1911</v>
-      </c>
-      <c r="B30" s="92" t="s">
-        <v>1881</v>
-      </c>
-      <c r="C30" s="98">
-        <v>498</v>
-      </c>
-      <c r="D30" s="83" t="s">
-        <v>1967</v>
-      </c>
-      <c r="E30" s="95">
-        <v>-19.100000000000001</v>
-      </c>
-      <c r="F30" s="86">
-        <v>679</v>
-      </c>
-      <c r="G30" s="87" t="s">
-        <v>1971</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="68" t="s">
-        <v>1902</v>
-      </c>
-      <c r="B31" s="92" t="s">
-        <v>1875</v>
-      </c>
-      <c r="C31" s="98">
-        <v>493</v>
-      </c>
-      <c r="D31" s="83" t="s">
-        <v>1967</v>
-      </c>
-      <c r="E31" s="95">
-        <v>-26.1</v>
-      </c>
-      <c r="F31" s="86">
-        <v>680</v>
-      </c>
-      <c r="G31" s="87" t="s">
-        <v>1971</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="66" t="s">
-        <v>1910</v>
-      </c>
-      <c r="B32" s="89" t="s">
-        <v>1872</v>
-      </c>
-      <c r="C32" s="98">
-        <v>469</v>
-      </c>
-      <c r="D32" s="83" t="s">
-        <v>1967</v>
-      </c>
-      <c r="E32" s="95">
-        <v>-21.7</v>
-      </c>
-      <c r="F32" s="86">
-        <v>737</v>
-      </c>
-      <c r="G32" s="87" t="s">
-        <v>1971</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="68" t="s">
-        <v>1917</v>
-      </c>
-      <c r="B33" s="92" t="s">
-        <v>1877</v>
-      </c>
-      <c r="C33" s="98">
-        <v>460</v>
-      </c>
-      <c r="D33" s="83" t="s">
-        <v>1967</v>
-      </c>
-      <c r="E33" s="95">
-        <v>-13.7</v>
-      </c>
-      <c r="F33" s="86">
-        <v>678</v>
-      </c>
-      <c r="G33" s="87" t="s">
-        <v>1971</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="68" t="s">
-        <v>1919</v>
-      </c>
-      <c r="B34" s="92" t="s">
-        <v>1880</v>
-      </c>
-      <c r="C34" s="98">
-        <v>449</v>
-      </c>
-      <c r="D34" s="83" t="s">
-        <v>1967</v>
-      </c>
-      <c r="E34" s="95">
-        <v>-11.7</v>
-      </c>
-      <c r="F34" s="86">
-        <v>565</v>
-      </c>
-      <c r="G34" s="87" t="s">
-        <v>1971</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="68" t="s">
-        <v>1948</v>
-      </c>
-      <c r="B35" s="92" t="s">
-        <v>1887</v>
-      </c>
-      <c r="C35" s="98">
-        <v>437</v>
-      </c>
-      <c r="D35" s="83" t="s">
-        <v>1967</v>
-      </c>
-      <c r="E35" s="95">
-        <v>-17</v>
-      </c>
-      <c r="F35" s="86">
-        <v>521</v>
-      </c>
-      <c r="G35" s="87" t="s">
-        <v>1971</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="64" t="s">
-        <v>1894</v>
-      </c>
-      <c r="B36" s="91" t="s">
-        <v>1866</v>
-      </c>
-      <c r="C36" s="98">
-        <v>423</v>
-      </c>
-      <c r="D36" s="83" t="s">
-        <v>1967</v>
-      </c>
-      <c r="E36" s="95">
-        <v>-32.4</v>
-      </c>
-      <c r="F36" s="86">
-        <v>634</v>
-      </c>
-      <c r="G36" s="87" t="s">
-        <v>1971</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="66" t="s">
-        <v>1897</v>
-      </c>
-      <c r="B37" s="89" t="s">
-        <v>1868</v>
-      </c>
-      <c r="C37" s="98">
-        <v>400</v>
-      </c>
-      <c r="D37" s="83" t="s">
-        <v>1967</v>
-      </c>
-      <c r="E37" s="95">
-        <v>-32.299999999999997</v>
-      </c>
-      <c r="F37" s="86">
-        <v>710</v>
-      </c>
-      <c r="G37" s="87" t="s">
-        <v>1971</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="68" t="s">
-        <v>1916</v>
-      </c>
-      <c r="B38" s="92" t="s">
-        <v>1879</v>
-      </c>
-      <c r="C38" s="97">
-        <v>368</v>
-      </c>
-      <c r="D38" s="83" t="s">
-        <v>1967</v>
-      </c>
-      <c r="E38" s="95">
-        <v>-12.4</v>
-      </c>
-      <c r="F38" s="86">
-        <v>650</v>
-      </c>
-      <c r="G38" s="87" t="s">
-        <v>1971</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="68" t="s">
-        <v>1948</v>
-      </c>
-      <c r="B39" s="92" t="s">
-        <v>1892</v>
-      </c>
-      <c r="C39" s="97">
+      <c r="C39" s="94">
         <v>323</v>
       </c>
-      <c r="D39" s="83" t="s">
-        <v>1967</v>
-      </c>
-      <c r="E39" s="95">
+      <c r="D39" s="80" t="s">
+        <v>1966</v>
+      </c>
+      <c r="E39" s="92">
         <v>-16.399999999999999</v>
       </c>
-      <c r="F39" s="86">
+      <c r="F39" s="83">
         <v>562</v>
       </c>
-      <c r="G39" s="87" t="s">
-        <v>1971</v>
+      <c r="G39" s="84" t="s">
+        <v>1970</v>
       </c>
     </row>
   </sheetData>

--- a/气象/多站统计.xlsx
+++ b/气象/多站统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43EDBC97-EF47-4482-8538-880799437BE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46AFE1BA-5089-45E1-A92C-EFCBF1EA44F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{237916A9-0E72-4A8C-88B8-0F539FC0B012}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2295" uniqueCount="1979">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2299" uniqueCount="1979">
   <si>
     <t>undefined</t>
   </si>
@@ -6455,46 +6455,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="32"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>蒙古近10年低温统计(部分)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="36"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(不一定包含当年蒙古最低气温，也不一定是该站点当年甚至当日最低温)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>河北 张家口市</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6629,6 +6589,10 @@
     <t>(-50) ~ (-52)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>蒙古低温收集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -6641,7 +6605,7 @@
     <numFmt numFmtId="179" formatCode="0_ "/>
     <numFmt numFmtId="180" formatCode="#\ ???/???"/>
   </numFmts>
-  <fonts count="61" x14ac:knownFonts="1">
+  <fonts count="60" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6756,15 +6720,6 @@
       <b/>
       <sz val="32"/>
       <color rgb="FF00B0F0"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="0" tint="-0.499984740745262"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -7308,7 +7263,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -7492,13 +7447,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7586,9 +7552,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -7598,58 +7561,55 @@
     <xf numFmtId="14" fontId="12" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="19" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="18" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="19" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="18" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="19" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="18" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="19" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="18" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="20" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="19" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="21" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="20" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="22" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="21" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="22" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="21" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="22" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="21" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="22" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="21" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="23" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="24" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="26" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="22" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="23" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="25" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="2" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7661,64 +7621,64 @@
     <xf numFmtId="178" fontId="2" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="22" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="21" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="25" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="24" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="44" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="43" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="8" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7727,19 +7687,19 @@
     <xf numFmtId="178" fontId="8" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="178" fontId="46" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="45" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="47" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="48" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="49" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="49" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="48" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -7748,14 +7708,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="50" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="49" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="50" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="49" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="51" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="50" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -7763,41 +7726,47 @@
     <xf numFmtId="0" fontId="53" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="17" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="16" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="178" fontId="59" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="58" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="179" fontId="25" fillId="16" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="24" fillId="16" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="6"/>
     </xf>
-    <xf numFmtId="179" fontId="25" fillId="17" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="24" fillId="17" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="6"/>
     </xf>
-    <xf numFmtId="179" fontId="25" fillId="18" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="24" fillId="18" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="6"/>
     </xf>
-    <xf numFmtId="179" fontId="25" fillId="19" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="24" fillId="19" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="6"/>
     </xf>
-    <xf numFmtId="179" fontId="25" fillId="20" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="24" fillId="20" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="6"/>
     </xf>
-    <xf numFmtId="179" fontId="25" fillId="21" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="24" fillId="21" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7808,58 +7777,34 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7871,19 +7816,49 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="17" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8247,15 +8222,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="100"/>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="102"/>
+      <c r="A1" s="101"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="103"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="15" t="s">
@@ -31836,10 +31811,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94ABDC8A-163A-480F-B2C9-0CD0B852C7D7}">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" x14ac:dyDescent="0.4"/>
@@ -31852,592 +31827,628 @@
     <col min="7" max="16384" width="9.06640625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="58.05" customHeight="1" thickBot="1" x14ac:dyDescent="1.2">
-      <c r="A1" s="106" t="s">
-        <v>1953</v>
-      </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-    </row>
-    <row r="2" spans="1:6" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="29" t="s">
+    <row r="1" spans="1:6" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="119" t="s">
+        <v>1978</v>
+      </c>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="121"/>
+    </row>
+    <row r="2" spans="1:6" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="55" t="s">
         <v>1783</v>
       </c>
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="122" t="s">
         <v>1775</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="123"/>
+      <c r="D2" s="55" t="s">
         <v>1786</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="55" t="s">
         <v>1787</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="103">
+      <c r="A3" s="131">
+        <v>1966</v>
+      </c>
+      <c r="B3" s="99" t="s">
+        <v>1948</v>
+      </c>
+      <c r="C3" s="98" t="s">
+        <v>1949</v>
+      </c>
+      <c r="D3" s="100">
+        <v>-55.6</v>
+      </c>
+      <c r="E3" s="30">
+        <v>24467</v>
+      </c>
+      <c r="F3" s="24"/>
+    </row>
+    <row r="4" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="131">
+        <v>1976</v>
+      </c>
+      <c r="B4" s="99" t="s">
+        <v>1948</v>
+      </c>
+      <c r="C4" s="98" t="s">
+        <v>1949</v>
+      </c>
+      <c r="D4" s="100">
+        <v>-55.3</v>
+      </c>
+      <c r="E4" s="30">
+        <v>28125</v>
+      </c>
+      <c r="F4" s="24"/>
+    </row>
+    <row r="5" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="124">
         <v>2016</v>
       </c>
-      <c r="B3" s="127" t="s">
+      <c r="B5" s="99" t="s">
+        <v>1974</v>
+      </c>
+      <c r="C5" s="98" t="s">
+        <v>1869</v>
+      </c>
+      <c r="D5" s="100">
+        <v>-50</v>
+      </c>
+      <c r="E5" s="30">
+        <v>42394</v>
+      </c>
+      <c r="F5" s="24"/>
+    </row>
+    <row r="6" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="125"/>
+      <c r="B6" s="99" t="s">
+        <v>1974</v>
+      </c>
+      <c r="C6" s="98" t="s">
+        <v>1869</v>
+      </c>
+      <c r="D6" s="100">
+        <v>-51.9</v>
+      </c>
+      <c r="E6" s="30">
+        <v>42398</v>
+      </c>
+      <c r="F6" s="24"/>
+    </row>
+    <row r="7" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="125"/>
+      <c r="B7" s="99" t="s">
+        <v>1974</v>
+      </c>
+      <c r="C7" s="98" t="s">
+        <v>1785</v>
+      </c>
+      <c r="D7" s="100">
+        <v>-55.3</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>1950</v>
+      </c>
+      <c r="F7" s="24"/>
+    </row>
+    <row r="8" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="125"/>
+      <c r="B8" s="99" t="s">
+        <v>1974</v>
+      </c>
+      <c r="C8" s="98" t="s">
+        <v>1869</v>
+      </c>
+      <c r="D8" s="100">
+        <v>-52.8</v>
+      </c>
+      <c r="E8" s="30">
+        <v>42399</v>
+      </c>
+      <c r="F8" s="24"/>
+    </row>
+    <row r="9" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="125"/>
+      <c r="B9" s="99" t="s">
+        <v>1974</v>
+      </c>
+      <c r="C9" s="98" t="s">
+        <v>1869</v>
+      </c>
+      <c r="D9" s="100">
+        <v>-51.5</v>
+      </c>
+      <c r="E9" s="30">
+        <v>42400</v>
+      </c>
+      <c r="F9" s="24"/>
+    </row>
+    <row r="10" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="125"/>
+      <c r="B10" s="99" t="s">
+        <v>1974</v>
+      </c>
+      <c r="C10" s="98" t="s">
+        <v>1869</v>
+      </c>
+      <c r="D10" s="100">
+        <v>-50</v>
+      </c>
+      <c r="E10" s="30">
+        <v>42404</v>
+      </c>
+      <c r="F10" s="24"/>
+    </row>
+    <row r="11" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="125"/>
+      <c r="B11" s="99" t="s">
+        <v>1974</v>
+      </c>
+      <c r="C11" s="98" t="s">
+        <v>1869</v>
+      </c>
+      <c r="D11" s="100">
+        <v>-52.3</v>
+      </c>
+      <c r="E11" s="30">
+        <v>42405</v>
+      </c>
+      <c r="F11" s="24"/>
+    </row>
+    <row r="12" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="125"/>
+      <c r="B12" s="99" t="s">
+        <v>1974</v>
+      </c>
+      <c r="C12" s="98" t="s">
+        <v>1869</v>
+      </c>
+      <c r="D12" s="100">
+        <v>-52</v>
+      </c>
+      <c r="E12" s="30">
+        <v>42406</v>
+      </c>
+      <c r="F12" s="24"/>
+    </row>
+    <row r="13" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="125"/>
+      <c r="B13" s="99" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C13" s="98" t="s">
+        <v>1790</v>
+      </c>
+      <c r="D13" s="100">
+        <v>-54.7</v>
+      </c>
+      <c r="E13" s="30">
+        <v>42412</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="125"/>
+      <c r="B14" s="99" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C14" s="98" t="s">
+        <v>1790</v>
+      </c>
+      <c r="D14" s="100">
+        <v>-50.3</v>
+      </c>
+      <c r="E14" s="30">
+        <v>42437</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="125"/>
+      <c r="B15" s="99" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C15" s="98" t="s">
+        <v>1790</v>
+      </c>
+      <c r="D15" s="100">
+        <v>-54</v>
+      </c>
+      <c r="E15" s="30">
+        <v>42438</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="126"/>
+      <c r="B16" s="99" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C16" s="98" t="s">
+        <v>1790</v>
+      </c>
+      <c r="D16" s="100">
+        <v>-53</v>
+      </c>
+      <c r="E16" s="30">
+        <v>42439</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="127">
+        <v>2017</v>
+      </c>
+      <c r="B17" s="99" t="s">
+        <v>1789</v>
+      </c>
+      <c r="C17" s="98" t="s">
+        <v>1791</v>
+      </c>
+      <c r="D17" s="100">
+        <v>-45.4</v>
+      </c>
+      <c r="E17" s="30">
+        <v>42763</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="124">
+        <v>2018</v>
+      </c>
+      <c r="B18" s="99" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C18" s="98" t="s">
+        <v>1790</v>
+      </c>
+      <c r="D18" s="100">
+        <v>-51.6</v>
+      </c>
+      <c r="E18" s="30">
+        <v>43123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="125"/>
+      <c r="B19" s="99" t="s">
+        <v>1974</v>
+      </c>
+      <c r="C19" s="98" t="s">
+        <v>1868</v>
+      </c>
+      <c r="D19" s="100">
+        <v>-51.3</v>
+      </c>
+      <c r="E19" s="30">
+        <v>43123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="125"/>
+      <c r="B20" s="99" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C20" s="98" t="s">
+        <v>1790</v>
+      </c>
+      <c r="D20" s="100">
+        <v>-53.2</v>
+      </c>
+      <c r="E20" s="30">
+        <v>43124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="125"/>
+      <c r="B21" s="99" t="s">
+        <v>1974</v>
+      </c>
+      <c r="C21" s="98" t="s">
+        <v>1868</v>
+      </c>
+      <c r="D21" s="100">
+        <v>-51.7</v>
+      </c>
+      <c r="E21" s="30">
+        <v>43124</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="125"/>
+      <c r="B22" s="99" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C22" s="98" t="s">
+        <v>1790</v>
+      </c>
+      <c r="D22" s="100">
+        <v>-50.1</v>
+      </c>
+      <c r="E22" s="30">
+        <v>43125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="125"/>
+      <c r="B23" s="99" t="s">
+        <v>1974</v>
+      </c>
+      <c r="C23" s="98" t="s">
+        <v>1870</v>
+      </c>
+      <c r="D23" s="100">
+        <v>-50</v>
+      </c>
+      <c r="E23" s="30">
+        <v>43125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="125"/>
+      <c r="B24" s="99" t="s">
+        <v>1948</v>
+      </c>
+      <c r="C24" s="98" t="s">
+        <v>1795</v>
+      </c>
+      <c r="D24" s="100">
+        <v>-50</v>
+      </c>
+      <c r="E24" s="30" t="s">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="125"/>
+      <c r="B25" s="99" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C25" s="98" t="s">
+        <v>1792</v>
+      </c>
+      <c r="D25" s="100">
+        <v>-51.8</v>
+      </c>
+      <c r="E25" s="30">
+        <v>43127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="125"/>
+      <c r="B26" s="99" t="s">
+        <v>1974</v>
+      </c>
+      <c r="C26" s="98" t="s">
+        <v>1795</v>
+      </c>
+      <c r="D26" s="100">
+        <v>-50</v>
+      </c>
+      <c r="E26" s="30" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="125"/>
+      <c r="B27" s="99" t="s">
+        <v>1974</v>
+      </c>
+      <c r="C27" s="98" t="s">
         <v>1975</v>
       </c>
-      <c r="C3" s="126" t="s">
-        <v>1869</v>
-      </c>
-      <c r="D3" s="128">
+      <c r="D27" s="100">
         <v>-50</v>
       </c>
-      <c r="E3" s="31">
-        <v>42394</v>
-      </c>
-      <c r="F3" s="24"/>
-    </row>
-    <row r="4" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="105"/>
-      <c r="B4" s="127" t="s">
-        <v>1975</v>
-      </c>
-      <c r="C4" s="126" t="s">
-        <v>1869</v>
-      </c>
-      <c r="D4" s="128">
-        <v>-51.9</v>
-      </c>
-      <c r="E4" s="31">
-        <v>42398</v>
-      </c>
-      <c r="F4" s="24"/>
-    </row>
-    <row r="5" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="105"/>
-      <c r="B5" s="127" t="s">
-        <v>1975</v>
-      </c>
-      <c r="C5" s="126" t="s">
+      <c r="E27" s="30" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="126"/>
+      <c r="B28" s="99" t="s">
+        <v>1974</v>
+      </c>
+      <c r="C28" s="98" t="s">
+        <v>1976</v>
+      </c>
+      <c r="D28" s="100">
+        <v>-50</v>
+      </c>
+      <c r="E28" s="30" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="127">
+        <v>2019</v>
+      </c>
+      <c r="B29" s="99" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C29" s="98" t="s">
+        <v>1792</v>
+      </c>
+      <c r="D29" s="100">
+        <v>-48.4</v>
+      </c>
+      <c r="E29" s="30">
+        <v>43828</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="127">
+        <v>2020</v>
+      </c>
+      <c r="B30" s="99" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C30" s="98" t="s">
+        <v>1784</v>
+      </c>
+      <c r="D30" s="100">
+        <v>-49.6</v>
+      </c>
+      <c r="E30" s="30">
+        <v>44194</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="127">
+        <v>2021</v>
+      </c>
+      <c r="B31" s="99" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C31" s="98" t="s">
+        <v>1784</v>
+      </c>
+      <c r="D31" s="100">
+        <v>-47.2</v>
+      </c>
+      <c r="E31" s="30">
+        <v>44200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="127">
+        <v>2022</v>
+      </c>
+      <c r="B32" s="99" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C32" s="98" t="s">
         <v>1785</v>
       </c>
-      <c r="D5" s="128">
-        <v>-55.3</v>
-      </c>
-      <c r="E5" s="31" t="s">
-        <v>1950</v>
-      </c>
-      <c r="F5" s="24"/>
-    </row>
-    <row r="6" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="105"/>
-      <c r="B6" s="127" t="s">
-        <v>1975</v>
-      </c>
-      <c r="C6" s="126" t="s">
-        <v>1869</v>
-      </c>
-      <c r="D6" s="128">
-        <v>-52.8</v>
-      </c>
-      <c r="E6" s="31">
-        <v>42399</v>
-      </c>
-      <c r="F6" s="24"/>
-    </row>
-    <row r="7" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="105"/>
-      <c r="B7" s="127" t="s">
-        <v>1975</v>
-      </c>
-      <c r="C7" s="126" t="s">
-        <v>1869</v>
-      </c>
-      <c r="D7" s="128">
-        <v>-51.5</v>
-      </c>
-      <c r="E7" s="31">
-        <v>42400</v>
-      </c>
-      <c r="F7" s="24"/>
-    </row>
-    <row r="8" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="105"/>
-      <c r="B8" s="127" t="s">
-        <v>1975</v>
-      </c>
-      <c r="C8" s="126" t="s">
-        <v>1869</v>
-      </c>
-      <c r="D8" s="128">
+      <c r="D32" s="100">
+        <v>-46.8</v>
+      </c>
+      <c r="E32" s="29"/>
+    </row>
+    <row r="33" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="124">
+        <v>2023</v>
+      </c>
+      <c r="B33" s="99" t="s">
+        <v>1974</v>
+      </c>
+      <c r="C33" s="98" t="s">
+        <v>1868</v>
+      </c>
+      <c r="D33" s="100">
         <v>-50</v>
       </c>
-      <c r="E8" s="31">
-        <v>42404</v>
-      </c>
-      <c r="F8" s="24"/>
-    </row>
-    <row r="9" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="105"/>
-      <c r="B9" s="127" t="s">
-        <v>1975</v>
-      </c>
-      <c r="C9" s="126" t="s">
-        <v>1869</v>
-      </c>
-      <c r="D9" s="128">
-        <v>-52.3</v>
-      </c>
-      <c r="E9" s="31">
-        <v>42405</v>
-      </c>
-      <c r="F9" s="24"/>
-    </row>
-    <row r="10" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="105"/>
-      <c r="B10" s="127" t="s">
-        <v>1975</v>
-      </c>
-      <c r="C10" s="126" t="s">
-        <v>1869</v>
-      </c>
-      <c r="D10" s="128">
-        <v>-52</v>
-      </c>
-      <c r="E10" s="31">
-        <v>42406</v>
-      </c>
-      <c r="F10" s="24"/>
-    </row>
-    <row r="11" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="105"/>
-      <c r="B11" s="127" t="s">
+      <c r="E33" s="30">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="125"/>
+      <c r="B34" s="99" t="s">
+        <v>1948</v>
+      </c>
+      <c r="C34" s="98" t="s">
+        <v>1949</v>
+      </c>
+      <c r="D34" s="100">
+        <v>-49.4</v>
+      </c>
+      <c r="E34" s="30">
+        <v>45279</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="126"/>
+      <c r="B35" s="99" t="s">
+        <v>1948</v>
+      </c>
+      <c r="C35" s="98" t="s">
+        <v>1949</v>
+      </c>
+      <c r="D35" s="100">
+        <v>-50</v>
+      </c>
+      <c r="E35" s="30">
+        <v>45280</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="127">
+        <v>2024</v>
+      </c>
+      <c r="B36" s="99" t="s">
         <v>1788</v>
       </c>
-      <c r="C11" s="126" t="s">
-        <v>1790</v>
-      </c>
-      <c r="D11" s="128">
-        <v>-54.7</v>
-      </c>
-      <c r="E11" s="31">
-        <v>42412</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="105"/>
-      <c r="B12" s="127" t="s">
+      <c r="C36" s="98" t="s">
+        <v>1784</v>
+      </c>
+      <c r="D36" s="100">
+        <v>-48.8</v>
+      </c>
+      <c r="E36" s="30">
+        <v>45312</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="128" t="s">
+        <v>1794</v>
+      </c>
+      <c r="B37" s="99" t="s">
         <v>1788</v>
       </c>
-      <c r="C12" s="126" t="s">
-        <v>1790</v>
-      </c>
-      <c r="D12" s="128">
-        <v>-50.3</v>
-      </c>
-      <c r="E12" s="31">
-        <v>42437</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="105"/>
-      <c r="B13" s="127" t="s">
+      <c r="C37" s="98" t="s">
+        <v>1785</v>
+      </c>
+      <c r="D37" s="100">
+        <v>-45.6</v>
+      </c>
+      <c r="E37" s="30">
+        <v>45659</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="129"/>
+      <c r="B38" s="99" t="s">
         <v>1788</v>
       </c>
-      <c r="C13" s="126" t="s">
-        <v>1790</v>
-      </c>
-      <c r="D13" s="128">
-        <v>-54</v>
-      </c>
-      <c r="E13" s="31">
-        <v>42438</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="104"/>
-      <c r="B14" s="127" t="s">
-        <v>1788</v>
-      </c>
-      <c r="C14" s="126" t="s">
-        <v>1790</v>
-      </c>
-      <c r="D14" s="128">
-        <v>-53</v>
-      </c>
-      <c r="E14" s="31">
-        <v>42439</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="33">
-        <v>2017</v>
-      </c>
-      <c r="B15" s="127" t="s">
+      <c r="C38" s="98" t="s">
+        <v>1795</v>
+      </c>
+      <c r="D38" s="100">
+        <v>-45.6</v>
+      </c>
+      <c r="E38" s="30">
+        <v>45673</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="130"/>
+      <c r="B39" s="99" t="s">
         <v>1789</v>
       </c>
-      <c r="C15" s="126" t="s">
-        <v>1791</v>
-      </c>
-      <c r="D15" s="128">
-        <v>-45.4</v>
-      </c>
-      <c r="E15" s="31">
-        <v>42763</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="103">
-        <v>2018</v>
-      </c>
-      <c r="B16" s="127" t="s">
-        <v>1788</v>
-      </c>
-      <c r="C16" s="126" t="s">
-        <v>1790</v>
-      </c>
-      <c r="D16" s="128">
-        <v>-51.6</v>
-      </c>
-      <c r="E16" s="31">
-        <v>43123</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="105"/>
-      <c r="B17" s="127" t="s">
-        <v>1975</v>
-      </c>
-      <c r="C17" s="126" t="s">
-        <v>1868</v>
-      </c>
-      <c r="D17" s="128">
-        <v>-51.3</v>
-      </c>
-      <c r="E17" s="31">
-        <v>43123</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="105"/>
-      <c r="B18" s="127" t="s">
-        <v>1788</v>
-      </c>
-      <c r="C18" s="126" t="s">
-        <v>1790</v>
-      </c>
-      <c r="D18" s="128">
-        <v>-53.2</v>
-      </c>
-      <c r="E18" s="31">
-        <v>43124</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="105"/>
-      <c r="B19" s="127" t="s">
-        <v>1975</v>
-      </c>
-      <c r="C19" s="126" t="s">
-        <v>1868</v>
-      </c>
-      <c r="D19" s="128">
-        <v>-51.7</v>
-      </c>
-      <c r="E19" s="31">
-        <v>43124</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="105"/>
-      <c r="B20" s="127" t="s">
-        <v>1788</v>
-      </c>
-      <c r="C20" s="126" t="s">
-        <v>1790</v>
-      </c>
-      <c r="D20" s="128">
-        <v>-50.1</v>
-      </c>
-      <c r="E20" s="31">
-        <v>43125</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="105"/>
-      <c r="B21" s="127" t="s">
-        <v>1975</v>
-      </c>
-      <c r="C21" s="126" t="s">
-        <v>1870</v>
-      </c>
-      <c r="D21" s="128">
-        <v>-50</v>
-      </c>
-      <c r="E21" s="31">
-        <v>43125</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="105"/>
-      <c r="B22" s="127" t="s">
-        <v>1948</v>
-      </c>
-      <c r="C22" s="126" t="s">
-        <v>1795</v>
-      </c>
-      <c r="D22" s="128">
-        <v>-50</v>
-      </c>
-      <c r="E22" s="31" t="s">
-        <v>1951</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="105"/>
-      <c r="B23" s="127" t="s">
-        <v>1788</v>
-      </c>
-      <c r="C23" s="126" t="s">
-        <v>1792</v>
-      </c>
-      <c r="D23" s="128">
-        <v>-51.8</v>
-      </c>
-      <c r="E23" s="31">
-        <v>43127</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="105"/>
-      <c r="B24" s="127" t="s">
-        <v>1975</v>
-      </c>
-      <c r="C24" s="126" t="s">
-        <v>1795</v>
-      </c>
-      <c r="D24" s="128">
-        <v>-50</v>
-      </c>
-      <c r="E24" s="31" t="s">
-        <v>1978</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="105"/>
-      <c r="B25" s="127" t="s">
-        <v>1975</v>
-      </c>
-      <c r="C25" s="126" t="s">
-        <v>1976</v>
-      </c>
-      <c r="D25" s="128">
-        <v>-50</v>
-      </c>
-      <c r="E25" s="31" t="s">
-        <v>1978</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="104"/>
-      <c r="B26" s="127" t="s">
-        <v>1975</v>
-      </c>
-      <c r="C26" s="126" t="s">
-        <v>1977</v>
-      </c>
-      <c r="D26" s="128">
-        <v>-50</v>
-      </c>
-      <c r="E26" s="31" t="s">
-        <v>1978</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="33">
-        <v>2019</v>
-      </c>
-      <c r="B27" s="127" t="s">
-        <v>1788</v>
-      </c>
-      <c r="C27" s="126" t="s">
-        <v>1792</v>
-      </c>
-      <c r="D27" s="128">
-        <v>-48.4</v>
-      </c>
-      <c r="E27" s="31">
-        <v>43828</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="33">
-        <v>2020</v>
-      </c>
-      <c r="B28" s="127" t="s">
-        <v>1788</v>
-      </c>
-      <c r="C28" s="126" t="s">
-        <v>1784</v>
-      </c>
-      <c r="D28" s="128">
-        <v>-49.6</v>
-      </c>
-      <c r="E28" s="31">
-        <v>44194</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="33">
-        <v>2021</v>
-      </c>
-      <c r="B29" s="127" t="s">
-        <v>1788</v>
-      </c>
-      <c r="C29" s="126" t="s">
-        <v>1784</v>
-      </c>
-      <c r="D29" s="128">
-        <v>-47.2</v>
-      </c>
-      <c r="E29" s="31">
-        <v>44200</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="33">
-        <v>2022</v>
-      </c>
-      <c r="B30" s="127" t="s">
-        <v>1788</v>
-      </c>
-      <c r="C30" s="126" t="s">
-        <v>1792</v>
-      </c>
-      <c r="D30" s="128">
-        <v>-46.8</v>
-      </c>
-      <c r="E30" s="30"/>
-    </row>
-    <row r="31" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="103">
-        <v>2023</v>
-      </c>
-      <c r="B31" s="127" t="s">
-        <v>1975</v>
-      </c>
-      <c r="C31" s="126" t="s">
-        <v>1868</v>
-      </c>
-      <c r="D31" s="128">
-        <v>-50</v>
-      </c>
-      <c r="E31" s="31">
-        <v>44949</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="105"/>
-      <c r="B32" s="127" t="s">
-        <v>1948</v>
-      </c>
-      <c r="C32" s="126" t="s">
-        <v>1949</v>
-      </c>
-      <c r="D32" s="128">
-        <v>-49.4</v>
-      </c>
-      <c r="E32" s="31">
-        <v>45279</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="104"/>
-      <c r="B33" s="127" t="s">
-        <v>1948</v>
-      </c>
-      <c r="C33" s="126" t="s">
-        <v>1949</v>
-      </c>
-      <c r="D33" s="128">
-        <v>-50</v>
-      </c>
-      <c r="E33" s="31">
-        <v>45280</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="33">
-        <v>2024</v>
-      </c>
-      <c r="B34" s="127" t="s">
-        <v>1788</v>
-      </c>
-      <c r="C34" s="126" t="s">
-        <v>1784</v>
-      </c>
-      <c r="D34" s="128">
-        <v>-48.8</v>
-      </c>
-      <c r="E34" s="31">
-        <v>45312</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="108" t="s">
-        <v>1794</v>
-      </c>
-      <c r="B35" s="127" t="s">
-        <v>1788</v>
-      </c>
-      <c r="C35" s="126" t="s">
-        <v>1785</v>
-      </c>
-      <c r="D35" s="128">
-        <v>-45.6</v>
-      </c>
-      <c r="E35" s="31">
-        <v>45659</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="109"/>
-      <c r="B36" s="127" t="s">
-        <v>1788</v>
-      </c>
-      <c r="C36" s="126" t="s">
-        <v>1795</v>
-      </c>
-      <c r="D36" s="128">
-        <v>-45.6</v>
-      </c>
-      <c r="E36" s="31">
-        <v>45673</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="110"/>
-      <c r="B37" s="127" t="s">
-        <v>1789</v>
-      </c>
-      <c r="C37" s="126" t="s">
+      <c r="C39" s="98" t="s">
         <v>1793</v>
       </c>
-      <c r="D37" s="128">
+      <c r="D39" s="100">
         <v>-44.2</v>
       </c>
-      <c r="E37" s="32" t="s">
+      <c r="E39" s="31" t="s">
         <v>1952</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A37:A39"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="A3:A14"/>
-    <mergeCell ref="A16:A26"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="A18:A28"/>
+    <mergeCell ref="A5:A16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D3:D37">
+  <conditionalFormatting sqref="D3:D39">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -32471,276 +32482,276 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="106" t="s">
         <v>1835</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-    </row>
-    <row r="2" spans="1:4" s="34" customFormat="1" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="57" t="s">
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+    </row>
+    <row r="2" spans="1:4" s="32" customFormat="1" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="55" t="s">
         <v>1834</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="56" t="s">
         <v>1852</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="56" t="s">
         <v>1853</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="33" t="s">
         <v>1776</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="48" t="s">
         <v>1813</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="46" t="s">
         <v>1839</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="47" t="s">
         <v>1840</v>
       </c>
-      <c r="D3" s="54">
+      <c r="D3" s="52">
         <v>51573</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="45" t="s">
         <v>1802</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="41" t="s">
         <v>1838</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="35" t="s">
         <v>1829</v>
       </c>
-      <c r="D4" s="54">
+      <c r="D4" s="52">
         <v>58968</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="45" t="s">
         <v>1798</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="41" t="s">
         <v>1816</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="36" t="s">
         <v>1825</v>
       </c>
-      <c r="D5" s="54">
+      <c r="D5" s="52">
         <v>58606</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="45" t="s">
         <v>1805</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="41" t="s">
         <v>1816</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="49" t="s">
         <v>1831</v>
       </c>
-      <c r="D6" s="54">
+      <c r="D6" s="52">
         <v>57687</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="45" t="s">
         <v>1800</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="41" t="s">
         <v>1818</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="35" t="s">
         <v>1827</v>
       </c>
-      <c r="D7" s="54">
+      <c r="D7" s="52">
         <v>58847</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="45" t="s">
         <v>1799</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="41" t="s">
         <v>1817</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="36" t="s">
         <v>1826</v>
       </c>
-      <c r="D8" s="54">
+      <c r="D8" s="52">
         <v>58457</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="45" t="s">
         <v>1806</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="41" t="s">
         <v>1817</v>
       </c>
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="49" t="s">
         <v>1846</v>
       </c>
-      <c r="D9" s="54">
+      <c r="D9" s="52">
         <v>57494</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="45" t="s">
         <v>1811</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="40" t="s">
         <v>1842</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="39" t="s">
         <v>1837</v>
       </c>
-      <c r="D10" s="54">
+      <c r="D10" s="52">
         <v>57516</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="45" t="s">
         <v>1801</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="40" t="s">
         <v>1819</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="37" t="s">
         <v>1828</v>
       </c>
-      <c r="D11" s="54">
+      <c r="D11" s="52">
         <v>59287</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="45" t="s">
         <v>1807</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="40" t="s">
         <v>1843</v>
       </c>
-      <c r="C12" s="52" t="s">
+      <c r="C12" s="50" t="s">
         <v>1847</v>
       </c>
-      <c r="D12" s="54">
+      <c r="D12" s="52">
         <v>59758</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="45" t="s">
         <v>1797</v>
       </c>
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="40" t="s">
         <v>1815</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="35" t="s">
         <v>1824</v>
       </c>
-      <c r="D13" s="54">
+      <c r="D13" s="52">
         <v>58321</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="45" t="s">
         <v>1804</v>
       </c>
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="40" t="s">
         <v>1820</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="37" t="s">
         <v>1830</v>
       </c>
-      <c r="D14" s="54">
+      <c r="D14" s="52">
         <v>45011</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="45" t="s">
         <v>1796</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="40" t="s">
         <v>1814</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="35" t="s">
         <v>1823</v>
       </c>
-      <c r="D15" s="54">
+      <c r="D15" s="52">
         <v>58238</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="45" t="s">
         <v>1808</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="40" t="s">
         <v>1821</v>
       </c>
-      <c r="C16" s="52" t="s">
+      <c r="C16" s="50" t="s">
         <v>1832</v>
       </c>
-      <c r="D16" s="54">
+      <c r="D16" s="52">
         <v>59431</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="45" t="s">
         <v>1803</v>
       </c>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="42" t="s">
         <v>1844</v>
       </c>
-      <c r="C17" s="38" t="s">
+      <c r="C17" s="36" t="s">
         <v>1845</v>
       </c>
-      <c r="D17" s="55" t="s">
+      <c r="D17" s="53" t="s">
         <v>1851</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="45" t="s">
         <v>1812</v>
       </c>
-      <c r="B18" s="56" t="s">
+      <c r="B18" s="54" t="s">
         <v>1849</v>
       </c>
-      <c r="C18" s="36" t="s">
+      <c r="C18" s="34" t="s">
         <v>1833</v>
       </c>
-      <c r="D18" s="55" t="s">
+      <c r="D18" s="53" t="s">
         <v>1850</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="45" t="s">
         <v>1809</v>
       </c>
-      <c r="B19" s="45" t="s">
+      <c r="B19" s="43" t="s">
         <v>1822</v>
       </c>
-      <c r="C19" s="53" t="s">
+      <c r="C19" s="51" t="s">
         <v>1848</v>
       </c>
-      <c r="D19" s="54">
+      <c r="D19" s="52">
         <v>57816</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="47" t="s">
+      <c r="A20" s="45" t="s">
         <v>1810</v>
       </c>
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="44" t="s">
         <v>1841</v>
       </c>
-      <c r="C20" s="40" t="s">
+      <c r="C20" s="38" t="s">
         <v>1836</v>
       </c>
-      <c r="D20" s="54">
+      <c r="D20" s="52">
         <v>56778</v>
       </c>
     </row>
@@ -32766,10 +32777,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="28.59765625" style="59" customWidth="1"/>
-    <col min="2" max="2" width="24.59765625" style="60" customWidth="1"/>
+    <col min="1" max="1" width="28.59765625" style="57" customWidth="1"/>
+    <col min="2" max="2" width="24.59765625" style="58" customWidth="1"/>
     <col min="3" max="3" width="16.59765625" customWidth="1"/>
-    <col min="4" max="4" width="24.59765625" style="61" customWidth="1"/>
+    <col min="4" max="4" width="24.59765625" style="59" customWidth="1"/>
     <col min="5" max="5" width="16.59765625" customWidth="1"/>
     <col min="6" max="6" width="17.59765625" style="27" customWidth="1"/>
     <col min="7" max="7" width="16.59765625" customWidth="1"/>
@@ -32777,1038 +32788,1038 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="107" t="s">
         <v>1945</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-    </row>
-    <row r="2" spans="1:11" s="34" customFormat="1" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="119" t="s">
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+    </row>
+    <row r="2" spans="1:11" s="32" customFormat="1" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="112" t="s">
         <v>1775</v>
       </c>
-      <c r="B2" s="120"/>
-      <c r="C2" s="115" t="s">
+      <c r="B2" s="113"/>
+      <c r="C2" s="108" t="s">
         <v>1854</v>
       </c>
-      <c r="D2" s="116"/>
-      <c r="E2" s="117" t="s">
+      <c r="D2" s="109"/>
+      <c r="E2" s="110" t="s">
         <v>1944</v>
       </c>
-      <c r="F2" s="118"/>
-      <c r="G2" s="58" t="s">
+      <c r="F2" s="111"/>
+      <c r="G2" s="56" t="s">
         <v>1946</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="60" t="s">
+        <v>1961</v>
+      </c>
+      <c r="B3" s="61" t="s">
         <v>1962</v>
       </c>
-      <c r="B3" s="63" t="s">
+      <c r="C3" s="70">
+        <v>-41.1</v>
+      </c>
+      <c r="D3" s="76" t="s">
         <v>1963</v>
       </c>
-      <c r="C3" s="72">
-        <v>-41.1</v>
-      </c>
-      <c r="D3" s="78" t="s">
+      <c r="E3" s="72">
+        <v>-33.299999999999997</v>
+      </c>
+      <c r="F3" s="77" t="s">
         <v>1964</v>
       </c>
-      <c r="E3" s="74">
-        <v>-33.299999999999997</v>
-      </c>
-      <c r="F3" s="79" t="s">
-        <v>1965</v>
-      </c>
-      <c r="G3" s="75">
+      <c r="G3" s="73">
         <f t="shared" ref="G3" si="0">ABS(E3-C3)</f>
         <v>7.8000000000000043</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="60" t="s">
         <v>1893</v>
       </c>
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="61" t="s">
         <v>1889</v>
       </c>
-      <c r="C4" s="72">
+      <c r="C4" s="70">
         <v>-40.9</v>
       </c>
-      <c r="D4" s="76" t="s">
+      <c r="D4" s="74" t="s">
         <v>1919</v>
       </c>
-      <c r="E4" s="74">
+      <c r="E4" s="72">
         <v>-29.3</v>
       </c>
-      <c r="F4" s="73" t="s">
+      <c r="F4" s="71" t="s">
         <v>1942</v>
       </c>
-      <c r="G4" s="75">
+      <c r="G4" s="73">
         <f t="shared" ref="G4:G44" si="1">ABS(E4-C4)</f>
         <v>11.599999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="60" t="s">
         <v>1893</v>
       </c>
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="61" t="s">
         <v>1863</v>
       </c>
-      <c r="C5" s="72">
+      <c r="C5" s="70">
         <v>-40.200000000000003</v>
       </c>
-      <c r="D5" s="73" t="s">
+      <c r="D5" s="71" t="s">
         <v>1920</v>
       </c>
-      <c r="E5" s="74">
+      <c r="E5" s="72">
         <v>-28.7</v>
       </c>
-      <c r="F5" s="73" t="s">
+      <c r="F5" s="71" t="s">
         <v>1942</v>
       </c>
-      <c r="G5" s="75">
+      <c r="G5" s="73">
         <f t="shared" si="1"/>
         <v>11.500000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="62" t="s">
         <v>1894</v>
       </c>
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="63" t="s">
         <v>1866</v>
       </c>
-      <c r="C6" s="72">
+      <c r="C6" s="70">
         <v>-40.1</v>
       </c>
-      <c r="D6" s="73" t="s">
+      <c r="D6" s="71" t="s">
         <v>1921</v>
       </c>
-      <c r="E6" s="74">
+      <c r="E6" s="72">
         <v>-32.4</v>
       </c>
-      <c r="F6" s="73" t="s">
+      <c r="F6" s="71" t="s">
         <v>1942</v>
       </c>
-      <c r="G6" s="75">
+      <c r="G6" s="73">
         <f t="shared" si="1"/>
         <v>7.7000000000000028</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="62" t="s">
         <v>1895</v>
       </c>
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="63" t="s">
         <v>1870</v>
       </c>
-      <c r="C7" s="72">
+      <c r="C7" s="70">
         <v>-40</v>
       </c>
-      <c r="D7" s="76" t="s">
+      <c r="D7" s="74" t="s">
         <v>1919</v>
       </c>
-      <c r="E7" s="74">
+      <c r="E7" s="72">
         <v>-31.5</v>
       </c>
-      <c r="F7" s="73" t="s">
+      <c r="F7" s="71" t="s">
         <v>1942</v>
       </c>
-      <c r="G7" s="75">
+      <c r="G7" s="73">
         <f t="shared" si="1"/>
         <v>8.5</v>
       </c>
-      <c r="K7" s="77"/>
+      <c r="K7" s="75"/>
     </row>
     <row r="8" spans="1:11" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="62" t="s">
         <v>1896</v>
       </c>
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="63" t="s">
         <v>1867</v>
       </c>
-      <c r="C8" s="72">
+      <c r="C8" s="70">
         <v>-39.4</v>
       </c>
-      <c r="D8" s="76" t="s">
+      <c r="D8" s="74" t="s">
         <v>1919</v>
       </c>
-      <c r="E8" s="74">
+      <c r="E8" s="72">
         <v>-31.3</v>
       </c>
-      <c r="F8" s="73" t="s">
+      <c r="F8" s="71" t="s">
         <v>1942</v>
       </c>
-      <c r="G8" s="75">
+      <c r="G8" s="73">
         <f t="shared" si="1"/>
         <v>8.0999999999999979</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="60" t="s">
         <v>1897</v>
       </c>
-      <c r="B9" s="63" t="s">
+      <c r="B9" s="61" t="s">
         <v>1858</v>
       </c>
-      <c r="C9" s="72">
+      <c r="C9" s="70">
         <v>-39.299999999999997</v>
       </c>
-      <c r="D9" s="73" t="s">
+      <c r="D9" s="71" t="s">
         <v>1922</v>
       </c>
-      <c r="E9" s="74">
+      <c r="E9" s="72">
         <v>-29.4</v>
       </c>
-      <c r="F9" s="73" t="s">
+      <c r="F9" s="71" t="s">
         <v>1942</v>
       </c>
-      <c r="G9" s="75">
+      <c r="G9" s="73">
         <f t="shared" si="1"/>
         <v>9.8999999999999986</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="60" t="s">
         <v>1893</v>
       </c>
-      <c r="B10" s="63" t="s">
+      <c r="B10" s="61" t="s">
         <v>1865</v>
       </c>
-      <c r="C10" s="72">
+      <c r="C10" s="70">
         <v>-38.9</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="71" t="s">
         <v>1923</v>
       </c>
-      <c r="E10" s="74">
+      <c r="E10" s="72">
         <v>-31</v>
       </c>
-      <c r="F10" s="73" t="s">
+      <c r="F10" s="71" t="s">
         <v>1942</v>
       </c>
-      <c r="G10" s="75">
+      <c r="G10" s="73">
         <f t="shared" si="1"/>
         <v>7.8999999999999986</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="62" t="s">
+      <c r="A11" s="60" t="s">
         <v>1898</v>
       </c>
-      <c r="B11" s="63" t="s">
+      <c r="B11" s="61" t="s">
         <v>1888</v>
       </c>
-      <c r="C11" s="72">
+      <c r="C11" s="70">
         <v>-38.700000000000003</v>
       </c>
-      <c r="D11" s="76" t="s">
+      <c r="D11" s="74" t="s">
         <v>1919</v>
       </c>
-      <c r="E11" s="74">
+      <c r="E11" s="72">
         <v>-29.5</v>
       </c>
-      <c r="F11" s="73" t="s">
+      <c r="F11" s="71" t="s">
         <v>1942</v>
       </c>
-      <c r="G11" s="75">
+      <c r="G11" s="73">
         <f t="shared" si="1"/>
         <v>9.2000000000000028</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="62" t="s">
+      <c r="A12" s="60" t="s">
         <v>1899</v>
       </c>
-      <c r="B12" s="63" t="s">
+      <c r="B12" s="61" t="s">
         <v>1860</v>
       </c>
-      <c r="C12" s="72">
+      <c r="C12" s="70">
         <v>-38.700000000000003</v>
       </c>
-      <c r="D12" s="73" t="s">
+      <c r="D12" s="71" t="s">
         <v>1924</v>
       </c>
-      <c r="E12" s="74">
+      <c r="E12" s="72">
         <v>-29.8</v>
       </c>
-      <c r="F12" s="76" t="s">
+      <c r="F12" s="74" t="s">
         <v>1943</v>
       </c>
-      <c r="G12" s="75">
+      <c r="G12" s="73">
         <f t="shared" si="1"/>
         <v>8.9000000000000021</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="62" t="s">
+      <c r="A13" s="60" t="s">
         <v>1899</v>
       </c>
-      <c r="B13" s="63" t="s">
+      <c r="B13" s="61" t="s">
         <v>1861</v>
       </c>
-      <c r="C13" s="72">
+      <c r="C13" s="70">
         <v>-38.5</v>
       </c>
-      <c r="D13" s="76" t="s">
+      <c r="D13" s="74" t="s">
         <v>1919</v>
       </c>
-      <c r="E13" s="74">
+      <c r="E13" s="72">
         <v>-30.5</v>
       </c>
-      <c r="F13" s="73" t="s">
+      <c r="F13" s="71" t="s">
         <v>1942</v>
       </c>
-      <c r="G13" s="75">
+      <c r="G13" s="73">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="64" t="s">
+      <c r="A14" s="62" t="s">
         <v>1895</v>
       </c>
-      <c r="B14" s="65" t="s">
+      <c r="B14" s="63" t="s">
         <v>1868</v>
       </c>
-      <c r="C14" s="72">
+      <c r="C14" s="70">
         <v>-38.4</v>
       </c>
-      <c r="D14" s="73" t="s">
+      <c r="D14" s="71" t="s">
         <v>1925</v>
       </c>
-      <c r="E14" s="74">
+      <c r="E14" s="72">
         <v>-31.4</v>
       </c>
-      <c r="F14" s="73" t="s">
+      <c r="F14" s="71" t="s">
         <v>1942</v>
       </c>
-      <c r="G14" s="75">
+      <c r="G14" s="73">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="62" t="s">
+      <c r="A15" s="60" t="s">
         <v>1900</v>
       </c>
-      <c r="B15" s="63" t="s">
+      <c r="B15" s="61" t="s">
         <v>1864</v>
       </c>
-      <c r="C15" s="72">
+      <c r="C15" s="70">
         <v>-37.9</v>
       </c>
-      <c r="D15" s="73" t="s">
+      <c r="D15" s="71" t="s">
         <v>1926</v>
       </c>
-      <c r="E15" s="74">
+      <c r="E15" s="72">
         <v>-27.3</v>
       </c>
-      <c r="F15" s="73" t="s">
+      <c r="F15" s="71" t="s">
         <v>1942</v>
       </c>
-      <c r="G15" s="75">
+      <c r="G15" s="73">
         <f t="shared" si="1"/>
         <v>10.599999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="66" t="s">
+      <c r="A16" s="64" t="s">
         <v>1901</v>
       </c>
-      <c r="B16" s="67" t="s">
+      <c r="B16" s="65" t="s">
         <v>1874</v>
       </c>
-      <c r="C16" s="72">
+      <c r="C16" s="70">
         <v>-37.5</v>
       </c>
-      <c r="D16" s="73" t="s">
+      <c r="D16" s="71" t="s">
         <v>1927</v>
       </c>
-      <c r="E16" s="74">
+      <c r="E16" s="72">
         <v>-25</v>
       </c>
-      <c r="F16" s="73" t="s">
+      <c r="F16" s="71" t="s">
         <v>1942</v>
       </c>
-      <c r="G16" s="75">
+      <c r="G16" s="73">
         <f t="shared" si="1"/>
         <v>12.5</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="66" t="s">
+      <c r="A17" s="64" t="s">
         <v>1901</v>
       </c>
-      <c r="B17" s="67" t="s">
+      <c r="B17" s="65" t="s">
         <v>1887</v>
       </c>
-      <c r="C17" s="72">
+      <c r="C17" s="70">
         <v>-37.200000000000003</v>
       </c>
-      <c r="D17" s="73" t="s">
+      <c r="D17" s="71" t="s">
         <v>1928</v>
       </c>
-      <c r="E17" s="74">
+      <c r="E17" s="72">
         <v>-27.7</v>
       </c>
-      <c r="F17" s="73" t="s">
+      <c r="F17" s="71" t="s">
         <v>1942</v>
       </c>
-      <c r="G17" s="75">
+      <c r="G17" s="73">
         <f t="shared" si="1"/>
         <v>9.5000000000000036</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="64" t="s">
+      <c r="A18" s="62" t="s">
         <v>1895</v>
       </c>
-      <c r="B18" s="65" t="s">
+      <c r="B18" s="63" t="s">
         <v>1869</v>
       </c>
-      <c r="C18" s="72">
+      <c r="C18" s="70">
         <v>-36.9</v>
       </c>
-      <c r="D18" s="73" t="s">
+      <c r="D18" s="71" t="s">
         <v>1929</v>
       </c>
-      <c r="E18" s="74">
+      <c r="E18" s="72">
         <v>-27.6</v>
       </c>
-      <c r="F18" s="73" t="s">
+      <c r="F18" s="71" t="s">
         <v>1942</v>
       </c>
-      <c r="G18" s="75">
+      <c r="G18" s="73">
         <f t="shared" si="1"/>
         <v>9.2999999999999972</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="62" t="s">
+      <c r="A19" s="60" t="s">
         <v>1902</v>
       </c>
-      <c r="B19" s="63" t="s">
+      <c r="B19" s="61" t="s">
         <v>1855</v>
       </c>
-      <c r="C19" s="72">
+      <c r="C19" s="70">
         <v>-36.299999999999997</v>
       </c>
-      <c r="D19" s="76" t="s">
+      <c r="D19" s="74" t="s">
         <v>1919</v>
       </c>
-      <c r="E19" s="74">
+      <c r="E19" s="72">
         <v>-27.9</v>
       </c>
-      <c r="F19" s="73" t="s">
+      <c r="F19" s="71" t="s">
         <v>1942</v>
       </c>
-      <c r="G19" s="75">
+      <c r="G19" s="73">
         <f t="shared" si="1"/>
         <v>8.3999999999999986</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="66" t="s">
+      <c r="A20" s="64" t="s">
         <v>1901</v>
       </c>
-      <c r="B20" s="67" t="s">
+      <c r="B20" s="65" t="s">
         <v>1873</v>
       </c>
-      <c r="C20" s="72">
+      <c r="C20" s="70">
         <v>-36</v>
       </c>
-      <c r="D20" s="73" t="s">
+      <c r="D20" s="71" t="s">
         <v>1928</v>
       </c>
-      <c r="E20" s="74">
+      <c r="E20" s="72">
         <v>-28.4</v>
       </c>
-      <c r="F20" s="73" t="s">
+      <c r="F20" s="71" t="s">
         <v>1942</v>
       </c>
-      <c r="G20" s="75">
+      <c r="G20" s="73">
         <f t="shared" si="1"/>
         <v>7.6000000000000014</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="62" t="s">
+      <c r="A21" s="60" t="s">
         <v>1903</v>
       </c>
-      <c r="B21" s="63" t="s">
+      <c r="B21" s="61" t="s">
         <v>1856</v>
       </c>
-      <c r="C21" s="72">
+      <c r="C21" s="70">
         <v>-35.6</v>
       </c>
-      <c r="D21" s="73" t="s">
+      <c r="D21" s="71" t="s">
         <v>1930</v>
       </c>
-      <c r="E21" s="74">
+      <c r="E21" s="72">
         <v>-26.4</v>
       </c>
-      <c r="F21" s="73" t="s">
+      <c r="F21" s="71" t="s">
         <v>1942</v>
       </c>
-      <c r="G21" s="75">
+      <c r="G21" s="73">
         <f t="shared" si="1"/>
         <v>9.2000000000000028</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="62" t="s">
+      <c r="A22" s="60" t="s">
         <v>1898</v>
       </c>
-      <c r="B22" s="63" t="s">
+      <c r="B22" s="61" t="s">
         <v>1857</v>
       </c>
-      <c r="C22" s="72">
+      <c r="C22" s="70">
         <v>-35.6</v>
       </c>
-      <c r="D22" s="73" t="s">
+      <c r="D22" s="71" t="s">
         <v>1931</v>
       </c>
-      <c r="E22" s="74">
+      <c r="E22" s="72">
         <v>-27.6</v>
       </c>
-      <c r="F22" s="73" t="s">
+      <c r="F22" s="71" t="s">
         <v>1942</v>
       </c>
-      <c r="G22" s="75">
+      <c r="G22" s="73">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="62" t="s">
+      <c r="A23" s="60" t="s">
         <v>1899</v>
       </c>
-      <c r="B23" s="63" t="s">
+      <c r="B23" s="61" t="s">
         <v>1859</v>
       </c>
-      <c r="C23" s="72">
+      <c r="C23" s="70">
         <v>-35.4</v>
       </c>
-      <c r="D23" s="73" t="s">
+      <c r="D23" s="71" t="s">
         <v>1932</v>
       </c>
-      <c r="E23" s="74">
+      <c r="E23" s="72">
         <v>-27.4</v>
       </c>
-      <c r="F23" s="73" t="s">
+      <c r="F23" s="71" t="s">
         <v>1942</v>
       </c>
-      <c r="G23" s="75">
+      <c r="G23" s="73">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="66" t="s">
+      <c r="A24" s="64" t="s">
         <v>1904</v>
       </c>
-      <c r="B24" s="67" t="s">
+      <c r="B24" s="65" t="s">
         <v>1872</v>
       </c>
-      <c r="C24" s="72">
+      <c r="C24" s="70">
         <v>-35.299999999999997</v>
       </c>
-      <c r="D24" s="76" t="s">
+      <c r="D24" s="74" t="s">
         <v>1919</v>
       </c>
-      <c r="E24" s="74">
+      <c r="E24" s="72">
         <v>-27.9</v>
       </c>
-      <c r="F24" s="73" t="s">
+      <c r="F24" s="71" t="s">
         <v>1942</v>
       </c>
-      <c r="G24" s="75">
+      <c r="G24" s="73">
         <f t="shared" si="1"/>
         <v>7.3999999999999986</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="66" t="s">
+      <c r="A25" s="64" t="s">
         <v>1905</v>
       </c>
-      <c r="B25" s="67" t="s">
+      <c r="B25" s="65" t="s">
         <v>1877</v>
       </c>
-      <c r="C25" s="72">
+      <c r="C25" s="70">
         <v>-34.5</v>
       </c>
-      <c r="D25" s="73" t="s">
+      <c r="D25" s="71" t="s">
         <v>1933</v>
       </c>
-      <c r="E25" s="74">
+      <c r="E25" s="72">
         <v>-26.4</v>
       </c>
-      <c r="F25" s="73" t="s">
+      <c r="F25" s="71" t="s">
         <v>1942</v>
       </c>
-      <c r="G25" s="75">
+      <c r="G25" s="73">
         <f t="shared" si="1"/>
         <v>8.1000000000000014</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="66" t="s">
-        <v>1961</v>
-      </c>
-      <c r="B26" s="67" t="s">
+      <c r="A26" s="64" t="s">
         <v>1960</v>
       </c>
-      <c r="C26" s="72">
+      <c r="B26" s="65" t="s">
+        <v>1959</v>
+      </c>
+      <c r="C26" s="70">
         <v>-33.1</v>
       </c>
-      <c r="D26" s="73" t="s">
-        <v>1956</v>
-      </c>
-      <c r="E26" s="74">
+      <c r="D26" s="71" t="s">
+        <v>1955</v>
+      </c>
+      <c r="E26" s="72">
         <v>-25</v>
       </c>
-      <c r="F26" s="73" t="s">
+      <c r="F26" s="71" t="s">
         <v>1942</v>
       </c>
-      <c r="G26" s="75">
+      <c r="G26" s="73">
         <f t="shared" ref="G26" si="2">ABS(E26-C26)</f>
         <v>8.1000000000000014</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="66" t="s">
+      <c r="A27" s="64" t="s">
         <v>1906</v>
       </c>
-      <c r="B27" s="67" t="s">
+      <c r="B27" s="65" t="s">
         <v>1885</v>
       </c>
-      <c r="C27" s="72">
+      <c r="C27" s="70">
         <v>-32</v>
       </c>
-      <c r="D27" s="73" t="s">
+      <c r="D27" s="71" t="s">
         <v>1921</v>
       </c>
-      <c r="E27" s="74">
+      <c r="E27" s="72">
         <v>-24.4</v>
       </c>
-      <c r="F27" s="73" t="s">
+      <c r="F27" s="71" t="s">
         <v>1942</v>
       </c>
-      <c r="G27" s="75">
+      <c r="G27" s="73">
         <f t="shared" si="1"/>
         <v>7.6000000000000014</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="66" t="s">
+      <c r="A28" s="64" t="s">
         <v>1904</v>
       </c>
-      <c r="B28" s="67" t="s">
+      <c r="B28" s="65" t="s">
         <v>1884</v>
       </c>
-      <c r="C28" s="72">
+      <c r="C28" s="70">
         <v>-31.8</v>
       </c>
-      <c r="D28" s="73" t="s">
+      <c r="D28" s="71" t="s">
         <v>1934</v>
       </c>
-      <c r="E28" s="74">
+      <c r="E28" s="72">
         <v>-24.7</v>
       </c>
-      <c r="F28" s="73" t="s">
+      <c r="F28" s="71" t="s">
         <v>1942</v>
       </c>
-      <c r="G28" s="75">
+      <c r="G28" s="73">
         <f t="shared" si="1"/>
         <v>7.1000000000000014</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="68" t="s">
+      <c r="A29" s="66" t="s">
         <v>1907</v>
       </c>
-      <c r="B29" s="69" t="s">
+      <c r="B29" s="67" t="s">
         <v>1890</v>
       </c>
-      <c r="C29" s="72">
+      <c r="C29" s="70">
         <v>-31.7</v>
       </c>
-      <c r="D29" s="76" t="s">
+      <c r="D29" s="74" t="s">
         <v>1919</v>
       </c>
-      <c r="E29" s="74">
+      <c r="E29" s="72">
         <v>-20.3</v>
       </c>
-      <c r="F29" s="73" t="s">
+      <c r="F29" s="71" t="s">
         <v>1942</v>
       </c>
-      <c r="G29" s="75">
+      <c r="G29" s="73">
         <f t="shared" si="1"/>
         <v>11.399999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="62" t="s">
+      <c r="A30" s="60" t="s">
         <v>1908</v>
       </c>
-      <c r="B30" s="63" t="s">
+      <c r="B30" s="61" t="s">
         <v>1862</v>
       </c>
-      <c r="C30" s="72">
+      <c r="C30" s="70">
         <v>-30.7</v>
       </c>
-      <c r="D30" s="73" t="s">
+      <c r="D30" s="71" t="s">
         <v>1921</v>
       </c>
-      <c r="E30" s="74">
+      <c r="E30" s="72">
         <v>-24.6</v>
       </c>
-      <c r="F30" s="73" t="s">
+      <c r="F30" s="71" t="s">
         <v>1942</v>
       </c>
-      <c r="G30" s="75">
+      <c r="G30" s="73">
         <f t="shared" si="1"/>
         <v>6.0999999999999979</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="64" t="s">
+      <c r="A31" s="62" t="s">
         <v>1909</v>
       </c>
-      <c r="B31" s="65" t="s">
+      <c r="B31" s="63" t="s">
         <v>1871</v>
       </c>
-      <c r="C31" s="72">
+      <c r="C31" s="70">
         <v>-30.5</v>
       </c>
-      <c r="D31" s="73" t="s">
+      <c r="D31" s="71" t="s">
         <v>1935</v>
       </c>
-      <c r="E31" s="74">
+      <c r="E31" s="72">
         <v>-21.3</v>
       </c>
-      <c r="F31" s="73" t="s">
+      <c r="F31" s="71" t="s">
         <v>1942</v>
       </c>
-      <c r="G31" s="75">
+      <c r="G31" s="73">
         <f t="shared" si="1"/>
         <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="66" t="s">
+      <c r="A32" s="64" t="s">
+        <v>1956</v>
+      </c>
+      <c r="B32" s="65" t="s">
         <v>1957</v>
       </c>
-      <c r="B32" s="67" t="s">
+      <c r="C32" s="70">
+        <v>-29.5</v>
+      </c>
+      <c r="D32" s="74" t="s">
         <v>1958</v>
       </c>
-      <c r="C32" s="72">
-        <v>-29.5</v>
-      </c>
-      <c r="D32" s="76" t="s">
-        <v>1959</v>
-      </c>
-      <c r="E32" s="74">
+      <c r="E32" s="72">
         <v>-21.4</v>
       </c>
-      <c r="F32" s="73" t="s">
+      <c r="F32" s="71" t="s">
         <v>1942</v>
       </c>
-      <c r="G32" s="75">
+      <c r="G32" s="73">
         <f t="shared" ref="G32" si="3">ABS(E32-C32)</f>
         <v>8.1000000000000014</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="66" t="s">
+      <c r="A33" s="64" t="s">
         <v>1910</v>
       </c>
-      <c r="B33" s="67" t="s">
+      <c r="B33" s="65" t="s">
         <v>1880</v>
       </c>
-      <c r="C33" s="72">
+      <c r="C33" s="70">
         <v>-27.5</v>
       </c>
-      <c r="D33" s="73" t="s">
+      <c r="D33" s="71" t="s">
         <v>1927</v>
       </c>
-      <c r="E33" s="74">
+      <c r="E33" s="72">
         <v>-17.3</v>
       </c>
-      <c r="F33" s="73" t="s">
+      <c r="F33" s="71" t="s">
         <v>1942</v>
       </c>
-      <c r="G33" s="75">
+      <c r="G33" s="73">
         <f t="shared" si="1"/>
         <v>10.199999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="66" t="s">
+      <c r="A34" s="64" t="s">
         <v>1911</v>
       </c>
-      <c r="B34" s="67" t="s">
+      <c r="B34" s="65" t="s">
         <v>1875</v>
       </c>
-      <c r="C34" s="72">
+      <c r="C34" s="70">
         <v>-25.1</v>
       </c>
-      <c r="D34" s="76" t="s">
+      <c r="D34" s="74" t="s">
         <v>1919</v>
       </c>
-      <c r="E34" s="74">
+      <c r="E34" s="72">
         <v>-15.8</v>
       </c>
-      <c r="F34" s="73" t="s">
+      <c r="F34" s="71" t="s">
         <v>1942</v>
       </c>
-      <c r="G34" s="75">
+      <c r="G34" s="73">
         <f t="shared" si="1"/>
         <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="66" t="s">
+      <c r="A35" s="64" t="s">
         <v>1947</v>
       </c>
-      <c r="B35" s="67" t="s">
+      <c r="B35" s="65" t="s">
         <v>1891</v>
       </c>
-      <c r="C35" s="72">
+      <c r="C35" s="70">
         <v>-24.9</v>
       </c>
-      <c r="D35" s="73" t="s">
+      <c r="D35" s="71" t="s">
         <v>1936</v>
       </c>
-      <c r="E35" s="74">
+      <c r="E35" s="72">
         <v>-15.9</v>
       </c>
-      <c r="F35" s="73" t="s">
+      <c r="F35" s="71" t="s">
         <v>1942</v>
       </c>
-      <c r="G35" s="75">
+      <c r="G35" s="73">
         <f t="shared" si="1"/>
         <v>8.9999999999999982</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="66" t="s">
+      <c r="A36" s="64" t="s">
         <v>1947</v>
       </c>
-      <c r="B36" s="67" t="s">
+      <c r="B36" s="65" t="s">
         <v>1886</v>
       </c>
-      <c r="C36" s="72">
+      <c r="C36" s="70">
         <v>-24.3</v>
       </c>
-      <c r="D36" s="73" t="s">
+      <c r="D36" s="71" t="s">
         <v>1937</v>
       </c>
-      <c r="E36" s="74">
+      <c r="E36" s="72">
         <v>-16.3</v>
       </c>
-      <c r="F36" s="73" t="s">
+      <c r="F36" s="71" t="s">
         <v>1942</v>
       </c>
-      <c r="G36" s="75">
+      <c r="G36" s="73">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="66" t="s">
+      <c r="A37" s="64" t="s">
         <v>1912</v>
       </c>
-      <c r="B37" s="67" t="s">
+      <c r="B37" s="65" t="s">
         <v>1881</v>
       </c>
-      <c r="C37" s="72">
+      <c r="C37" s="70">
         <v>-23</v>
       </c>
-      <c r="D37" s="73" t="s">
+      <c r="D37" s="71" t="s">
         <v>1938</v>
       </c>
-      <c r="E37" s="74">
+      <c r="E37" s="72">
         <v>-17.3</v>
       </c>
-      <c r="F37" s="73" t="s">
+      <c r="F37" s="71" t="s">
         <v>1942</v>
       </c>
-      <c r="G37" s="75">
+      <c r="G37" s="73">
         <f t="shared" si="1"/>
         <v>5.6999999999999993</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="66" t="s">
+      <c r="A38" s="64" t="s">
         <v>1913</v>
       </c>
-      <c r="B38" s="67" t="s">
+      <c r="B38" s="65" t="s">
         <v>1882</v>
       </c>
-      <c r="C38" s="72">
+      <c r="C38" s="70">
         <v>-22.8</v>
       </c>
-      <c r="D38" s="73" t="s">
+      <c r="D38" s="71" t="s">
         <v>1927</v>
       </c>
-      <c r="E38" s="74">
+      <c r="E38" s="72">
         <v>-14.3</v>
       </c>
-      <c r="F38" s="73" t="s">
+      <c r="F38" s="71" t="s">
         <v>1942</v>
       </c>
-      <c r="G38" s="75">
+      <c r="G38" s="73">
         <f t="shared" si="1"/>
         <v>8.5</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="66" t="s">
+      <c r="A39" s="64" t="s">
+        <v>1953</v>
+      </c>
+      <c r="B39" s="65" t="s">
         <v>1954</v>
       </c>
-      <c r="B39" s="67" t="s">
+      <c r="C39" s="70">
+        <v>-22.6</v>
+      </c>
+      <c r="D39" s="71" t="s">
         <v>1955</v>
       </c>
-      <c r="C39" s="72">
-        <v>-22.6</v>
-      </c>
-      <c r="D39" s="73" t="s">
-        <v>1956</v>
-      </c>
-      <c r="E39" s="74">
+      <c r="E39" s="72">
         <v>-17</v>
       </c>
-      <c r="F39" s="73" t="s">
+      <c r="F39" s="71" t="s">
         <v>1942</v>
       </c>
-      <c r="G39" s="75">
+      <c r="G39" s="73">
         <f t="shared" ref="G39" si="4">ABS(E39-C39)</f>
         <v>5.6000000000000014</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="70" t="s">
+      <c r="A40" s="68" t="s">
         <v>1914</v>
       </c>
-      <c r="B40" s="71" t="s">
+      <c r="B40" s="69" t="s">
         <v>1892</v>
       </c>
-      <c r="C40" s="72">
+      <c r="C40" s="70">
         <v>-22.4</v>
       </c>
-      <c r="D40" s="73" t="s">
+      <c r="D40" s="71" t="s">
         <v>1921</v>
       </c>
-      <c r="E40" s="74">
+      <c r="E40" s="72">
         <v>-17</v>
       </c>
-      <c r="F40" s="73" t="s">
+      <c r="F40" s="71" t="s">
         <v>1942</v>
       </c>
-      <c r="G40" s="75">
+      <c r="G40" s="73">
         <f t="shared" si="1"/>
         <v>5.3999999999999986</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="66" t="s">
+      <c r="A41" s="64" t="s">
         <v>1915</v>
       </c>
-      <c r="B41" s="67" t="s">
+      <c r="B41" s="65" t="s">
         <v>1878</v>
       </c>
-      <c r="C41" s="72">
+      <c r="C41" s="70">
         <v>-20.9</v>
       </c>
-      <c r="D41" s="73" t="s">
+      <c r="D41" s="71" t="s">
         <v>1939</v>
       </c>
-      <c r="E41" s="74">
+      <c r="E41" s="72">
         <v>-10.7</v>
       </c>
-      <c r="F41" s="73" t="s">
+      <c r="F41" s="71" t="s">
         <v>1942</v>
       </c>
-      <c r="G41" s="75">
+      <c r="G41" s="73">
         <f t="shared" si="1"/>
         <v>10.199999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="66" t="s">
+      <c r="A42" s="64" t="s">
         <v>1916</v>
       </c>
-      <c r="B42" s="67" t="s">
+      <c r="B42" s="65" t="s">
         <v>1876</v>
       </c>
-      <c r="C42" s="72">
+      <c r="C42" s="70">
         <v>-20.399999999999999</v>
       </c>
-      <c r="D42" s="73" t="s">
+      <c r="D42" s="71" t="s">
         <v>1940</v>
       </c>
-      <c r="E42" s="74">
+      <c r="E42" s="72">
         <v>-12.2</v>
       </c>
-      <c r="F42" s="73" t="s">
+      <c r="F42" s="71" t="s">
         <v>1942</v>
       </c>
-      <c r="G42" s="75">
+      <c r="G42" s="73">
         <f t="shared" si="1"/>
         <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="66" t="s">
+      <c r="A43" s="64" t="s">
         <v>1917</v>
       </c>
-      <c r="B43" s="67" t="s">
+      <c r="B43" s="65" t="s">
         <v>1883</v>
       </c>
-      <c r="C43" s="72">
+      <c r="C43" s="70">
         <v>-18.5</v>
       </c>
-      <c r="D43" s="73" t="s">
+      <c r="D43" s="71" t="s">
         <v>1941</v>
       </c>
-      <c r="E43" s="74">
+      <c r="E43" s="72">
         <v>-11.4</v>
       </c>
-      <c r="F43" s="73" t="s">
+      <c r="F43" s="71" t="s">
         <v>1942</v>
       </c>
-      <c r="G43" s="75">
+      <c r="G43" s="73">
         <f t="shared" si="1"/>
         <v>7.1</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="66" t="s">
+      <c r="A44" s="64" t="s">
         <v>1918</v>
       </c>
-      <c r="B44" s="67" t="s">
+      <c r="B44" s="65" t="s">
         <v>1879</v>
       </c>
-      <c r="C44" s="72">
+      <c r="C44" s="70">
         <v>-17.600000000000001</v>
       </c>
-      <c r="D44" s="73" t="s">
+      <c r="D44" s="71" t="s">
         <v>1925</v>
       </c>
-      <c r="E44" s="74">
+      <c r="E44" s="72">
         <v>-12</v>
       </c>
-      <c r="F44" s="73" t="s">
+      <c r="F44" s="71" t="s">
         <v>1942</v>
       </c>
-      <c r="G44" s="75">
+      <c r="G44" s="73">
         <f t="shared" si="1"/>
         <v>5.6000000000000014</v>
       </c>
@@ -33875,10 +33886,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="28.59765625" style="59" customWidth="1"/>
-    <col min="2" max="2" width="20.59765625" style="60" customWidth="1"/>
-    <col min="3" max="3" width="28.59765625" style="82" customWidth="1"/>
-    <col min="4" max="4" width="24.59765625" style="81" customWidth="1"/>
+    <col min="1" max="1" width="28.59765625" style="57" customWidth="1"/>
+    <col min="2" max="2" width="20.59765625" style="58" customWidth="1"/>
+    <col min="3" max="3" width="28.59765625" style="80" customWidth="1"/>
+    <col min="4" max="4" width="24.59765625" style="79" customWidth="1"/>
     <col min="5" max="5" width="24.59765625" customWidth="1"/>
     <col min="6" max="6" width="13.59765625" customWidth="1"/>
     <col min="7" max="7" width="15.59765625" style="23" customWidth="1"/>
@@ -33886,883 +33897,883 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="1.2">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="104" t="s">
+        <v>1972</v>
+      </c>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+    </row>
+    <row r="2" spans="1:11" s="32" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="114" t="s">
+        <v>1775</v>
+      </c>
+      <c r="B2" s="114"/>
+      <c r="C2" s="89" t="s">
+        <v>1968</v>
+      </c>
+      <c r="D2" s="115" t="s">
         <v>1973</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-    </row>
-    <row r="2" spans="1:11" s="34" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="121" t="s">
-        <v>1775</v>
-      </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="91" t="s">
+      <c r="E2" s="116"/>
+      <c r="F2" s="117" t="s">
+        <v>1971</v>
+      </c>
+      <c r="G2" s="118"/>
+    </row>
+    <row r="3" spans="1:11" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="62" t="s">
+        <v>1895</v>
+      </c>
+      <c r="B3" s="84" t="s">
+        <v>1869</v>
+      </c>
+      <c r="C3" s="97">
+        <v>811</v>
+      </c>
+      <c r="D3" s="83" t="s">
+        <v>1967</v>
+      </c>
+      <c r="E3" s="90">
+        <v>-27.6</v>
+      </c>
+      <c r="F3" s="81">
+        <v>523</v>
+      </c>
+      <c r="G3" s="82" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="66" t="s">
+        <v>1907</v>
+      </c>
+      <c r="B4" s="85" t="s">
+        <v>1890</v>
+      </c>
+      <c r="C4" s="97">
+        <v>805</v>
+      </c>
+      <c r="D4" s="78" t="s">
+        <v>1965</v>
+      </c>
+      <c r="E4" s="90">
+        <v>-20.9</v>
+      </c>
+      <c r="F4" s="81">
+        <v>728</v>
+      </c>
+      <c r="G4" s="82" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="60" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B5" s="86" t="s">
+        <v>1855</v>
+      </c>
+      <c r="C5" s="96">
+        <v>756</v>
+      </c>
+      <c r="D5" s="83" t="s">
+        <v>1967</v>
+      </c>
+      <c r="E5" s="90">
+        <v>-27.9</v>
+      </c>
+      <c r="F5" s="81">
+        <v>898</v>
+      </c>
+      <c r="G5" s="82" t="s">
         <v>1969</v>
       </c>
-      <c r="D2" s="122" t="s">
-        <v>1974</v>
-      </c>
-      <c r="E2" s="123"/>
-      <c r="F2" s="124" t="s">
-        <v>1972</v>
-      </c>
-      <c r="G2" s="125"/>
-    </row>
-    <row r="3" spans="1:11" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="64" t="s">
+    </row>
+    <row r="6" spans="1:11" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="60" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B6" s="86" t="s">
+        <v>1859</v>
+      </c>
+      <c r="C6" s="96">
+        <v>738</v>
+      </c>
+      <c r="D6" s="78" t="s">
+        <v>1965</v>
+      </c>
+      <c r="E6" s="90">
+        <v>-27.4</v>
+      </c>
+      <c r="F6" s="81">
+        <v>735</v>
+      </c>
+      <c r="G6" s="82" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="60" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B7" s="86" t="s">
+        <v>1856</v>
+      </c>
+      <c r="C7" s="96">
+        <v>730</v>
+      </c>
+      <c r="D7" s="83" t="s">
+        <v>1967</v>
+      </c>
+      <c r="E7" s="90">
+        <v>-26.4</v>
+      </c>
+      <c r="F7" s="81">
+        <v>439</v>
+      </c>
+      <c r="G7" s="82" t="s">
+        <v>1969</v>
+      </c>
+      <c r="K7" s="75"/>
+    </row>
+    <row r="8" spans="1:11" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="60" t="s">
+        <v>1898</v>
+      </c>
+      <c r="B8" s="86" t="s">
+        <v>1888</v>
+      </c>
+      <c r="C8" s="95">
+        <v>676</v>
+      </c>
+      <c r="D8" s="78" t="s">
+        <v>1965</v>
+      </c>
+      <c r="E8" s="90">
+        <v>-30.2</v>
+      </c>
+      <c r="F8" s="81">
+        <v>897</v>
+      </c>
+      <c r="G8" s="82" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="60" t="s">
+        <v>1961</v>
+      </c>
+      <c r="B9" s="86" t="s">
+        <v>1962</v>
+      </c>
+      <c r="C9" s="95">
+        <v>664</v>
+      </c>
+      <c r="D9" s="78" t="s">
+        <v>1966</v>
+      </c>
+      <c r="E9" s="91">
+        <v>-35.5</v>
+      </c>
+      <c r="F9" s="81">
+        <v>570</v>
+      </c>
+      <c r="G9" s="82" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="60" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B10" s="86" t="s">
+        <v>1864</v>
+      </c>
+      <c r="C10" s="95">
+        <v>649</v>
+      </c>
+      <c r="D10" s="78" t="s">
+        <v>1965</v>
+      </c>
+      <c r="E10" s="90">
+        <v>-28.4</v>
+      </c>
+      <c r="F10" s="81">
+        <v>801</v>
+      </c>
+      <c r="G10" s="82" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="60" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B11" s="86" t="s">
+        <v>1858</v>
+      </c>
+      <c r="C11" s="95">
+        <v>627</v>
+      </c>
+      <c r="D11" s="78" t="s">
+        <v>1965</v>
+      </c>
+      <c r="E11" s="90">
+        <v>-31.6</v>
+      </c>
+      <c r="F11" s="81">
+        <v>890</v>
+      </c>
+      <c r="G11" s="82" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="60" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B12" s="86" t="s">
+        <v>1860</v>
+      </c>
+      <c r="C12" s="95">
+        <v>619</v>
+      </c>
+      <c r="D12" s="78" t="s">
+        <v>1965</v>
+      </c>
+      <c r="E12" s="90">
+        <v>-31.9</v>
+      </c>
+      <c r="F12" s="81">
+        <v>648</v>
+      </c>
+      <c r="G12" s="82" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="60" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B13" s="86" t="s">
+        <v>1889</v>
+      </c>
+      <c r="C13" s="95">
+        <v>605</v>
+      </c>
+      <c r="D13" s="78" t="s">
+        <v>1966</v>
+      </c>
+      <c r="E13" s="90">
+        <v>-30.8</v>
+      </c>
+      <c r="F13" s="81">
+        <v>776</v>
+      </c>
+      <c r="G13" s="82" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="62" t="s">
         <v>1895</v>
       </c>
-      <c r="B3" s="86" t="s">
-        <v>1869</v>
-      </c>
-      <c r="C3" s="99">
-        <v>811</v>
-      </c>
-      <c r="D3" s="85" t="s">
-        <v>1968</v>
-      </c>
-      <c r="E3" s="92">
-        <v>-27.6</v>
-      </c>
-      <c r="F3" s="83">
-        <v>523</v>
-      </c>
-      <c r="G3" s="84" t="s">
-        <v>1971</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="68" t="s">
-        <v>1907</v>
-      </c>
-      <c r="B4" s="87" t="s">
-        <v>1890</v>
-      </c>
-      <c r="C4" s="99">
-        <v>805</v>
-      </c>
-      <c r="D4" s="80" t="s">
-        <v>1966</v>
-      </c>
-      <c r="E4" s="92">
-        <v>-20.9</v>
-      </c>
-      <c r="F4" s="83">
-        <v>728</v>
-      </c>
-      <c r="G4" s="84" t="s">
-        <v>1971</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="62" t="s">
-        <v>1902</v>
-      </c>
-      <c r="B5" s="88" t="s">
-        <v>1855</v>
-      </c>
-      <c r="C5" s="98">
-        <v>756</v>
-      </c>
-      <c r="D5" s="85" t="s">
-        <v>1968</v>
-      </c>
-      <c r="E5" s="92">
-        <v>-27.9</v>
-      </c>
-      <c r="F5" s="83">
-        <v>898</v>
-      </c>
-      <c r="G5" s="84" t="s">
-        <v>1970</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="62" t="s">
+      <c r="B14" s="84" t="s">
+        <v>1870</v>
+      </c>
+      <c r="C14" s="95">
+        <v>601</v>
+      </c>
+      <c r="D14" s="83" t="s">
+        <v>1967</v>
+      </c>
+      <c r="E14" s="90">
+        <v>-31.5</v>
+      </c>
+      <c r="F14" s="81">
+        <v>929</v>
+      </c>
+      <c r="G14" s="82" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="64" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B15" s="87" t="s">
+        <v>1872</v>
+      </c>
+      <c r="C15" s="94">
+        <v>590</v>
+      </c>
+      <c r="D15" s="78" t="s">
+        <v>1965</v>
+      </c>
+      <c r="E15" s="90">
+        <v>-30.2</v>
+      </c>
+      <c r="F15" s="81">
+        <v>488</v>
+      </c>
+      <c r="G15" s="82" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="64" t="s">
+        <v>1906</v>
+      </c>
+      <c r="B16" s="87" t="s">
+        <v>1885</v>
+      </c>
+      <c r="C16" s="94">
+        <v>587</v>
+      </c>
+      <c r="D16" s="78" t="s">
+        <v>1965</v>
+      </c>
+      <c r="E16" s="90">
+        <v>-25.6</v>
+      </c>
+      <c r="F16" s="81">
+        <v>681</v>
+      </c>
+      <c r="G16" s="82" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="62" t="s">
+        <v>1895</v>
+      </c>
+      <c r="B17" s="84" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C17" s="94">
+        <v>586</v>
+      </c>
+      <c r="D17" s="83" t="s">
+        <v>1967</v>
+      </c>
+      <c r="E17" s="90">
+        <v>-31.4</v>
+      </c>
+      <c r="F17" s="81">
+        <v>552</v>
+      </c>
+      <c r="G17" s="82" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="64" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B18" s="87" t="s">
+        <v>1884</v>
+      </c>
+      <c r="C18" s="94">
+        <v>584</v>
+      </c>
+      <c r="D18" s="78" t="s">
+        <v>1965</v>
+      </c>
+      <c r="E18" s="90">
+        <v>-26.8</v>
+      </c>
+      <c r="F18" s="81">
+        <v>678</v>
+      </c>
+      <c r="G18" s="82" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="60" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B19" s="86" t="s">
+        <v>1863</v>
+      </c>
+      <c r="C19" s="94">
+        <v>580</v>
+      </c>
+      <c r="D19" s="78" t="s">
+        <v>1965</v>
+      </c>
+      <c r="E19" s="90">
+        <v>-30.4</v>
+      </c>
+      <c r="F19" s="81">
+        <v>650</v>
+      </c>
+      <c r="G19" s="82" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="60" t="s">
+        <v>1898</v>
+      </c>
+      <c r="B20" s="86" t="s">
+        <v>1857</v>
+      </c>
+      <c r="C20" s="94">
+        <v>574</v>
+      </c>
+      <c r="D20" s="78" t="s">
+        <v>1965</v>
+      </c>
+      <c r="E20" s="90">
+        <v>-28.8</v>
+      </c>
+      <c r="F20" s="81">
+        <v>895</v>
+      </c>
+      <c r="G20" s="82" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="64" t="s">
+        <v>1905</v>
+      </c>
+      <c r="B21" s="87" t="s">
+        <v>1877</v>
+      </c>
+      <c r="C21" s="94">
+        <v>574</v>
+      </c>
+      <c r="D21" s="78" t="s">
+        <v>1965</v>
+      </c>
+      <c r="E21" s="90">
+        <v>-26.3</v>
+      </c>
+      <c r="F21" s="81">
+        <v>556</v>
+      </c>
+      <c r="G21" s="82" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="60" t="s">
         <v>1899</v>
       </c>
-      <c r="B6" s="88" t="s">
-        <v>1859</v>
-      </c>
-      <c r="C6" s="98">
-        <v>738</v>
-      </c>
-      <c r="D6" s="80" t="s">
-        <v>1966</v>
-      </c>
-      <c r="E6" s="92">
-        <v>-27.4</v>
-      </c>
-      <c r="F6" s="83">
-        <v>735</v>
-      </c>
-      <c r="G6" s="84" t="s">
-        <v>1970</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="62" t="s">
-        <v>1903</v>
-      </c>
-      <c r="B7" s="88" t="s">
-        <v>1856</v>
-      </c>
-      <c r="C7" s="98">
-        <v>730</v>
-      </c>
-      <c r="D7" s="85" t="s">
-        <v>1968</v>
-      </c>
-      <c r="E7" s="92">
-        <v>-26.4</v>
-      </c>
-      <c r="F7" s="83">
-        <v>439</v>
-      </c>
-      <c r="G7" s="84" t="s">
-        <v>1970</v>
-      </c>
-      <c r="K7" s="77"/>
-    </row>
-    <row r="8" spans="1:11" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="62" t="s">
-        <v>1898</v>
-      </c>
-      <c r="B8" s="88" t="s">
-        <v>1888</v>
-      </c>
-      <c r="C8" s="97">
-        <v>676</v>
-      </c>
-      <c r="D8" s="80" t="s">
-        <v>1966</v>
-      </c>
-      <c r="E8" s="92">
-        <v>-30.2</v>
-      </c>
-      <c r="F8" s="83">
-        <v>897</v>
-      </c>
-      <c r="G8" s="84" t="s">
-        <v>1970</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="62" t="s">
-        <v>1962</v>
-      </c>
-      <c r="B9" s="88" t="s">
-        <v>1963</v>
-      </c>
-      <c r="C9" s="97">
-        <v>664</v>
-      </c>
-      <c r="D9" s="80" t="s">
+      <c r="B22" s="86" t="s">
+        <v>1861</v>
+      </c>
+      <c r="C22" s="94">
+        <v>541</v>
+      </c>
+      <c r="D22" s="78" t="s">
+        <v>1965</v>
+      </c>
+      <c r="E22" s="90">
+        <v>-33.1</v>
+      </c>
+      <c r="F22" s="81">
+        <v>609</v>
+      </c>
+      <c r="G22" s="82" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="64" t="s">
+        <v>1911</v>
+      </c>
+      <c r="B23" s="87" t="s">
+        <v>1875</v>
+      </c>
+      <c r="C23" s="94">
+        <v>537</v>
+      </c>
+      <c r="D23" s="78" t="s">
+        <v>1965</v>
+      </c>
+      <c r="E23" s="90">
+        <v>-16</v>
+      </c>
+      <c r="F23" s="81">
+        <v>672</v>
+      </c>
+      <c r="G23" s="82" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="64" t="s">
+        <v>1913</v>
+      </c>
+      <c r="B24" s="87" t="s">
+        <v>1882</v>
+      </c>
+      <c r="C24" s="94">
+        <v>521</v>
+      </c>
+      <c r="D24" s="78" t="s">
+        <v>1965</v>
+      </c>
+      <c r="E24" s="90">
+        <v>-15.9</v>
+      </c>
+      <c r="F24" s="81">
+        <v>680</v>
+      </c>
+      <c r="G24" s="82" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="68" t="s">
+        <v>1914</v>
+      </c>
+      <c r="B25" s="88" t="s">
+        <v>1892</v>
+      </c>
+      <c r="C25" s="94">
+        <v>519</v>
+      </c>
+      <c r="D25" s="83" t="s">
         <v>1967</v>
       </c>
-      <c r="E9" s="93">
-        <v>-35.5</v>
-      </c>
-      <c r="F9" s="83">
-        <v>570</v>
-      </c>
-      <c r="G9" s="84" t="s">
-        <v>1970</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="62" t="s">
-        <v>1900</v>
-      </c>
-      <c r="B10" s="88" t="s">
-        <v>1864</v>
-      </c>
-      <c r="C10" s="97">
-        <v>649</v>
-      </c>
-      <c r="D10" s="80" t="s">
-        <v>1966</v>
-      </c>
-      <c r="E10" s="92">
-        <v>-28.4</v>
-      </c>
-      <c r="F10" s="83">
-        <v>801</v>
-      </c>
-      <c r="G10" s="84" t="s">
-        <v>1970</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="62" t="s">
-        <v>1897</v>
-      </c>
-      <c r="B11" s="88" t="s">
-        <v>1858</v>
-      </c>
-      <c r="C11" s="97">
-        <v>627</v>
-      </c>
-      <c r="D11" s="80" t="s">
-        <v>1966</v>
-      </c>
-      <c r="E11" s="92">
-        <v>-31.6</v>
-      </c>
-      <c r="F11" s="83">
-        <v>890</v>
-      </c>
-      <c r="G11" s="84" t="s">
-        <v>1970</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="62" t="s">
-        <v>1899</v>
-      </c>
-      <c r="B12" s="88" t="s">
-        <v>1860</v>
-      </c>
-      <c r="C12" s="97">
-        <v>619</v>
-      </c>
-      <c r="D12" s="80" t="s">
-        <v>1966</v>
-      </c>
-      <c r="E12" s="92">
-        <v>-31.9</v>
-      </c>
-      <c r="F12" s="83">
-        <v>648</v>
-      </c>
-      <c r="G12" s="84" t="s">
-        <v>1970</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="62" t="s">
+      <c r="E25" s="90">
+        <v>-17</v>
+      </c>
+      <c r="F25" s="81">
+        <v>888</v>
+      </c>
+      <c r="G25" s="82" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="64" t="s">
+        <v>1917</v>
+      </c>
+      <c r="B26" s="87" t="s">
+        <v>1883</v>
+      </c>
+      <c r="C26" s="94">
+        <v>512</v>
+      </c>
+      <c r="D26" s="78" t="s">
+        <v>1965</v>
+      </c>
+      <c r="E26" s="91">
+        <v>-11.5</v>
+      </c>
+      <c r="F26" s="81">
+        <v>681</v>
+      </c>
+      <c r="G26" s="82" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="62" t="s">
+        <v>1894</v>
+      </c>
+      <c r="B27" s="84" t="s">
+        <v>1866</v>
+      </c>
+      <c r="C27" s="94">
+        <v>503</v>
+      </c>
+      <c r="D27" s="83" t="s">
+        <v>1967</v>
+      </c>
+      <c r="E27" s="90">
+        <v>-32.4</v>
+      </c>
+      <c r="F27" s="81">
+        <v>927</v>
+      </c>
+      <c r="G27" s="82" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="64" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B28" s="87" t="s">
+        <v>1873</v>
+      </c>
+      <c r="C28" s="94">
+        <v>502</v>
+      </c>
+      <c r="D28" s="78" t="s">
+        <v>1965</v>
+      </c>
+      <c r="E28" s="90">
+        <v>-29.4</v>
+      </c>
+      <c r="F28" s="81">
+        <v>641</v>
+      </c>
+      <c r="G28" s="82" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="60" t="s">
+        <v>1908</v>
+      </c>
+      <c r="B29" s="86" t="s">
+        <v>1862</v>
+      </c>
+      <c r="C29" s="93">
+        <v>498</v>
+      </c>
+      <c r="D29" s="78" t="s">
+        <v>1965</v>
+      </c>
+      <c r="E29" s="90">
+        <v>-26.1</v>
+      </c>
+      <c r="F29" s="81">
+        <v>742</v>
+      </c>
+      <c r="G29" s="82" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="64" t="s">
+        <v>1910</v>
+      </c>
+      <c r="B30" s="87" t="s">
+        <v>1880</v>
+      </c>
+      <c r="C30" s="93">
+        <v>498</v>
+      </c>
+      <c r="D30" s="78" t="s">
+        <v>1965</v>
+      </c>
+      <c r="E30" s="90">
+        <v>-19.100000000000001</v>
+      </c>
+      <c r="F30" s="81">
+        <v>679</v>
+      </c>
+      <c r="G30" s="82" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="64" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B31" s="87" t="s">
+        <v>1874</v>
+      </c>
+      <c r="C31" s="93">
+        <v>493</v>
+      </c>
+      <c r="D31" s="78" t="s">
+        <v>1965</v>
+      </c>
+      <c r="E31" s="90">
+        <v>-26.1</v>
+      </c>
+      <c r="F31" s="81">
+        <v>680</v>
+      </c>
+      <c r="G31" s="82" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="62" t="s">
+        <v>1909</v>
+      </c>
+      <c r="B32" s="84" t="s">
+        <v>1871</v>
+      </c>
+      <c r="C32" s="93">
+        <v>469</v>
+      </c>
+      <c r="D32" s="78" t="s">
+        <v>1965</v>
+      </c>
+      <c r="E32" s="90">
+        <v>-21.7</v>
+      </c>
+      <c r="F32" s="81">
+        <v>737</v>
+      </c>
+      <c r="G32" s="82" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="64" t="s">
+        <v>1916</v>
+      </c>
+      <c r="B33" s="87" t="s">
+        <v>1876</v>
+      </c>
+      <c r="C33" s="93">
+        <v>460</v>
+      </c>
+      <c r="D33" s="78" t="s">
+        <v>1965</v>
+      </c>
+      <c r="E33" s="90">
+        <v>-13.7</v>
+      </c>
+      <c r="F33" s="81">
+        <v>678</v>
+      </c>
+      <c r="G33" s="82" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="64" t="s">
+        <v>1918</v>
+      </c>
+      <c r="B34" s="87" t="s">
+        <v>1879</v>
+      </c>
+      <c r="C34" s="93">
+        <v>449</v>
+      </c>
+      <c r="D34" s="78" t="s">
+        <v>1965</v>
+      </c>
+      <c r="E34" s="90">
+        <v>-11.7</v>
+      </c>
+      <c r="F34" s="81">
+        <v>565</v>
+      </c>
+      <c r="G34" s="82" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="64" t="s">
+        <v>1947</v>
+      </c>
+      <c r="B35" s="87" t="s">
+        <v>1886</v>
+      </c>
+      <c r="C35" s="93">
+        <v>437</v>
+      </c>
+      <c r="D35" s="78" t="s">
+        <v>1965</v>
+      </c>
+      <c r="E35" s="90">
+        <v>-17</v>
+      </c>
+      <c r="F35" s="81">
+        <v>521</v>
+      </c>
+      <c r="G35" s="82" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="60" t="s">
         <v>1893</v>
       </c>
-      <c r="B13" s="88" t="s">
-        <v>1889</v>
-      </c>
-      <c r="C13" s="97">
-        <v>605</v>
-      </c>
-      <c r="D13" s="80" t="s">
-        <v>1967</v>
-      </c>
-      <c r="E13" s="92">
-        <v>-30.8</v>
-      </c>
-      <c r="F13" s="83">
-        <v>776</v>
-      </c>
-      <c r="G13" s="84" t="s">
-        <v>1970</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="64" t="s">
-        <v>1895</v>
-      </c>
-      <c r="B14" s="86" t="s">
-        <v>1870</v>
-      </c>
-      <c r="C14" s="97">
-        <v>601</v>
-      </c>
-      <c r="D14" s="85" t="s">
-        <v>1968</v>
-      </c>
-      <c r="E14" s="92">
-        <v>-31.5</v>
-      </c>
-      <c r="F14" s="83">
-        <v>929</v>
-      </c>
-      <c r="G14" s="84" t="s">
-        <v>1970</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="66" t="s">
-        <v>1904</v>
-      </c>
-      <c r="B15" s="89" t="s">
-        <v>1872</v>
-      </c>
-      <c r="C15" s="96">
-        <v>590</v>
-      </c>
-      <c r="D15" s="80" t="s">
-        <v>1966</v>
-      </c>
-      <c r="E15" s="92">
-        <v>-30.2</v>
-      </c>
-      <c r="F15" s="83">
-        <v>488</v>
-      </c>
-      <c r="G15" s="84" t="s">
-        <v>1970</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="66" t="s">
-        <v>1906</v>
-      </c>
-      <c r="B16" s="89" t="s">
-        <v>1885</v>
-      </c>
-      <c r="C16" s="96">
-        <v>587</v>
-      </c>
-      <c r="D16" s="80" t="s">
-        <v>1966</v>
-      </c>
-      <c r="E16" s="92">
-        <v>-25.6</v>
-      </c>
-      <c r="F16" s="83">
-        <v>681</v>
-      </c>
-      <c r="G16" s="84" t="s">
-        <v>1970</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="64" t="s">
-        <v>1895</v>
-      </c>
-      <c r="B17" s="86" t="s">
-        <v>1868</v>
-      </c>
-      <c r="C17" s="96">
-        <v>586</v>
-      </c>
-      <c r="D17" s="85" t="s">
-        <v>1968</v>
-      </c>
-      <c r="E17" s="92">
-        <v>-31.4</v>
-      </c>
-      <c r="F17" s="83">
-        <v>552</v>
-      </c>
-      <c r="G17" s="84" t="s">
-        <v>1970</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="66" t="s">
-        <v>1904</v>
-      </c>
-      <c r="B18" s="89" t="s">
-        <v>1884</v>
-      </c>
-      <c r="C18" s="96">
-        <v>584</v>
-      </c>
-      <c r="D18" s="80" t="s">
-        <v>1966</v>
-      </c>
-      <c r="E18" s="92">
-        <v>-26.8</v>
-      </c>
-      <c r="F18" s="83">
-        <v>678</v>
-      </c>
-      <c r="G18" s="84" t="s">
-        <v>1970</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="62" t="s">
-        <v>1893</v>
-      </c>
-      <c r="B19" s="88" t="s">
-        <v>1863</v>
-      </c>
-      <c r="C19" s="96">
-        <v>580</v>
-      </c>
-      <c r="D19" s="80" t="s">
-        <v>1966</v>
-      </c>
-      <c r="E19" s="92">
-        <v>-30.4</v>
-      </c>
-      <c r="F19" s="83">
+      <c r="B36" s="86" t="s">
+        <v>1865</v>
+      </c>
+      <c r="C36" s="93">
+        <v>423</v>
+      </c>
+      <c r="D36" s="78" t="s">
+        <v>1965</v>
+      </c>
+      <c r="E36" s="90">
+        <v>-32.4</v>
+      </c>
+      <c r="F36" s="81">
+        <v>634</v>
+      </c>
+      <c r="G36" s="82" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="62" t="s">
+        <v>1896</v>
+      </c>
+      <c r="B37" s="84" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C37" s="93">
+        <v>400</v>
+      </c>
+      <c r="D37" s="78" t="s">
+        <v>1965</v>
+      </c>
+      <c r="E37" s="90">
+        <v>-32.299999999999997</v>
+      </c>
+      <c r="F37" s="81">
+        <v>710</v>
+      </c>
+      <c r="G37" s="82" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="64" t="s">
+        <v>1915</v>
+      </c>
+      <c r="B38" s="87" t="s">
+        <v>1878</v>
+      </c>
+      <c r="C38" s="92">
+        <v>368</v>
+      </c>
+      <c r="D38" s="78" t="s">
+        <v>1965</v>
+      </c>
+      <c r="E38" s="90">
+        <v>-12.4</v>
+      </c>
+      <c r="F38" s="81">
         <v>650</v>
       </c>
-      <c r="G19" s="84" t="s">
-        <v>1970</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="62" t="s">
-        <v>1898</v>
-      </c>
-      <c r="B20" s="88" t="s">
-        <v>1857</v>
-      </c>
-      <c r="C20" s="96">
-        <v>574</v>
-      </c>
-      <c r="D20" s="80" t="s">
-        <v>1966</v>
-      </c>
-      <c r="E20" s="92">
-        <v>-28.8</v>
-      </c>
-      <c r="F20" s="83">
-        <v>895</v>
-      </c>
-      <c r="G20" s="84" t="s">
-        <v>1970</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="66" t="s">
-        <v>1905</v>
-      </c>
-      <c r="B21" s="89" t="s">
-        <v>1877</v>
-      </c>
-      <c r="C21" s="96">
-        <v>574</v>
-      </c>
-      <c r="D21" s="80" t="s">
-        <v>1966</v>
-      </c>
-      <c r="E21" s="92">
-        <v>-26.3</v>
-      </c>
-      <c r="F21" s="83">
-        <v>556</v>
-      </c>
-      <c r="G21" s="84" t="s">
-        <v>1970</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="62" t="s">
-        <v>1899</v>
-      </c>
-      <c r="B22" s="88" t="s">
-        <v>1861</v>
-      </c>
-      <c r="C22" s="96">
-        <v>541</v>
-      </c>
-      <c r="D22" s="80" t="s">
-        <v>1966</v>
-      </c>
-      <c r="E22" s="92">
-        <v>-33.1</v>
-      </c>
-      <c r="F22" s="83">
-        <v>609</v>
-      </c>
-      <c r="G22" s="84" t="s">
-        <v>1970</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="66" t="s">
-        <v>1911</v>
-      </c>
-      <c r="B23" s="89" t="s">
-        <v>1875</v>
-      </c>
-      <c r="C23" s="96">
-        <v>537</v>
-      </c>
-      <c r="D23" s="80" t="s">
-        <v>1966</v>
-      </c>
-      <c r="E23" s="92">
-        <v>-16</v>
-      </c>
-      <c r="F23" s="83">
-        <v>672</v>
-      </c>
-      <c r="G23" s="84" t="s">
-        <v>1970</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="66" t="s">
-        <v>1913</v>
-      </c>
-      <c r="B24" s="89" t="s">
-        <v>1882</v>
-      </c>
-      <c r="C24" s="96">
-        <v>521</v>
-      </c>
-      <c r="D24" s="80" t="s">
-        <v>1966</v>
-      </c>
-      <c r="E24" s="92">
-        <v>-15.9</v>
-      </c>
-      <c r="F24" s="83">
-        <v>680</v>
-      </c>
-      <c r="G24" s="84" t="s">
-        <v>1970</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="70" t="s">
-        <v>1914</v>
-      </c>
-      <c r="B25" s="90" t="s">
-        <v>1892</v>
-      </c>
-      <c r="C25" s="96">
-        <v>519</v>
-      </c>
-      <c r="D25" s="85" t="s">
-        <v>1968</v>
-      </c>
-      <c r="E25" s="92">
-        <v>-17</v>
-      </c>
-      <c r="F25" s="83">
-        <v>888</v>
-      </c>
-      <c r="G25" s="84" t="s">
-        <v>1970</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="66" t="s">
-        <v>1917</v>
-      </c>
-      <c r="B26" s="89" t="s">
-        <v>1883</v>
-      </c>
-      <c r="C26" s="96">
-        <v>512</v>
-      </c>
-      <c r="D26" s="80" t="s">
-        <v>1966</v>
-      </c>
-      <c r="E26" s="93">
-        <v>-11.5</v>
-      </c>
-      <c r="F26" s="83">
-        <v>681</v>
-      </c>
-      <c r="G26" s="84" t="s">
-        <v>1970</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="64" t="s">
-        <v>1894</v>
-      </c>
-      <c r="B27" s="86" t="s">
-        <v>1866</v>
-      </c>
-      <c r="C27" s="96">
-        <v>503</v>
-      </c>
-      <c r="D27" s="85" t="s">
-        <v>1968</v>
-      </c>
-      <c r="E27" s="92">
-        <v>-32.4</v>
-      </c>
-      <c r="F27" s="83">
-        <v>927</v>
-      </c>
-      <c r="G27" s="84" t="s">
-        <v>1970</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="66" t="s">
-        <v>1901</v>
-      </c>
-      <c r="B28" s="89" t="s">
-        <v>1873</v>
-      </c>
-      <c r="C28" s="96">
-        <v>502</v>
-      </c>
-      <c r="D28" s="80" t="s">
-        <v>1966</v>
-      </c>
-      <c r="E28" s="92">
-        <v>-29.4</v>
-      </c>
-      <c r="F28" s="83">
-        <v>641</v>
-      </c>
-      <c r="G28" s="84" t="s">
-        <v>1970</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="62" t="s">
-        <v>1908</v>
-      </c>
-      <c r="B29" s="88" t="s">
-        <v>1862</v>
-      </c>
-      <c r="C29" s="95">
-        <v>498</v>
-      </c>
-      <c r="D29" s="80" t="s">
-        <v>1966</v>
-      </c>
-      <c r="E29" s="92">
-        <v>-26.1</v>
-      </c>
-      <c r="F29" s="83">
-        <v>742</v>
-      </c>
-      <c r="G29" s="84" t="s">
-        <v>1970</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="66" t="s">
-        <v>1910</v>
-      </c>
-      <c r="B30" s="89" t="s">
-        <v>1880</v>
-      </c>
-      <c r="C30" s="95">
-        <v>498</v>
-      </c>
-      <c r="D30" s="80" t="s">
-        <v>1966</v>
-      </c>
-      <c r="E30" s="92">
-        <v>-19.100000000000001</v>
-      </c>
-      <c r="F30" s="83">
-        <v>679</v>
-      </c>
-      <c r="G30" s="84" t="s">
-        <v>1970</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="66" t="s">
-        <v>1901</v>
-      </c>
-      <c r="B31" s="89" t="s">
-        <v>1874</v>
-      </c>
-      <c r="C31" s="95">
-        <v>493</v>
-      </c>
-      <c r="D31" s="80" t="s">
-        <v>1966</v>
-      </c>
-      <c r="E31" s="92">
-        <v>-26.1</v>
-      </c>
-      <c r="F31" s="83">
-        <v>680</v>
-      </c>
-      <c r="G31" s="84" t="s">
-        <v>1970</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="64" t="s">
-        <v>1909</v>
-      </c>
-      <c r="B32" s="86" t="s">
-        <v>1871</v>
-      </c>
-      <c r="C32" s="95">
-        <v>469</v>
-      </c>
-      <c r="D32" s="80" t="s">
-        <v>1966</v>
-      </c>
-      <c r="E32" s="92">
-        <v>-21.7</v>
-      </c>
-      <c r="F32" s="83">
-        <v>737</v>
-      </c>
-      <c r="G32" s="84" t="s">
-        <v>1970</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="66" t="s">
-        <v>1916</v>
-      </c>
-      <c r="B33" s="89" t="s">
-        <v>1876</v>
-      </c>
-      <c r="C33" s="95">
-        <v>460</v>
-      </c>
-      <c r="D33" s="80" t="s">
-        <v>1966</v>
-      </c>
-      <c r="E33" s="92">
-        <v>-13.7</v>
-      </c>
-      <c r="F33" s="83">
-        <v>678</v>
-      </c>
-      <c r="G33" s="84" t="s">
-        <v>1970</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="66" t="s">
-        <v>1918</v>
-      </c>
-      <c r="B34" s="89" t="s">
-        <v>1879</v>
-      </c>
-      <c r="C34" s="95">
-        <v>449</v>
-      </c>
-      <c r="D34" s="80" t="s">
-        <v>1966</v>
-      </c>
-      <c r="E34" s="92">
-        <v>-11.7</v>
-      </c>
-      <c r="F34" s="83">
-        <v>565</v>
-      </c>
-      <c r="G34" s="84" t="s">
-        <v>1970</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="66" t="s">
+      <c r="G38" s="82" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="64" t="s">
         <v>1947</v>
       </c>
-      <c r="B35" s="89" t="s">
-        <v>1886</v>
-      </c>
-      <c r="C35" s="95">
-        <v>437</v>
-      </c>
-      <c r="D35" s="80" t="s">
-        <v>1966</v>
-      </c>
-      <c r="E35" s="92">
-        <v>-17</v>
-      </c>
-      <c r="F35" s="83">
-        <v>521</v>
-      </c>
-      <c r="G35" s="84" t="s">
-        <v>1970</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="62" t="s">
-        <v>1893</v>
-      </c>
-      <c r="B36" s="88" t="s">
-        <v>1865</v>
-      </c>
-      <c r="C36" s="95">
-        <v>423</v>
-      </c>
-      <c r="D36" s="80" t="s">
-        <v>1966</v>
-      </c>
-      <c r="E36" s="92">
-        <v>-32.4</v>
-      </c>
-      <c r="F36" s="83">
-        <v>634</v>
-      </c>
-      <c r="G36" s="84" t="s">
-        <v>1970</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="64" t="s">
-        <v>1896</v>
-      </c>
-      <c r="B37" s="86" t="s">
-        <v>1867</v>
-      </c>
-      <c r="C37" s="95">
-        <v>400</v>
-      </c>
-      <c r="D37" s="80" t="s">
-        <v>1966</v>
-      </c>
-      <c r="E37" s="92">
-        <v>-32.299999999999997</v>
-      </c>
-      <c r="F37" s="83">
-        <v>710</v>
-      </c>
-      <c r="G37" s="84" t="s">
-        <v>1970</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="66" t="s">
-        <v>1915</v>
-      </c>
-      <c r="B38" s="89" t="s">
-        <v>1878</v>
-      </c>
-      <c r="C38" s="94">
-        <v>368</v>
-      </c>
-      <c r="D38" s="80" t="s">
-        <v>1966</v>
-      </c>
-      <c r="E38" s="92">
-        <v>-12.4</v>
-      </c>
-      <c r="F38" s="83">
-        <v>650</v>
-      </c>
-      <c r="G38" s="84" t="s">
-        <v>1970</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="66" t="s">
-        <v>1947</v>
-      </c>
-      <c r="B39" s="89" t="s">
+      <c r="B39" s="87" t="s">
         <v>1891</v>
       </c>
-      <c r="C39" s="94">
+      <c r="C39" s="92">
         <v>323</v>
       </c>
-      <c r="D39" s="80" t="s">
-        <v>1966</v>
-      </c>
-      <c r="E39" s="92">
+      <c r="D39" s="78" t="s">
+        <v>1965</v>
+      </c>
+      <c r="E39" s="90">
         <v>-16.399999999999999</v>
       </c>
-      <c r="F39" s="83">
+      <c r="F39" s="81">
         <v>562</v>
       </c>
-      <c r="G39" s="84" t="s">
-        <v>1970</v>
+      <c r="G39" s="82" t="s">
+        <v>1969</v>
       </c>
     </row>
   </sheetData>
